--- a/FileBaoCao/PhacThao_ThemSanPham.xlsx
+++ b/FileBaoCao/PhacThao_ThemSanPham.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCHOOL\NAM5-HK1\PTTKDBCL-KTLTHDT\Electronic_Components_Website\FileBaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF326A0C-9568-4BE7-8036-A1876C5A3CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E260E9-3692-443D-AFFF-2F42F5DB7CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{1322EDAB-4D4E-45D7-90B1-7A244F65E19A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{1322EDAB-4D4E-45D7-90B1-7A244F65E19A}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,17 @@
     <sheet name="Xử lý 10.6" sheetId="8" r:id="rId8"/>
     <sheet name="Xử lý 10.7" sheetId="9" r:id="rId9"/>
     <sheet name="Xử lý 10.8" sheetId="10" r:id="rId10"/>
-    <sheet name="Xử lý 10.9" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Thiết kế'!$A$1:$AH$148</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Trang bìa'!$A$1:$AH$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Xử lý 10.1'!$A$1:$Q$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Xử lý 10.2'!$A$1:$Q$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Xử lý 10.3'!$A$1:$Q$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Xử lý 10.4'!$A$1:$Q$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Xử lý 10.5'!$A$1:$Q$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Xử lý 10.6'!$A$1:$Q$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Xử lý 10.8'!$A$1:$Q$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="240">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -443,36 +448,12 @@
     <t>2.Chọn ảnh từ hệ thống lên ứng dụng</t>
   </si>
   <si>
-    <t>(3)Nhập tên sản phẩm mới</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. nhấn vào TextView "Tên sản phẩm" để nhập tên sản phẩm mới </t>
-  </si>
-  <si>
-    <t>(4) Chọn danh mục cho sản phẩm</t>
-  </si>
-  <si>
-    <t>1. Nhấn vào TextView "Select Category"</t>
-  </si>
-  <si>
     <t>2. Chọn danh mục cho sản phẩm mới đó</t>
   </si>
   <si>
-    <t>(5) Chọn nhà cung cấp sản phẩm</t>
-  </si>
-  <si>
-    <t>1. Nhấn vào TextView "Select  Supplier"</t>
-  </si>
-  <si>
     <t>2. Chọn nhà cung cấp cung ứng sản phẩm</t>
   </si>
   <si>
-    <t>(6) Chọn loại thuế sản phẩm</t>
-  </si>
-  <si>
-    <t>1. Nhấn vào TextView "Select  Tax"</t>
-  </si>
-  <si>
     <t>2. Chọn loại thuế sản phẩm</t>
   </si>
   <si>
@@ -485,12 +466,6 @@
     <t>3. Thêm giá vừa nhập cho sản phẩm</t>
   </si>
   <si>
-    <t>(7) Thêm giá sản phẩm</t>
-  </si>
-  <si>
-    <t>(8) Thêm thông số kỹ thuật cho sản phẩm</t>
-  </si>
-  <si>
     <t>1. Nhấn vào Button "Thêm thông số kỹ thuật" để thêm thông số mới</t>
   </si>
   <si>
@@ -498,9 +473,6 @@
   </si>
   <si>
     <t>3. Nhấn Button "Add" để thêm thông số mới đó</t>
-  </si>
-  <si>
-    <t>(9) Thêm sản phẩm mới</t>
   </si>
   <si>
     <t>1. Nhấn vào Button "Thêm"  đê xử lý</t>
@@ -616,13 +588,193 @@
   </si>
   <si>
     <t>(8) Thêm sản phẩm mới</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào SelectView "Select  Tax"</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào SelectView "Select  Supplier"</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào SelectView "Select Category"</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào SelectView "Select category" để chọn danh mục cho sản phẩm</t>
+  </si>
+  <si>
+    <t>Hình ảnh minh họa</t>
+  </si>
+  <si>
+    <t>2. Hiển thị toàn bộ các loại danh mục được lưu trong table Category</t>
+  </si>
+  <si>
+    <t>3.  Hiển thị kết quả chọn lên SelectView</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào SelectView "Select Supplier" để chọn nhà cung cấp cung ứng sản phẩm</t>
+  </si>
+  <si>
+    <t>(3) Chọn nhà cung cấp sản phẩm</t>
+  </si>
+  <si>
+    <t>2. Hiển thị danh sách nhà cung cấp từ table Supplier</t>
+  </si>
+  <si>
+    <t>(3) Chọn loại thuế cho sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào SelectView "Select Tax" để chọn loại thuế cho sản phẩm</t>
+  </si>
+  <si>
+    <t>2. Hiển thị danh sách các loại thuế từ table Tax</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào button "Thêm giá sản phẩm" để thêm giá sản phẩm</t>
+  </si>
+  <si>
+    <t>2. Hiển thị subform nhập giá sản phẩm</t>
+  </si>
+  <si>
+    <t>a) Xử lý button Add</t>
+  </si>
+  <si>
+    <t>Thêm giá mới cho sản phẩm</t>
+  </si>
+  <si>
+    <t>b) Exit</t>
+  </si>
+  <si>
+    <t>Thoát ra khỏi bảng thêm giá</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào button "Thêm thông số" để thêm thông số kỹ thuật cho sản phẩm</t>
+  </si>
+  <si>
+    <t>2. Hiển thị subform nhập thông số mới</t>
+  </si>
+  <si>
+    <t>Thêm thông số mới nhập vào sản phẩm</t>
+  </si>
+  <si>
+    <t>Thoát ra khỏi bảng nhập thống số kỹ thuật</t>
+  </si>
+  <si>
+    <t>1. Nhấn nút button "Thêm"  để thực hiện xử lý</t>
+  </si>
+  <si>
+    <t>2. Xử lý check</t>
+  </si>
+  <si>
+    <t>Trường hợp chưa nhập, báo lỗi</t>
+  </si>
+  <si>
+    <t>Trường hợp chưa chọn, báo lỗi</t>
+  </si>
+  <si>
+    <t>Trường hợp chưa thêm, báo lỗi</t>
+  </si>
+  <si>
+    <t>VALIDATION_IMAGE_PRODUCT_ERROR001</t>
+  </si>
+  <si>
+    <t>VALIDATION_NAME_PRODUCT_ERROR001</t>
+  </si>
+  <si>
+    <t>VALIDATION_TAX_PRODUCT_ERROR001</t>
+  </si>
+  <si>
+    <t>VALIDATION_CATEGORY_PRODUCT_ERROR001</t>
+  </si>
+  <si>
+    <t>VALIDATION_SUPPLIER_PRODUCT_ERROR001</t>
+  </si>
+  <si>
+    <t>VALIDATION_CONTENTS_PRODUCT_ERROR001</t>
+  </si>
+  <si>
+    <t>VALIDATION_FEATURE_PRODUCT_ERROR001</t>
+  </si>
+  <si>
+    <t>VALIDATION_PRICE_PRODUCT_ERROR001</t>
+  </si>
+  <si>
+    <t>VALIDATION_SPECIFICATION_PRODUCT_ERROR001</t>
+  </si>
+  <si>
+    <t>3. lưu dữ liệu về server</t>
+  </si>
+  <si>
+    <t>a) truy xuất dữ liệu khi người dùng dùng input trên view</t>
+  </si>
+  <si>
+    <t>4. Nếu phát sinh lỗi, thông báo tại màn hình này</t>
+  </si>
+  <si>
+    <t>Ngược lại, thành công thì thông báo thành công và quay lại màn hính chính của ứng dụng</t>
+  </si>
+  <si>
+    <t>Thông báo</t>
+  </si>
+  <si>
+    <t>Trường hợp</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm thất bại</t>
+  </si>
+  <si>
+    <t>ADD_PRODUCT_SUCCESS</t>
+  </si>
+  <si>
+    <t>ADD_PRODUCT_ERROR001</t>
+  </si>
+  <si>
+    <t>Product.productName</t>
+  </si>
+  <si>
+    <t>Product.category_id</t>
+  </si>
+  <si>
+    <t>Product.supplier_id</t>
+  </si>
+  <si>
+    <t>Product.tax</t>
+  </si>
+  <si>
+    <t>Product.feature</t>
+  </si>
+  <si>
+    <t>Product.contents</t>
+  </si>
+  <si>
+    <t>Product.imageProduct</t>
+  </si>
+  <si>
+    <t>Product.specification.name</t>
+  </si>
+  <si>
+    <t>Product.specification.value</t>
+  </si>
+  <si>
+    <t>Product.priceList.price</t>
+  </si>
+  <si>
+    <t>b. Update dữ liệu lên database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +852,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1262,7 +1421,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1334,9 +1493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1395,236 +1551,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1636,36 +1565,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1675,26 +1579,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1705,70 +1602,363 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -4830,16 +5020,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>500380</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>538297</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>512897</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4868,8 +5058,421 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1744980" y="1478280"/>
-          <a:ext cx="4279717" cy="2461260"/>
+          <a:off x="2329180" y="1473200"/>
+          <a:ext cx="4279717" cy="2395220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>407413</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A525D7B-51D4-F725-9B0A-64FFAD727B81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828801" y="1478280"/>
+          <a:ext cx="4674612" cy="2918460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979F5840-1400-6A1A-CEBE-ECA185BF3BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2118360" y="5113020"/>
+          <a:ext cx="3390900" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAFC258-9CFF-8F4A-F167-C279430D0ECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196340" y="1546860"/>
+          <a:ext cx="5806440" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>84681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C7C5A5-5138-89A4-6D23-437F4DEF5389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1859281" y="3817621"/>
+          <a:ext cx="3665220" cy="854300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837CDC88-BFA5-0605-BAC2-FE08659FE67D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1958340" y="1783080"/>
+          <a:ext cx="3764280" cy="1280850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>246380</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E09520-4B5E-73A9-5A68-C417B867D114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082800" y="3934460"/>
+          <a:ext cx="3040380" cy="683141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6152E76-CA1A-3620-8D73-E358BE90061F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988820" y="1554480"/>
+          <a:ext cx="4183380" cy="1639102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDBB6E4-C619-8403-A238-A65F6B316FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1737360"/>
+          <a:ext cx="4038600" cy="1591567"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5193,168 +5796,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
+      <c r="H1" s="115"/>
+      <c r="I1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="84"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="64" t="s">
+      <c r="Q1" s="94"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="64"/>
-      <c r="X1" s="81" t="s">
+      <c r="W1" s="94"/>
+      <c r="X1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="63" t="s">
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
       <c r="AC1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="83" t="s">
+      <c r="AD1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="84"/>
+      <c r="AE1" s="102"/>
       <c r="AF1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="63" t="s">
+      <c r="AG1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="64"/>
+      <c r="AH1" s="94"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
       <c r="AC2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
       <c r="AF2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="64"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="94"/>
     </row>
     <row r="3" spans="1:34" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
+      <c r="J3" s="98"/>
+      <c r="K3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="65" t="s">
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="67" t="s">
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="65" t="s">
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="67" t="s">
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
     </row>
     <row r="4" spans="1:34" ht="15" thickTop="1"/>
     <row r="5" spans="1:34">
@@ -5372,20 +5975,20 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:34" ht="21">
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
     </row>
     <row r="17" spans="7:33" ht="21">
-      <c r="I17" s="96" t="s">
+      <c r="I17" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
     </row>
     <row r="22" spans="7:33">
       <c r="G22" t="s">
@@ -5413,31 +6016,31 @@
       <c r="K24" t="s">
         <v>24</v>
       </c>
-      <c r="S24" s="53" t="s">
+      <c r="S24" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="T24" s="53" t="s">
+      <c r="T24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="U24" s="104" t="s">
+      <c r="U24" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="53" t="s">
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="136"/>
+      <c r="AA24" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AB24" s="102" t="s">
+      <c r="AB24" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="102"/>
-      <c r="AG24" s="102"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="132"/>
+      <c r="AE24" s="132"/>
+      <c r="AF24" s="132"/>
+      <c r="AG24" s="132"/>
     </row>
     <row r="25" spans="7:33">
       <c r="G25" t="s">
@@ -5456,21 +6059,21 @@
         <v>91</v>
       </c>
       <c r="V25" s="8"/>
-      <c r="W25" s="101" t="s">
+      <c r="W25" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
       <c r="AA25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="103"/>
-      <c r="AG25" s="103"/>
+      <c r="AB25" s="133"/>
+      <c r="AC25" s="133"/>
+      <c r="AD25" s="133"/>
+      <c r="AE25" s="133"/>
+      <c r="AF25" s="133"/>
+      <c r="AG25" s="133"/>
     </row>
     <row r="26" spans="7:33">
       <c r="G26" t="s">
@@ -5495,12 +6098,12 @@
       <c r="AA26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="107"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="137"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="137"/>
     </row>
     <row r="27" spans="7:33">
       <c r="G27" t="s">
@@ -5512,10 +6115,10 @@
       <c r="T27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U27" s="98" t="s">
+      <c r="U27" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="V27" s="99"/>
+      <c r="V27" s="129"/>
       <c r="W27" s="10" t="s">
         <v>95</v>
       </c>
@@ -5525,12 +6128,12 @@
       <c r="AA27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="107"/>
-      <c r="AD27" s="107"/>
-      <c r="AE27" s="107"/>
-      <c r="AF27" s="107"/>
-      <c r="AG27" s="107"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="137"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="137"/>
     </row>
     <row r="28" spans="7:33">
       <c r="S28" s="9">
@@ -5539,25 +6142,25 @@
       <c r="T28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U28" s="97" t="s">
+      <c r="U28" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="V28" s="97"/>
-      <c r="W28" s="98" t="s">
+      <c r="V28" s="127"/>
+      <c r="W28" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="99"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="130"/>
+      <c r="Z28" s="129"/>
       <c r="AA28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="107"/>
-      <c r="AD28" s="107"/>
-      <c r="AE28" s="107"/>
-      <c r="AF28" s="107"/>
-      <c r="AG28" s="107"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="137"/>
     </row>
     <row r="29" spans="7:33">
       <c r="S29" s="9">
@@ -5566,25 +6169,25 @@
       <c r="T29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U29" s="97" t="s">
+      <c r="U29" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97" t="s">
+      <c r="V29" s="127"/>
+      <c r="W29" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
       <c r="AA29" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="107"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
     </row>
     <row r="30" spans="7:33">
       <c r="S30" s="9">
@@ -5593,25 +6196,25 @@
       <c r="T30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U30" s="97" t="s">
+      <c r="U30" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97" t="s">
+      <c r="V30" s="127"/>
+      <c r="W30" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="97"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
       <c r="AA30" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="59"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="89"/>
     </row>
     <row r="31" spans="7:33">
       <c r="S31" s="11">
@@ -5633,97 +6236,97 @@
       <c r="AA31" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="61"/>
-      <c r="AD31" s="61"/>
-      <c r="AE31" s="61"/>
-      <c r="AF31" s="61"/>
-      <c r="AG31" s="62"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="91"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="92"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="64" t="s">
+      <c r="A33" s="104"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="81" t="s">
+      <c r="F33" s="94"/>
+      <c r="G33" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="82"/>
-      <c r="I33" s="63" t="s">
+      <c r="H33" s="115"/>
+      <c r="I33" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
       <c r="L33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="83" t="s">
+      <c r="M33" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="84"/>
+      <c r="N33" s="102"/>
       <c r="O33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="63" t="s">
+      <c r="P33" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="64"/>
+      <c r="Q33" s="94"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="74"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
       <c r="L34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="63"/>
-      <c r="N34" s="64"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
       <c r="O34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="64"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="94"/>
     </row>
     <row r="35" spans="1:17" ht="15" thickBot="1">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="65" t="s">
+      <c r="A35" s="110"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67" t="s">
+      <c r="H35" s="96"/>
+      <c r="I35" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="68"/>
-      <c r="K35" s="65" t="s">
+      <c r="J35" s="98"/>
+      <c r="K35" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="66"/>
-      <c r="M35" s="67" t="s">
+      <c r="L35" s="96"/>
+      <c r="M35" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
     </row>
     <row r="36" spans="1:17" ht="15" thickTop="1"/>
     <row r="38" spans="1:17">
@@ -5732,42 +6335,42 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91" t="s">
+      <c r="D40" s="122"/>
+      <c r="E40" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91" t="s">
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="91"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
       <c r="M41" s="13" t="s">
         <v>38</v>
       </c>
@@ -5782,46 +6385,46 @@
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="B42" s="85">
+      <c r="B42" s="116">
         <v>1</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="85"/>
-      <c r="E42" s="87" t="s">
+      <c r="D42" s="116"/>
+      <c r="E42" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="89" t="s">
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="89"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="121"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="100"/>
     </row>
     <row r="44" spans="1:17">
       <c r="B44" s="14"/>
@@ -6196,89 +6799,89 @@
       <c r="P71" s="20"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="71"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="64" t="s">
+      <c r="A74" s="104"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="64" t="s">
+      <c r="E74" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F74" s="64"/>
-      <c r="G74" s="81" t="s">
+      <c r="F74" s="94"/>
+      <c r="G74" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="82"/>
-      <c r="I74" s="63" t="s">
+      <c r="H74" s="115"/>
+      <c r="I74" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="64"/>
-      <c r="K74" s="64"/>
+      <c r="J74" s="94"/>
+      <c r="K74" s="94"/>
       <c r="L74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M74" s="83" t="s">
+      <c r="M74" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N74" s="84"/>
+      <c r="N74" s="102"/>
       <c r="O74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P74" s="63" t="s">
+      <c r="P74" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="Q74" s="64"/>
+      <c r="Q74" s="94"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="74"/>
-      <c r="B75" s="75"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="82"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
+      <c r="A75" s="107"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="109"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="115"/>
+      <c r="I75" s="93"/>
+      <c r="J75" s="94"/>
+      <c r="K75" s="94"/>
       <c r="L75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M75" s="63"/>
-      <c r="N75" s="64"/>
+      <c r="M75" s="93"/>
+      <c r="N75" s="94"/>
       <c r="O75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="64"/>
+      <c r="P75" s="93"/>
+      <c r="Q75" s="94"/>
     </row>
     <row r="76" spans="1:17" ht="15" thickBot="1">
-      <c r="A76" s="77"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="65" t="s">
+      <c r="A76" s="110"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="113"/>
+      <c r="F76" s="113"/>
+      <c r="G76" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="66"/>
-      <c r="I76" s="67" t="s">
+      <c r="H76" s="96"/>
+      <c r="I76" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="J76" s="68"/>
-      <c r="K76" s="65" t="s">
+      <c r="J76" s="98"/>
+      <c r="K76" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L76" s="66"/>
-      <c r="M76" s="67" t="s">
+      <c r="L76" s="96"/>
+      <c r="M76" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="N76" s="68"/>
-      <c r="O76" s="68"/>
-      <c r="P76" s="68"/>
-      <c r="Q76" s="68"/>
+      <c r="N76" s="98"/>
+      <c r="O76" s="98"/>
+      <c r="P76" s="98"/>
+      <c r="Q76" s="98"/>
     </row>
     <row r="77" spans="1:17" ht="15" thickTop="1"/>
     <row r="78" spans="1:17">
@@ -6357,17 +6960,16 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:T3"/>
     <mergeCell ref="U1:U3"/>
     <mergeCell ref="V1:W3"/>
     <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AB2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="W25:Z25"/>
@@ -6375,6 +6977,7 @@
     <mergeCell ref="AB25:AG25"/>
     <mergeCell ref="U24:Z24"/>
     <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="Z1:AB2"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="U29:V29"/>
@@ -6442,102 +7045,694 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432231C-70A8-47A4-9396-36BE7DDFACDA}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="84"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="199">
+      <c r="P1" s="149">
         <v>45270</v>
       </c>
-      <c r="Q1" s="64"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1"/>
+    <row r="6" spans="1:17">
+      <c r="B6" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="C7" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="C11" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="175" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="175" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="176"/>
+      <c r="N11" s="176"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="177"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="C12" s="86">
+        <v>1</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="171"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="173" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="62"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="C13" s="86">
+        <v>2</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="173" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="62"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="C14" s="86">
+        <v>3</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="171"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="173" t="s">
+        <v>211</v>
+      </c>
+      <c r="M14" s="174"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="62"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="C15" s="178">
+        <v>4</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="173" t="s">
+        <v>212</v>
+      </c>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="62"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" s="178">
+        <v>5</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="173" t="s">
+        <v>210</v>
+      </c>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="62"/>
+    </row>
+    <row r="17" spans="3:16">
+      <c r="C17" s="178">
+        <v>6</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="173" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="62"/>
+    </row>
+    <row r="18" spans="3:16">
+      <c r="C18" s="178">
+        <v>7</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="80"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="173" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="62"/>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="C19" s="178">
+        <v>8</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="80"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="173" t="s">
+        <v>215</v>
+      </c>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="62"/>
+    </row>
+    <row r="20" spans="3:16">
+      <c r="C20" s="179">
+        <v>9</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="81"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="189" t="s">
+        <v>216</v>
+      </c>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="63"/>
+    </row>
+    <row r="22" spans="3:16">
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16">
+      <c r="C24" s="191" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="191"/>
+    </row>
+    <row r="25" spans="3:16">
+      <c r="C25" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="194"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="202" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" s="203"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="203"/>
+      <c r="L25" s="203"/>
+      <c r="M25" s="203"/>
+      <c r="N25" s="203"/>
+      <c r="O25" s="203"/>
+      <c r="P25" s="204"/>
+    </row>
+    <row r="26" spans="3:16">
+      <c r="C26" s="196"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="202" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="203"/>
+      <c r="L26" s="203"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="203"/>
+      <c r="O26" s="203"/>
+      <c r="P26" s="204"/>
+    </row>
+    <row r="27" spans="3:16">
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="62"/>
+    </row>
+    <row r="28" spans="3:16">
+      <c r="C28" s="196"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="62"/>
+    </row>
+    <row r="29" spans="3:16">
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="62"/>
+    </row>
+    <row r="30" spans="3:16">
+      <c r="C30" s="196"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="62"/>
+    </row>
+    <row r="31" spans="3:16">
+      <c r="C31" s="196"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="62"/>
+    </row>
+    <row r="32" spans="3:16">
+      <c r="C32" s="196"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="62"/>
+    </row>
+    <row r="33" spans="3:16">
+      <c r="C33" s="196"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="62"/>
+    </row>
+    <row r="34" spans="3:16">
+      <c r="C34" s="199"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="190" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="63"/>
+    </row>
+    <row r="37" spans="3:16">
+      <c r="C37" s="193" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16">
+      <c r="C38" s="193"/>
+    </row>
+    <row r="40" spans="3:16">
+      <c r="C40" s="182" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16">
+      <c r="C41" s="183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16">
+      <c r="C43" s="169" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="169"/>
+      <c r="E43" s="169" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="169"/>
+      <c r="G43" s="169"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="169"/>
+      <c r="K43" s="169"/>
+      <c r="L43" s="169"/>
+      <c r="M43" s="169" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="169"/>
+      <c r="O43" s="169"/>
+      <c r="P43" s="169"/>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="C44" s="180" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="180"/>
+      <c r="E44" s="127" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="188" t="s">
+        <v>227</v>
+      </c>
+      <c r="N44" s="184"/>
+      <c r="O44" s="184"/>
+      <c r="P44" s="185"/>
+    </row>
+    <row r="45" spans="3:16">
+      <c r="C45" s="181" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="181"/>
+      <c r="E45" s="145" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="145"/>
+      <c r="L45" s="145"/>
+      <c r="M45" s="188" t="s">
+        <v>228</v>
+      </c>
+      <c r="N45" s="186"/>
+      <c r="O45" s="186"/>
+      <c r="P45" s="187"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="26">
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:L45"/>
+    <mergeCell ref="C25:E34"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:L44"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:P24"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -6545,130 +7740,15 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:F3"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9715B57D-613D-4DFE-812A-B39B77570EE9}">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="84"/>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="199">
-        <v>45270</v>
-      </c>
-      <c r="Q1" s="64"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6676,8 +7756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3E047E-ACF9-47F2-9BD3-B296B0586256}">
   <dimension ref="A1:AX138"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A50" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6692,249 +7772,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="84"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="199">
+      <c r="P1" s="149">
         <v>45270</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="64" t="s">
+      <c r="Q1" s="94"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="64"/>
-      <c r="X1" s="81" t="s">
+      <c r="W1" s="94"/>
+      <c r="X1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
       <c r="AC1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="83" t="s">
+      <c r="AD1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="84"/>
+      <c r="AE1" s="102"/>
       <c r="AF1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="199">
+      <c r="AG1" s="149">
         <v>45270</v>
       </c>
-      <c r="AH1" s="64"/>
+      <c r="AH1" s="94"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
       <c r="AC2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
       <c r="AF2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="64"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="94"/>
     </row>
     <row r="3" spans="1:34" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="65" t="s">
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="65" t="s">
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
     </row>
     <row r="4" spans="1:34" ht="15" thickTop="1"/>
     <row r="5" spans="1:34">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="179" t="s">
+      <c r="S5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="179"/>
+      <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="T6" s="120" t="s">
+      <c r="T6" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="U6" s="120"/>
+      <c r="U6" s="147"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="T7" s="138" t="s">
-        <v>156</v>
+      <c r="T7" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="T9" s="133" t="s">
+      <c r="T9" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="U9" s="133"/>
+      <c r="U9" s="28"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="T10" s="138" t="s">
-        <v>156</v>
+      <c r="T10" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="T12" s="28" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="T13" s="138" t="s">
-        <v>156</v>
+      <c r="T13" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="T15" s="28" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="T16" s="138" t="s">
-        <v>156</v>
+      <c r="T16" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="20:33">
       <c r="T18" s="28" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="20:33">
-      <c r="T19" s="138" t="s">
-        <v>156</v>
+      <c r="T19" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="20:33">
       <c r="T21" s="28" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="20:33">
-      <c r="T22" s="138" t="s">
-        <v>156</v>
+      <c r="T22" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="20:33">
       <c r="T24" s="28" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="20:33">
-      <c r="T25" s="138" t="s">
-        <v>156</v>
+      <c r="T25" s="61" t="s">
+        <v>145</v>
       </c>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
@@ -6952,12 +8032,12 @@
     </row>
     <row r="27" spans="20:33">
       <c r="T27" s="28" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="20:33">
-      <c r="T28" s="138" t="s">
-        <v>156</v>
+      <c r="T28" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="2:50">
@@ -7471,72 +8551,72 @@
       <c r="AX50" s="26"/>
     </row>
     <row r="51" spans="1:50" ht="13.2" customHeight="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="64" t="s">
+      <c r="A51" s="104"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="64"/>
-      <c r="G51" s="81" t="s">
+      <c r="F51" s="94"/>
+      <c r="G51" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="82"/>
-      <c r="I51" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
       <c r="L51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="83" t="s">
+      <c r="M51" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="84"/>
+      <c r="N51" s="102"/>
       <c r="O51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P51" s="199">
+      <c r="P51" s="149">
         <v>45270</v>
       </c>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="73"/>
-      <c r="U51" s="64" t="s">
+      <c r="Q51" s="94"/>
+      <c r="R51" s="104"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="106"/>
+      <c r="U51" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="V51" s="64" t="s">
+      <c r="V51" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="W51" s="64"/>
-      <c r="X51" s="81" t="s">
+      <c r="W51" s="94"/>
+      <c r="X51" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="Y51" s="82"/>
-      <c r="Z51" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA51" s="64"/>
-      <c r="AB51" s="64"/>
+      <c r="Y51" s="115"/>
+      <c r="Z51" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA51" s="94"/>
+      <c r="AB51" s="94"/>
       <c r="AC51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD51" s="83" t="s">
+      <c r="AD51" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="AE51" s="84"/>
+      <c r="AE51" s="102"/>
       <c r="AF51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AG51" s="199">
+      <c r="AG51" s="149">
         <v>45270</v>
       </c>
-      <c r="AH51" s="64"/>
+      <c r="AH51" s="94"/>
       <c r="AI51" s="28"/>
       <c r="AJ51" s="28"/>
       <c r="AK51" s="28"/>
@@ -7555,48 +8635,48 @@
       <c r="AX51" s="26"/>
     </row>
     <row r="52" spans="1:50" ht="13.2" customHeight="1">
-      <c r="A52" s="74"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
+      <c r="A52" s="107"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="63"/>
-      <c r="N52" s="64"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="94"/>
       <c r="O52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="74"/>
-      <c r="S52" s="75"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="64"/>
-      <c r="V52" s="64"/>
-      <c r="W52" s="64"/>
-      <c r="X52" s="81"/>
-      <c r="Y52" s="82"/>
-      <c r="Z52" s="63"/>
-      <c r="AA52" s="64"/>
-      <c r="AB52" s="64"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="107"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="109"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="94"/>
+      <c r="X52" s="114"/>
+      <c r="Y52" s="115"/>
+      <c r="Z52" s="93"/>
+      <c r="AA52" s="94"/>
+      <c r="AB52" s="94"/>
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD52" s="63"/>
-      <c r="AE52" s="64"/>
+      <c r="AD52" s="93"/>
+      <c r="AE52" s="94"/>
       <c r="AF52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AG52" s="63"/>
-      <c r="AH52" s="64"/>
+      <c r="AG52" s="93"/>
+      <c r="AH52" s="94"/>
       <c r="AI52" s="28"/>
       <c r="AJ52" s="28"/>
       <c r="AK52" s="28"/>
@@ -7615,56 +8695,56 @@
       <c r="AX52" s="26"/>
     </row>
     <row r="53" spans="1:50" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="65" t="s">
+      <c r="A53" s="110"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="66"/>
-      <c r="I53" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J53" s="68"/>
-      <c r="K53" s="65" t="s">
+      <c r="H53" s="96"/>
+      <c r="I53" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J53" s="98"/>
+      <c r="K53" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L53" s="66"/>
-      <c r="M53" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="77"/>
-      <c r="S53" s="78"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="65" t="s">
+      <c r="L53" s="96"/>
+      <c r="M53" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
+      <c r="R53" s="110"/>
+      <c r="S53" s="111"/>
+      <c r="T53" s="112"/>
+      <c r="U53" s="113"/>
+      <c r="V53" s="113"/>
+      <c r="W53" s="113"/>
+      <c r="X53" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="Y53" s="66"/>
-      <c r="Z53" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA53" s="68"/>
-      <c r="AB53" s="65" t="s">
+      <c r="Y53" s="96"/>
+      <c r="Z53" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA53" s="98"/>
+      <c r="AB53" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AC53" s="66"/>
-      <c r="AD53" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE53" s="68"/>
-      <c r="AF53" s="68"/>
-      <c r="AG53" s="68"/>
-      <c r="AH53" s="68"/>
+      <c r="AC53" s="96"/>
+      <c r="AD53" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE53" s="98"/>
+      <c r="AF53" s="98"/>
+      <c r="AG53" s="98"/>
+      <c r="AH53" s="98"/>
       <c r="AI53" s="28"/>
       <c r="AJ53" s="28"/>
       <c r="AK53" s="28"/>
@@ -7877,40 +8957,40 @@
       <c r="AW57" s="2"/>
     </row>
     <row r="58" spans="1:50">
-      <c r="B58" s="165" t="s">
+      <c r="B58" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="166" t="s">
+      <c r="C58" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="167"/>
-      <c r="E58" s="166" t="s">
+      <c r="D58" s="164"/>
+      <c r="E58" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="167"/>
-      <c r="G58" s="166" t="s">
+      <c r="F58" s="164"/>
+      <c r="G58" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="H58" s="168"/>
-      <c r="I58" s="168"/>
-      <c r="J58" s="168"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="169" t="s">
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="164"/>
+      <c r="L58" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="M58" s="170"/>
-      <c r="N58" s="170"/>
-      <c r="O58" s="170"/>
-      <c r="P58" s="171"/>
+      <c r="M58" s="166"/>
+      <c r="N58" s="166"/>
+      <c r="O58" s="166"/>
+      <c r="P58" s="167"/>
       <c r="Q58" s="28"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="114" t="s">
+      <c r="S58" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="T58" s="114"/>
-      <c r="U58" s="114"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="T58" s="141"/>
+      <c r="U58" s="141"/>
+      <c r="V58" s="141"/>
+      <c r="W58" s="141"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
@@ -7930,37 +9010,37 @@
       <c r="AW58" s="2"/>
     </row>
     <row r="59" spans="1:50">
-      <c r="B59" s="155">
+      <c r="B59" s="56">
         <v>1</v>
       </c>
-      <c r="C59" s="156" t="s">
+      <c r="C59" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="157"/>
-      <c r="E59" s="158" t="s">
+      <c r="D59" s="69"/>
+      <c r="E59" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="159"/>
-      <c r="G59" s="156" t="s">
+      <c r="F59" s="71"/>
+      <c r="G59" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="H59" s="160"/>
-      <c r="I59" s="160"/>
-      <c r="J59" s="160"/>
-      <c r="K59" s="161"/>
-      <c r="L59" s="162" t="s">
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="M59" s="163"/>
-      <c r="N59" s="163"/>
-      <c r="O59" s="163"/>
-      <c r="P59" s="164"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="75"/>
       <c r="Q59" s="28"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="114" t="s">
+      <c r="S59" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="T59" s="114"/>
+      <c r="T59" s="141"/>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
@@ -7980,38 +9060,38 @@
       <c r="AW59" s="2"/>
     </row>
     <row r="60" spans="1:50">
-      <c r="B60" s="139">
+      <c r="B60" s="9">
         <v>2</v>
       </c>
-      <c r="C60" s="141" t="s">
+      <c r="C60" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="142"/>
-      <c r="E60" s="135" t="s">
+      <c r="D60" s="62"/>
+      <c r="E60" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="145"/>
-      <c r="G60" s="141" t="s">
+      <c r="F60" s="44"/>
+      <c r="G60" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
-      <c r="J60" s="147"/>
-      <c r="K60" s="149"/>
-      <c r="L60" s="134" t="s">
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M60" s="152"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="149"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="66"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="64"/>
       <c r="Q60" s="28"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="115" t="s">
+      <c r="S60" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="T60" s="75"/>
-      <c r="U60" s="75"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="108"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
@@ -8031,55 +9111,55 @@
       <c r="AW60" s="2"/>
     </row>
     <row r="61" spans="1:50">
-      <c r="B61" s="139">
+      <c r="B61" s="9">
         <v>3</v>
       </c>
-      <c r="C61" s="141" t="s">
+      <c r="C61" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="142"/>
-      <c r="E61" s="135" t="s">
+      <c r="D61" s="62"/>
+      <c r="E61" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="145"/>
-      <c r="G61" s="141" t="s">
+      <c r="F61" s="44"/>
+      <c r="G61" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
-      <c r="J61" s="147"/>
-      <c r="K61" s="149"/>
-      <c r="L61" s="134" t="s">
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M61" s="152"/>
-      <c r="N61" s="152"/>
-      <c r="O61" s="152"/>
-      <c r="P61" s="149"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="64"/>
       <c r="Q61" s="28"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="39" t="s">
+      <c r="S61" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="T61" s="116" t="s">
+      <c r="T61" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="U61" s="116"/>
-      <c r="V61" s="116"/>
-      <c r="W61" s="116" t="s">
+      <c r="U61" s="143"/>
+      <c r="V61" s="143"/>
+      <c r="W61" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="X61" s="116"/>
-      <c r="Y61" s="116"/>
-      <c r="Z61" s="116"/>
-      <c r="AA61" s="116"/>
-      <c r="AB61" s="116"/>
-      <c r="AC61" s="116" t="s">
+      <c r="X61" s="143"/>
+      <c r="Y61" s="143"/>
+      <c r="Z61" s="143"/>
+      <c r="AA61" s="143"/>
+      <c r="AB61" s="143"/>
+      <c r="AC61" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="AD61" s="116"/>
-      <c r="AE61" s="116"/>
-      <c r="AF61" s="116"/>
+      <c r="AD61" s="143"/>
+      <c r="AE61" s="143"/>
+      <c r="AF61" s="143"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
@@ -8099,47 +9179,47 @@
       <c r="AW61" s="2"/>
     </row>
     <row r="62" spans="1:50">
-      <c r="B62" s="139">
+      <c r="B62" s="9">
         <v>4</v>
       </c>
-      <c r="C62" s="141" t="s">
+      <c r="C62" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="142"/>
-      <c r="E62" s="135" t="s">
+      <c r="D62" s="62"/>
+      <c r="E62" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="145"/>
-      <c r="G62" s="141" t="s">
+      <c r="F62" s="44"/>
+      <c r="G62" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="H62" s="147"/>
-      <c r="I62" s="147"/>
-      <c r="J62" s="147"/>
-      <c r="K62" s="149"/>
-      <c r="L62" s="134" t="s">
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M62" s="152"/>
-      <c r="N62" s="152"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="149"/>
+      <c r="M62" s="66"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
+      <c r="P62" s="64"/>
       <c r="Q62" s="28"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="112"/>
-      <c r="U62" s="112"/>
-      <c r="V62" s="112"/>
-      <c r="W62" s="112"/>
-      <c r="X62" s="112"/>
-      <c r="Y62" s="112"/>
-      <c r="Z62" s="112"/>
-      <c r="AA62" s="112"/>
-      <c r="AB62" s="112"/>
-      <c r="AC62" s="113"/>
-      <c r="AD62" s="113"/>
-      <c r="AE62" s="113"/>
-      <c r="AF62" s="113"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="160"/>
+      <c r="U62" s="160"/>
+      <c r="V62" s="160"/>
+      <c r="W62" s="160"/>
+      <c r="X62" s="160"/>
+      <c r="Y62" s="160"/>
+      <c r="Z62" s="160"/>
+      <c r="AA62" s="160"/>
+      <c r="AB62" s="160"/>
+      <c r="AC62" s="161"/>
+      <c r="AD62" s="161"/>
+      <c r="AE62" s="161"/>
+      <c r="AF62" s="161"/>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
@@ -8159,47 +9239,47 @@
       <c r="AW62" s="2"/>
     </row>
     <row r="63" spans="1:50">
-      <c r="B63" s="139">
+      <c r="B63" s="9">
         <v>5</v>
       </c>
-      <c r="C63" s="141" t="s">
+      <c r="C63" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="142"/>
-      <c r="E63" s="135" t="s">
+      <c r="D63" s="62"/>
+      <c r="E63" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="145"/>
-      <c r="G63" s="141" t="s">
+      <c r="F63" s="44"/>
+      <c r="G63" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="149"/>
-      <c r="L63" s="134" t="s">
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M63" s="152"/>
-      <c r="N63" s="152"/>
-      <c r="O63" s="152"/>
-      <c r="P63" s="149"/>
+      <c r="M63" s="66"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
+      <c r="P63" s="64"/>
       <c r="Q63" s="28"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="112"/>
-      <c r="U63" s="112"/>
-      <c r="V63" s="112"/>
-      <c r="W63" s="112"/>
-      <c r="X63" s="112"/>
-      <c r="Y63" s="112"/>
-      <c r="Z63" s="112"/>
-      <c r="AA63" s="112"/>
-      <c r="AB63" s="112"/>
-      <c r="AC63" s="113"/>
-      <c r="AD63" s="113"/>
-      <c r="AE63" s="113"/>
-      <c r="AF63" s="113"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="160"/>
+      <c r="U63" s="160"/>
+      <c r="V63" s="160"/>
+      <c r="W63" s="160"/>
+      <c r="X63" s="160"/>
+      <c r="Y63" s="160"/>
+      <c r="Z63" s="160"/>
+      <c r="AA63" s="160"/>
+      <c r="AB63" s="160"/>
+      <c r="AC63" s="161"/>
+      <c r="AD63" s="161"/>
+      <c r="AE63" s="161"/>
+      <c r="AF63" s="161"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
@@ -8219,47 +9299,47 @@
       <c r="AW63" s="2"/>
     </row>
     <row r="64" spans="1:50">
-      <c r="B64" s="139">
+      <c r="B64" s="9">
         <v>6</v>
       </c>
-      <c r="C64" s="141" t="s">
+      <c r="C64" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="142"/>
-      <c r="E64" s="135" t="s">
+      <c r="D64" s="62"/>
+      <c r="E64" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F64" s="145"/>
-      <c r="G64" s="141" t="s">
+      <c r="F64" s="44"/>
+      <c r="G64" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
-      <c r="J64" s="147"/>
-      <c r="K64" s="149"/>
-      <c r="L64" s="134" t="s">
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M64" s="152"/>
-      <c r="N64" s="152"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="149"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="64"/>
       <c r="Q64" s="28"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="110"/>
-      <c r="U64" s="110"/>
-      <c r="V64" s="110"/>
-      <c r="W64" s="110"/>
-      <c r="X64" s="110"/>
-      <c r="Y64" s="110"/>
-      <c r="Z64" s="110"/>
-      <c r="AA64" s="110"/>
-      <c r="AB64" s="110"/>
-      <c r="AC64" s="111"/>
-      <c r="AD64" s="111"/>
-      <c r="AE64" s="111"/>
-      <c r="AF64" s="111"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="139"/>
+      <c r="U64" s="139"/>
+      <c r="V64" s="139"/>
+      <c r="W64" s="139"/>
+      <c r="X64" s="139"/>
+      <c r="Y64" s="139"/>
+      <c r="Z64" s="139"/>
+      <c r="AA64" s="139"/>
+      <c r="AB64" s="139"/>
+      <c r="AC64" s="140"/>
+      <c r="AD64" s="140"/>
+      <c r="AE64" s="140"/>
+      <c r="AF64" s="140"/>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
@@ -8279,31 +9359,31 @@
       <c r="AW64" s="2"/>
     </row>
     <row r="65" spans="2:49">
-      <c r="B65" s="139">
+      <c r="B65" s="9">
         <v>7</v>
       </c>
-      <c r="C65" s="141" t="s">
+      <c r="C65" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D65" s="142"/>
-      <c r="E65" s="135" t="s">
+      <c r="D65" s="62"/>
+      <c r="E65" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="145"/>
-      <c r="G65" s="141" t="s">
+      <c r="F65" s="44"/>
+      <c r="G65" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
-      <c r="J65" s="147"/>
-      <c r="K65" s="149"/>
-      <c r="L65" s="134" t="s">
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M65" s="152"/>
-      <c r="N65" s="152"/>
-      <c r="O65" s="152"/>
-      <c r="P65" s="149"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="64"/>
       <c r="Q65" s="28"/>
       <c r="R65" s="2"/>
       <c r="S65" s="32"/>
@@ -8316,10 +9396,10 @@
       <c r="Z65" s="32"/>
       <c r="AA65" s="32"/>
       <c r="AB65" s="32"/>
-      <c r="AC65" s="42"/>
-      <c r="AD65" s="42"/>
-      <c r="AE65" s="42"/>
-      <c r="AF65" s="42"/>
+      <c r="AC65" s="41"/>
+      <c r="AD65" s="41"/>
+      <c r="AE65" s="41"/>
+      <c r="AF65" s="41"/>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
@@ -8339,31 +9419,31 @@
       <c r="AW65" s="2"/>
     </row>
     <row r="66" spans="2:49">
-      <c r="B66" s="139">
+      <c r="B66" s="9">
         <v>8</v>
       </c>
-      <c r="C66" s="141" t="s">
+      <c r="C66" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="142"/>
-      <c r="E66" s="135" t="s">
+      <c r="D66" s="62"/>
+      <c r="E66" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F66" s="145"/>
-      <c r="G66" s="141" t="s">
+      <c r="F66" s="44"/>
+      <c r="G66" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="H66" s="147"/>
-      <c r="I66" s="147"/>
-      <c r="J66" s="147"/>
-      <c r="K66" s="149"/>
-      <c r="L66" s="134" t="s">
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M66" s="152"/>
-      <c r="N66" s="152"/>
-      <c r="O66" s="152"/>
-      <c r="P66" s="149"/>
+      <c r="M66" s="66"/>
+      <c r="N66" s="66"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="64"/>
       <c r="Q66" s="28"/>
       <c r="R66" s="2"/>
       <c r="AG66" s="2"/>
@@ -8385,31 +9465,31 @@
       <c r="AW66" s="2"/>
     </row>
     <row r="67" spans="2:49">
-      <c r="B67" s="139">
+      <c r="B67" s="9">
         <v>9</v>
       </c>
-      <c r="C67" s="141" t="s">
+      <c r="C67" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D67" s="142"/>
-      <c r="E67" s="135" t="s">
+      <c r="D67" s="62"/>
+      <c r="E67" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F67" s="145"/>
-      <c r="G67" s="141" t="s">
+      <c r="F67" s="44"/>
+      <c r="G67" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="H67" s="147"/>
-      <c r="I67" s="147"/>
-      <c r="J67" s="147"/>
-      <c r="K67" s="149"/>
-      <c r="L67" s="134" t="s">
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M67" s="152"/>
-      <c r="N67" s="152"/>
-      <c r="O67" s="152"/>
-      <c r="P67" s="149"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="64"/>
       <c r="Q67" s="28"/>
       <c r="R67" s="2"/>
       <c r="S67" s="4" t="s">
@@ -8435,51 +9515,51 @@
       <c r="AW67" s="2"/>
     </row>
     <row r="68" spans="2:49">
-      <c r="B68" s="139">
+      <c r="B68" s="9">
         <v>10</v>
       </c>
-      <c r="C68" s="141" t="s">
+      <c r="C68" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="142"/>
-      <c r="E68" s="135" t="s">
+      <c r="D68" s="62"/>
+      <c r="E68" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F68" s="145"/>
-      <c r="G68" s="141" t="s">
+      <c r="F68" s="44"/>
+      <c r="G68" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="H68" s="147"/>
-      <c r="I68" s="147"/>
-      <c r="J68" s="147"/>
-      <c r="K68" s="149"/>
-      <c r="L68" s="134" t="s">
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M68" s="152"/>
-      <c r="N68" s="152"/>
-      <c r="O68" s="152"/>
-      <c r="P68" s="149"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="66"/>
+      <c r="P68" s="64"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="108" t="s">
+      <c r="S68" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="T68" s="108"/>
-      <c r="U68" s="108"/>
-      <c r="V68" s="108" t="s">
+      <c r="T68" s="144"/>
+      <c r="U68" s="144"/>
+      <c r="V68" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="W68" s="108"/>
-      <c r="X68" s="108"/>
-      <c r="Y68" s="108"/>
-      <c r="Z68" s="108"/>
-      <c r="AA68" s="108"/>
-      <c r="AB68" s="108"/>
-      <c r="AC68" s="108"/>
-      <c r="AD68" s="108"/>
-      <c r="AE68" s="108"/>
-      <c r="AF68" s="108"/>
+      <c r="W68" s="144"/>
+      <c r="X68" s="144"/>
+      <c r="Y68" s="144"/>
+      <c r="Z68" s="144"/>
+      <c r="AA68" s="144"/>
+      <c r="AB68" s="144"/>
+      <c r="AC68" s="144"/>
+      <c r="AD68" s="144"/>
+      <c r="AE68" s="144"/>
+      <c r="AF68" s="144"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
@@ -8499,53 +9579,53 @@
       <c r="AW68" s="2"/>
     </row>
     <row r="69" spans="2:49">
-      <c r="B69" s="139">
+      <c r="B69" s="9">
         <v>11</v>
       </c>
-      <c r="C69" s="141" t="s">
+      <c r="C69" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="142"/>
-      <c r="E69" s="135" t="s">
+      <c r="D69" s="62"/>
+      <c r="E69" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="145"/>
-      <c r="G69" s="141" t="s">
+      <c r="F69" s="44"/>
+      <c r="G69" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H69" s="147"/>
-      <c r="I69" s="147"/>
-      <c r="J69" s="147"/>
-      <c r="K69" s="149"/>
-      <c r="L69" s="134" t="s">
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M69" s="152"/>
-      <c r="N69" s="152"/>
-      <c r="O69" s="152"/>
-      <c r="P69" s="149"/>
+      <c r="M69" s="66"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="66"/>
+      <c r="P69" s="64"/>
       <c r="Q69" s="28"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="124" t="s">
+      <c r="S69" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="T69" s="124"/>
-      <c r="U69" s="124"/>
-      <c r="V69" s="101" t="s">
+      <c r="T69" s="155"/>
+      <c r="U69" s="155"/>
+      <c r="V69" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="W69" s="101"/>
-      <c r="X69" s="101"/>
-      <c r="Y69" s="101"/>
-      <c r="Z69" s="101" t="s">
+      <c r="W69" s="131"/>
+      <c r="X69" s="131"/>
+      <c r="Y69" s="131"/>
+      <c r="Z69" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AA69" s="101"/>
-      <c r="AB69" s="101"/>
-      <c r="AC69" s="101"/>
-      <c r="AD69" s="101"/>
-      <c r="AE69" s="101"/>
-      <c r="AF69" s="101"/>
+      <c r="AA69" s="131"/>
+      <c r="AB69" s="131"/>
+      <c r="AC69" s="131"/>
+      <c r="AD69" s="131"/>
+      <c r="AE69" s="131"/>
+      <c r="AF69" s="131"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
@@ -8565,53 +9645,53 @@
       <c r="AW69" s="2"/>
     </row>
     <row r="70" spans="2:49">
-      <c r="B70" s="139">
+      <c r="B70" s="9">
         <v>12</v>
       </c>
-      <c r="C70" s="141" t="s">
+      <c r="C70" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="142"/>
-      <c r="E70" s="135" t="s">
+      <c r="D70" s="62"/>
+      <c r="E70" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F70" s="145"/>
-      <c r="G70" s="141" t="s">
+      <c r="F70" s="44"/>
+      <c r="G70" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="H70" s="147"/>
-      <c r="I70" s="147"/>
-      <c r="J70" s="147"/>
-      <c r="K70" s="149"/>
-      <c r="L70" s="134" t="s">
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M70" s="152"/>
-      <c r="N70" s="152"/>
-      <c r="O70" s="152"/>
-      <c r="P70" s="149"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="66"/>
+      <c r="P70" s="64"/>
       <c r="Q70" s="28"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="125" t="s">
+      <c r="S70" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="T70" s="125"/>
-      <c r="U70" s="125"/>
-      <c r="V70" s="97" t="s">
+      <c r="T70" s="156"/>
+      <c r="U70" s="156"/>
+      <c r="V70" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="W70" s="97"/>
-      <c r="X70" s="97"/>
-      <c r="Y70" s="97"/>
-      <c r="Z70" s="109" t="s">
+      <c r="W70" s="127"/>
+      <c r="X70" s="127"/>
+      <c r="Y70" s="127"/>
+      <c r="Z70" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="AA70" s="97"/>
-      <c r="AB70" s="97"/>
-      <c r="AC70" s="97"/>
-      <c r="AD70" s="97"/>
-      <c r="AE70" s="97"/>
-      <c r="AF70" s="97"/>
+      <c r="AA70" s="127"/>
+      <c r="AB70" s="127"/>
+      <c r="AC70" s="127"/>
+      <c r="AD70" s="127"/>
+      <c r="AE70" s="127"/>
+      <c r="AF70" s="127"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
@@ -8631,53 +9711,53 @@
       <c r="AW70" s="2"/>
     </row>
     <row r="71" spans="2:49">
-      <c r="B71" s="140">
+      <c r="B71" s="11">
         <v>13</v>
       </c>
-      <c r="C71" s="143" t="s">
+      <c r="C71" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D71" s="144"/>
-      <c r="E71" s="137" t="s">
+      <c r="D71" s="63"/>
+      <c r="E71" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F71" s="146"/>
-      <c r="G71" s="143" t="s">
+      <c r="F71" s="47"/>
+      <c r="G71" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="H71" s="150"/>
-      <c r="I71" s="150"/>
-      <c r="J71" s="150"/>
-      <c r="K71" s="151"/>
-      <c r="L71" s="136" t="s">
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="M71" s="153"/>
-      <c r="N71" s="153"/>
-      <c r="O71" s="153"/>
-      <c r="P71" s="151"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="67"/>
+      <c r="O71" s="67"/>
+      <c r="P71" s="65"/>
       <c r="Q71" s="28"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="119" t="s">
+      <c r="S71" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="T71" s="119"/>
-      <c r="U71" s="119"/>
-      <c r="V71" s="126" t="s">
+      <c r="T71" s="146"/>
+      <c r="U71" s="146"/>
+      <c r="V71" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="W71" s="127"/>
-      <c r="X71" s="127"/>
-      <c r="Y71" s="128"/>
-      <c r="Z71" s="109" t="s">
+      <c r="W71" s="158"/>
+      <c r="X71" s="158"/>
+      <c r="Y71" s="159"/>
+      <c r="Z71" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="AA71" s="97"/>
-      <c r="AB71" s="97"/>
-      <c r="AC71" s="97"/>
-      <c r="AD71" s="97"/>
-      <c r="AE71" s="97"/>
-      <c r="AF71" s="97"/>
+      <c r="AA71" s="127"/>
+      <c r="AB71" s="127"/>
+      <c r="AC71" s="127"/>
+      <c r="AD71" s="127"/>
+      <c r="AE71" s="127"/>
+      <c r="AF71" s="127"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
@@ -8697,8 +9777,8 @@
       <c r="AW71" s="2"/>
     </row>
     <row r="72" spans="2:49">
-      <c r="B72" s="131"/>
-      <c r="C72" s="131"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -8734,10 +9814,10 @@
       <c r="AW72" s="2"/>
     </row>
     <row r="73" spans="2:49">
-      <c r="B73" s="130" t="s">
+      <c r="B73" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="130"/>
+      <c r="C73" s="141"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -8776,14 +9856,14 @@
       <c r="B74" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="123" t="s">
+      <c r="C74" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123" t="s">
+      <c r="D74" s="151"/>
+      <c r="E74" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="F74" s="123"/>
+      <c r="F74" s="151"/>
       <c r="G74" s="34" t="s">
         <v>46</v>
       </c>
@@ -8796,16 +9876,16 @@
       <c r="J74" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="K74" s="123" t="s">
+      <c r="K74" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="L74" s="123"/>
-      <c r="M74" s="123" t="s">
+      <c r="L74" s="151"/>
+      <c r="M74" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="N74" s="123"/>
-      <c r="O74" s="123"/>
-      <c r="P74" s="123"/>
+      <c r="N74" s="151"/>
+      <c r="O74" s="151"/>
+      <c r="P74" s="151"/>
       <c r="Q74" s="28"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
@@ -8829,17 +9909,17 @@
       <c r="AW74" s="2"/>
     </row>
     <row r="75" spans="2:49">
-      <c r="B75" s="154">
+      <c r="B75" s="7">
         <v>1</v>
       </c>
-      <c r="C75" s="173" t="s">
+      <c r="C75" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D75" s="174"/>
-      <c r="E75" s="175" t="s">
+      <c r="D75" s="78"/>
+      <c r="E75" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="F75" s="176"/>
+      <c r="F75" s="153"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7" t="s">
         <v>124</v>
@@ -8850,12 +9930,12 @@
       <c r="J75" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K75" s="175"/>
-      <c r="L75" s="176"/>
-      <c r="M75" s="175"/>
-      <c r="N75" s="178"/>
-      <c r="O75" s="178"/>
-      <c r="P75" s="176"/>
+      <c r="K75" s="152"/>
+      <c r="L75" s="153"/>
+      <c r="M75" s="152"/>
+      <c r="N75" s="154"/>
+      <c r="O75" s="154"/>
+      <c r="P75" s="153"/>
       <c r="Q75" s="28"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
@@ -8879,17 +9959,17 @@
       <c r="AW75" s="2"/>
     </row>
     <row r="76" spans="2:49">
-      <c r="B76" s="139">
+      <c r="B76" s="9">
         <v>2</v>
       </c>
-      <c r="C76" s="141" t="s">
+      <c r="C76" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="142"/>
-      <c r="E76" s="98" t="s">
+      <c r="D76" s="62"/>
+      <c r="E76" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="F76" s="99"/>
+      <c r="F76" s="129"/>
       <c r="G76" s="35"/>
       <c r="H76" s="9" t="s">
         <v>124</v>
@@ -8900,12 +9980,12 @@
       <c r="J76" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="K76" s="98"/>
-      <c r="L76" s="99"/>
-      <c r="M76" s="98"/>
-      <c r="N76" s="100"/>
-      <c r="O76" s="100"/>
-      <c r="P76" s="99"/>
+      <c r="K76" s="128"/>
+      <c r="L76" s="129"/>
+      <c r="M76" s="128"/>
+      <c r="N76" s="130"/>
+      <c r="O76" s="130"/>
+      <c r="P76" s="129"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="AF76" s="2"/>
@@ -8928,17 +10008,17 @@
       <c r="AW76" s="2"/>
     </row>
     <row r="77" spans="2:49">
-      <c r="B77" s="139">
+      <c r="B77" s="9">
         <v>3</v>
       </c>
-      <c r="C77" s="141" t="s">
+      <c r="C77" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="142"/>
-      <c r="E77" s="54" t="s">
+      <c r="D77" s="62"/>
+      <c r="E77" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F77" s="55"/>
+      <c r="F77" s="54"/>
       <c r="G77" s="35"/>
       <c r="H77" s="9" t="s">
         <v>124</v>
@@ -8949,12 +10029,12 @@
       <c r="J77" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="K77" s="54"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="55"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="53"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="54"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="AF77" s="2"/>
@@ -8977,17 +10057,17 @@
       <c r="AW77" s="2"/>
     </row>
     <row r="78" spans="2:49">
-      <c r="B78" s="139">
+      <c r="B78" s="9">
         <v>4</v>
       </c>
-      <c r="C78" s="141" t="s">
+      <c r="C78" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="142"/>
-      <c r="E78" s="54" t="s">
+      <c r="D78" s="62"/>
+      <c r="E78" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F78" s="55"/>
+      <c r="F78" s="54"/>
       <c r="G78" s="35"/>
       <c r="H78" s="9" t="s">
         <v>124</v>
@@ -8998,12 +10078,12 @@
       <c r="J78" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="K78" s="54"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="56"/>
-      <c r="P78" s="55"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="54"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="AF78" s="2"/>
@@ -9026,17 +10106,17 @@
       <c r="AW78" s="2"/>
     </row>
     <row r="79" spans="2:49">
-      <c r="B79" s="139">
+      <c r="B79" s="9">
         <v>5</v>
       </c>
-      <c r="C79" s="141" t="s">
+      <c r="C79" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="142"/>
-      <c r="E79" s="54" t="s">
+      <c r="D79" s="62"/>
+      <c r="E79" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F79" s="55"/>
+      <c r="F79" s="54"/>
       <c r="G79" s="35"/>
       <c r="H79" s="9" t="s">
         <v>124</v>
@@ -9047,12 +10127,12 @@
       <c r="J79" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="K79" s="54"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="56"/>
-      <c r="P79" s="55"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="54"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="AF79" s="2"/>
@@ -9075,17 +10155,17 @@
       <c r="AW79" s="2"/>
     </row>
     <row r="80" spans="2:49">
-      <c r="B80" s="139">
+      <c r="B80" s="9">
         <v>6</v>
       </c>
-      <c r="C80" s="141" t="s">
+      <c r="C80" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D80" s="142"/>
-      <c r="E80" s="54" t="s">
+      <c r="D80" s="62"/>
+      <c r="E80" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F80" s="55"/>
+      <c r="F80" s="54"/>
       <c r="G80" s="35"/>
       <c r="H80" s="9" t="s">
         <v>124</v>
@@ -9096,12 +10176,12 @@
       <c r="J80" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="K80" s="54"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="55"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="54"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -9132,17 +10212,17 @@
       <c r="AW80" s="2"/>
     </row>
     <row r="81" spans="2:49">
-      <c r="B81" s="139">
+      <c r="B81" s="9">
         <v>7</v>
       </c>
-      <c r="C81" s="141" t="s">
+      <c r="C81" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="142"/>
-      <c r="E81" s="54" t="s">
+      <c r="D81" s="62"/>
+      <c r="E81" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F81" s="55"/>
+      <c r="F81" s="54"/>
       <c r="G81" s="35"/>
       <c r="H81" s="9" t="s">
         <v>124</v>
@@ -9153,12 +10233,12 @@
       <c r="J81" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="K81" s="54"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="55"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="54"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -9192,14 +10272,14 @@
       <c r="B82" s="9">
         <v>8</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="F82" s="55"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="F82" s="54"/>
       <c r="G82" s="35"/>
       <c r="H82" s="9" t="s">
         <v>124</v>
@@ -9208,14 +10288,14 @@
         <v>51</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="K82" s="54"/>
-      <c r="L82" s="148"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="44"/>
-      <c r="P82" s="45"/>
+        <v>158</v>
+      </c>
+      <c r="K82" s="53"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="43"/>
+      <c r="P82" s="44"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
@@ -9242,17 +10322,17 @@
       <c r="AR82" s="2"/>
     </row>
     <row r="83" spans="2:49">
-      <c r="B83" s="46">
+      <c r="B83" s="45">
         <v>9</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="51"/>
-      <c r="E83" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="F83" s="51"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" s="50"/>
       <c r="G83" s="36"/>
       <c r="H83" s="11" t="s">
         <v>124</v>
@@ -9261,14 +10341,14 @@
         <v>51</v>
       </c>
       <c r="J83" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="K83" s="49"/>
-      <c r="L83" s="177"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="47"/>
-      <c r="P83" s="48"/>
+        <v>158</v>
+      </c>
+      <c r="K83" s="48"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="47"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
@@ -9335,10 +10415,10 @@
       <c r="AR84" s="2"/>
     </row>
     <row r="85" spans="2:49">
-      <c r="B85" s="122" t="s">
+      <c r="B85" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="122"/>
+      <c r="C85" s="150"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -9376,26 +10456,26 @@
       <c r="B86" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C86" s="123" t="s">
+      <c r="C86" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="123"/>
-      <c r="E86" s="123"/>
-      <c r="F86" s="123" t="s">
+      <c r="D86" s="151"/>
+      <c r="E86" s="151"/>
+      <c r="F86" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="G86" s="123"/>
-      <c r="H86" s="123"/>
-      <c r="I86" s="123" t="s">
+      <c r="G86" s="151"/>
+      <c r="H86" s="151"/>
+      <c r="I86" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="J86" s="123"/>
-      <c r="K86" s="123"/>
-      <c r="L86" s="123"/>
-      <c r="M86" s="123"/>
-      <c r="N86" s="123"/>
-      <c r="O86" s="123"/>
-      <c r="P86" s="123"/>
+      <c r="J86" s="151"/>
+      <c r="K86" s="151"/>
+      <c r="L86" s="151"/>
+      <c r="M86" s="151"/>
+      <c r="N86" s="151"/>
+      <c r="O86" s="151"/>
+      <c r="P86" s="151"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -9429,24 +10509,24 @@
       <c r="B87" s="7">
         <v>1</v>
       </c>
-      <c r="C87" s="189" t="s">
+      <c r="C87" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="D87" s="190"/>
-      <c r="E87" s="191"/>
-      <c r="F87" s="101" t="s">
+      <c r="D87" s="85"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="G87" s="101"/>
-      <c r="H87" s="101"/>
-      <c r="I87" s="103"/>
-      <c r="J87" s="103"/>
-      <c r="K87" s="103"/>
-      <c r="L87" s="103"/>
-      <c r="M87" s="103"/>
-      <c r="N87" s="103"/>
-      <c r="O87" s="103"/>
-      <c r="P87" s="103"/>
+      <c r="G87" s="131"/>
+      <c r="H87" s="131"/>
+      <c r="I87" s="133"/>
+      <c r="J87" s="133"/>
+      <c r="K87" s="133"/>
+      <c r="L87" s="133"/>
+      <c r="M87" s="133"/>
+      <c r="N87" s="133"/>
+      <c r="O87" s="133"/>
+      <c r="P87" s="133"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -9483,19 +10563,19 @@
       <c r="C88" t="s">
         <v>127</v>
       </c>
-      <c r="F88" s="97" t="s">
+      <c r="F88" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="G88" s="97"/>
-      <c r="H88" s="97"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="107"/>
-      <c r="K88" s="107"/>
-      <c r="L88" s="107"/>
-      <c r="M88" s="107"/>
-      <c r="N88" s="107"/>
-      <c r="O88" s="107"/>
-      <c r="P88" s="107"/>
+      <c r="G88" s="127"/>
+      <c r="H88" s="127"/>
+      <c r="I88" s="137"/>
+      <c r="J88" s="137"/>
+      <c r="K88" s="137"/>
+      <c r="L88" s="137"/>
+      <c r="M88" s="137"/>
+      <c r="N88" s="137"/>
+      <c r="O88" s="137"/>
+      <c r="P88" s="137"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -9532,19 +10612,19 @@
       <c r="C89" t="s">
         <v>125</v>
       </c>
-      <c r="F89" s="97" t="s">
+      <c r="F89" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="G89" s="97"/>
-      <c r="H89" s="97"/>
-      <c r="I89" s="107"/>
-      <c r="J89" s="107"/>
-      <c r="K89" s="107"/>
-      <c r="L89" s="107"/>
-      <c r="M89" s="107"/>
-      <c r="N89" s="107"/>
-      <c r="O89" s="107"/>
-      <c r="P89" s="107"/>
+      <c r="G89" s="127"/>
+      <c r="H89" s="127"/>
+      <c r="I89" s="137"/>
+      <c r="J89" s="137"/>
+      <c r="K89" s="137"/>
+      <c r="L89" s="137"/>
+      <c r="M89" s="137"/>
+      <c r="N89" s="137"/>
+      <c r="O89" s="137"/>
+      <c r="P89" s="137"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -9578,24 +10658,24 @@
       <c r="B90" s="11">
         <v>4</v>
       </c>
-      <c r="C90" s="192" t="s">
+      <c r="C90" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="D90" s="193"/>
-      <c r="E90" s="194"/>
-      <c r="F90" s="117" t="s">
+      <c r="D90" s="81"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="G90" s="117"/>
-      <c r="H90" s="117"/>
-      <c r="I90" s="119"/>
-      <c r="J90" s="119"/>
-      <c r="K90" s="119"/>
-      <c r="L90" s="119"/>
-      <c r="M90" s="119"/>
-      <c r="N90" s="119"/>
-      <c r="O90" s="119"/>
-      <c r="P90" s="119"/>
+      <c r="G90" s="145"/>
+      <c r="H90" s="145"/>
+      <c r="I90" s="146"/>
+      <c r="J90" s="146"/>
+      <c r="K90" s="146"/>
+      <c r="L90" s="146"/>
+      <c r="M90" s="146"/>
+      <c r="N90" s="146"/>
+      <c r="O90" s="146"/>
+      <c r="P90" s="146"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -9776,72 +10856,72 @@
       <c r="AH95" s="2"/>
     </row>
     <row r="97" spans="1:48">
-      <c r="A97" s="71"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="64" t="s">
+      <c r="A97" s="104"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="64" t="s">
+      <c r="E97" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F97" s="64"/>
-      <c r="G97" s="81" t="s">
+      <c r="F97" s="94"/>
+      <c r="G97" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H97" s="82"/>
-      <c r="I97" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J97" s="64"/>
-      <c r="K97" s="64"/>
+      <c r="H97" s="115"/>
+      <c r="I97" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J97" s="94"/>
+      <c r="K97" s="94"/>
       <c r="L97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M97" s="83" t="s">
+      <c r="M97" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N97" s="84"/>
+      <c r="N97" s="102"/>
       <c r="O97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P97" s="199">
+      <c r="P97" s="149">
         <v>45270</v>
       </c>
-      <c r="Q97" s="64"/>
-      <c r="R97" s="71"/>
-      <c r="S97" s="72"/>
-      <c r="T97" s="73"/>
-      <c r="U97" s="64" t="s">
+      <c r="Q97" s="94"/>
+      <c r="R97" s="104"/>
+      <c r="S97" s="105"/>
+      <c r="T97" s="106"/>
+      <c r="U97" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="V97" s="64" t="s">
+      <c r="V97" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="W97" s="64"/>
-      <c r="X97" s="81" t="s">
+      <c r="W97" s="94"/>
+      <c r="X97" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="Y97" s="82"/>
-      <c r="Z97" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA97" s="64"/>
-      <c r="AB97" s="64"/>
+      <c r="Y97" s="115"/>
+      <c r="Z97" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA97" s="94"/>
+      <c r="AB97" s="94"/>
       <c r="AC97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD97" s="83" t="s">
+      <c r="AD97" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="AE97" s="84"/>
+      <c r="AE97" s="102"/>
       <c r="AF97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AG97" s="199">
+      <c r="AG97" s="149">
         <v>45270</v>
       </c>
-      <c r="AH97" s="64"/>
+      <c r="AH97" s="94"/>
       <c r="AI97" s="28"/>
       <c r="AJ97" s="28"/>
       <c r="AK97" s="28"/>
@@ -9858,48 +10938,48 @@
       <c r="AV97" s="26"/>
     </row>
     <row r="98" spans="1:48">
-      <c r="A98" s="74"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="81"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="63"/>
-      <c r="J98" s="64"/>
-      <c r="K98" s="64"/>
+      <c r="A98" s="107"/>
+      <c r="B98" s="108"/>
+      <c r="C98" s="109"/>
+      <c r="D98" s="94"/>
+      <c r="E98" s="94"/>
+      <c r="F98" s="94"/>
+      <c r="G98" s="114"/>
+      <c r="H98" s="115"/>
+      <c r="I98" s="93"/>
+      <c r="J98" s="94"/>
+      <c r="K98" s="94"/>
       <c r="L98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M98" s="63"/>
-      <c r="N98" s="64"/>
+      <c r="M98" s="93"/>
+      <c r="N98" s="94"/>
       <c r="O98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P98" s="63"/>
-      <c r="Q98" s="64"/>
-      <c r="R98" s="74"/>
-      <c r="S98" s="75"/>
-      <c r="T98" s="76"/>
-      <c r="U98" s="64"/>
-      <c r="V98" s="64"/>
-      <c r="W98" s="64"/>
-      <c r="X98" s="81"/>
-      <c r="Y98" s="82"/>
-      <c r="Z98" s="63"/>
-      <c r="AA98" s="64"/>
-      <c r="AB98" s="64"/>
+      <c r="P98" s="93"/>
+      <c r="Q98" s="94"/>
+      <c r="R98" s="107"/>
+      <c r="S98" s="108"/>
+      <c r="T98" s="109"/>
+      <c r="U98" s="94"/>
+      <c r="V98" s="94"/>
+      <c r="W98" s="94"/>
+      <c r="X98" s="114"/>
+      <c r="Y98" s="115"/>
+      <c r="Z98" s="93"/>
+      <c r="AA98" s="94"/>
+      <c r="AB98" s="94"/>
       <c r="AC98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD98" s="63"/>
-      <c r="AE98" s="64"/>
+      <c r="AD98" s="93"/>
+      <c r="AE98" s="94"/>
       <c r="AF98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AG98" s="63"/>
-      <c r="AH98" s="64"/>
+      <c r="AG98" s="93"/>
+      <c r="AH98" s="94"/>
       <c r="AI98" s="28"/>
       <c r="AJ98" s="28"/>
       <c r="AK98" s="28"/>
@@ -9916,56 +10996,56 @@
       <c r="AV98" s="26"/>
     </row>
     <row r="99" spans="1:48" ht="15" thickBot="1">
-      <c r="A99" s="77"/>
-      <c r="B99" s="78"/>
-      <c r="C99" s="79"/>
-      <c r="D99" s="80"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="65" t="s">
+      <c r="A99" s="110"/>
+      <c r="B99" s="111"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="113"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="66"/>
-      <c r="I99" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J99" s="68"/>
-      <c r="K99" s="65" t="s">
+      <c r="H99" s="96"/>
+      <c r="I99" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J99" s="98"/>
+      <c r="K99" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L99" s="66"/>
-      <c r="M99" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N99" s="68"/>
-      <c r="O99" s="68"/>
-      <c r="P99" s="68"/>
-      <c r="Q99" s="68"/>
-      <c r="R99" s="77"/>
-      <c r="S99" s="78"/>
-      <c r="T99" s="79"/>
-      <c r="U99" s="80"/>
-      <c r="V99" s="80"/>
-      <c r="W99" s="80"/>
-      <c r="X99" s="65" t="s">
+      <c r="L99" s="96"/>
+      <c r="M99" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N99" s="98"/>
+      <c r="O99" s="98"/>
+      <c r="P99" s="98"/>
+      <c r="Q99" s="98"/>
+      <c r="R99" s="110"/>
+      <c r="S99" s="111"/>
+      <c r="T99" s="112"/>
+      <c r="U99" s="113"/>
+      <c r="V99" s="113"/>
+      <c r="W99" s="113"/>
+      <c r="X99" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="Y99" s="66"/>
-      <c r="Z99" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA99" s="68"/>
-      <c r="AB99" s="65" t="s">
+      <c r="Y99" s="96"/>
+      <c r="Z99" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA99" s="98"/>
+      <c r="AB99" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AC99" s="66"/>
-      <c r="AD99" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE99" s="68"/>
-      <c r="AF99" s="68"/>
-      <c r="AG99" s="68"/>
-      <c r="AH99" s="68"/>
+      <c r="AC99" s="96"/>
+      <c r="AD99" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE99" s="98"/>
+      <c r="AF99" s="98"/>
+      <c r="AG99" s="98"/>
+      <c r="AH99" s="98"/>
       <c r="AI99" s="28"/>
       <c r="AJ99" s="28"/>
       <c r="AK99" s="28"/>
@@ -10044,10 +11124,10 @@
     </row>
     <row r="103" spans="1:48">
       <c r="B103" s="27"/>
-      <c r="C103" s="120" t="s">
+      <c r="C103" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="D103" s="120"/>
+      <c r="D103" s="147"/>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
       <c r="G103" s="26"/>
@@ -10058,13 +11138,13 @@
     <row r="104" spans="1:48">
       <c r="B104" s="27"/>
       <c r="C104" s="28"/>
-      <c r="D104" s="121" t="s">
+      <c r="D104" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="E104" s="121"/>
-      <c r="F104" s="121"/>
-      <c r="G104" s="121"/>
-      <c r="H104" s="121"/>
+      <c r="E104" s="148"/>
+      <c r="F104" s="148"/>
+      <c r="G104" s="148"/>
+      <c r="H104" s="148"/>
       <c r="I104" s="26"/>
       <c r="J104" s="26"/>
     </row>
@@ -10081,10 +11161,10 @@
     </row>
     <row r="106" spans="1:48">
       <c r="B106" s="27"/>
-      <c r="C106" s="120" t="s">
+      <c r="C106" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="D106" s="120"/>
+      <c r="D106" s="147"/>
       <c r="E106" s="26"/>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -10131,10 +11211,10 @@
     </row>
     <row r="110" spans="1:48">
       <c r="B110" s="27"/>
-      <c r="C110" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D110" s="26"/>
+      <c r="C110" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" s="37"/>
       <c r="E110" s="26"/>
       <c r="F110" s="26"/>
       <c r="G110" s="26"/>
@@ -10144,10 +11224,11 @@
     </row>
     <row r="111" spans="1:48">
       <c r="B111" s="27"/>
+      <c r="C111" s="28"/>
       <c r="D111" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E111" s="38"/>
+        <v>182</v>
+      </c>
+      <c r="E111" s="37"/>
       <c r="F111" s="26"/>
       <c r="G111" s="26"/>
       <c r="H111" s="26"/>
@@ -10157,282 +11238,283 @@
     <row r="112" spans="1:48">
       <c r="B112" s="27"/>
       <c r="C112" s="28"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="38"/>
+      <c r="D112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="27"/>
-      <c r="C113" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
+      <c r="C113" s="28"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="27"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" s="38"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="38"/>
+      <c r="C114" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="27"/>
       <c r="C115" s="28"/>
-      <c r="D115" t="s">
-        <v>137</v>
-      </c>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
+      <c r="D115" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="27"/>
       <c r="C116" s="28"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="38"/>
+      <c r="D116" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="27"/>
-      <c r="C117" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-    </row>
-    <row r="118" spans="2:10" ht="27.6" customHeight="1">
+      <c r="C117" s="28"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
+    </row>
+    <row r="118" spans="2:10" ht="15.6" customHeight="1">
       <c r="B118" s="27"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E118" s="38"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
+      <c r="C118" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" s="37"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
     </row>
     <row r="119" spans="2:10">
       <c r="B119" s="27"/>
       <c r="C119" s="28"/>
-      <c r="D119" t="s">
-        <v>140</v>
-      </c>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
+      <c r="D119" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="27"/>
       <c r="C120" s="28"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
+      <c r="D120" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="27"/>
-      <c r="C121" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="27"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E122" s="38"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="38"/>
+      <c r="C122" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="37"/>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="27"/>
       <c r="C123" s="28"/>
-      <c r="D123" t="s">
-        <v>143</v>
-      </c>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
-      <c r="J123" s="38"/>
+      <c r="D123" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37"/>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="27"/>
       <c r="C124" s="28"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="38"/>
+      <c r="D124" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37"/>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="27"/>
-      <c r="C125" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="38"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="27"/>
       <c r="C126" s="28"/>
-      <c r="D126" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="38"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="27"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="38"/>
+      <c r="C127" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
     </row>
     <row r="128" spans="2:10">
       <c r="B128" s="27"/>
       <c r="C128" s="28"/>
-      <c r="D128" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="38"/>
+      <c r="D128" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="27"/>
       <c r="C129" s="28"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="38"/>
-      <c r="J129" s="38"/>
+      <c r="D129" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E129" s="37"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="37"/>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="27"/>
-      <c r="C130" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="38"/>
-      <c r="J130" s="38"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="27"/>
       <c r="C131" s="28"/>
-      <c r="D131" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
-      <c r="J131" s="38"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="37"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="37"/>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="27"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="E132" s="38"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="38"/>
-      <c r="J132" s="38"/>
+      <c r="C132" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D132" s="28"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="37"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="37"/>
     </row>
     <row r="133" spans="2:10">
       <c r="B133" s="27"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
+      <c r="D133" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="37"/>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="27"/>
       <c r="C134" s="28"/>
-      <c r="D134" s="26"/>
+      <c r="D134" s="28" t="s">
+        <v>143</v>
+      </c>
       <c r="E134" s="26"/>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -10442,10 +11524,9 @@
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="27"/>
-      <c r="C135" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D135" s="28"/>
+      <c r="D135" t="s">
+        <v>144</v>
+      </c>
       <c r="E135" s="28"/>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -10453,21 +11534,7 @@
       <c r="I135" s="26"/>
       <c r="J135" s="26"/>
     </row>
-    <row r="136" spans="2:10">
-      <c r="D136" s="38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10">
-      <c r="C137" s="28"/>
-      <c r="D137" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
     <row r="138" spans="2:10">
-      <c r="D138" t="s">
-        <v>155</v>
-      </c>
       <c r="E138" s="28"/>
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
@@ -10477,7 +11544,16 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="V51:W53"/>
+    <mergeCell ref="X51:Y52"/>
     <mergeCell ref="AD97:AE97"/>
     <mergeCell ref="AG97:AH97"/>
     <mergeCell ref="AD98:AE98"/>
@@ -10491,18 +11567,6 @@
     <mergeCell ref="V97:W99"/>
     <mergeCell ref="X97:Y98"/>
     <mergeCell ref="Z97:AB98"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="V51:W53"/>
-    <mergeCell ref="X51:Y52"/>
-    <mergeCell ref="Z51:AB52"/>
-    <mergeCell ref="AD51:AE51"/>
     <mergeCell ref="G58:K58"/>
     <mergeCell ref="L58:P58"/>
     <mergeCell ref="E58:F58"/>
@@ -10514,8 +11578,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="S58:W58"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="S71:U71"/>
     <mergeCell ref="V71:Y71"/>
     <mergeCell ref="Z71:AF71"/>
@@ -10524,15 +11591,22 @@
     <mergeCell ref="E51:F53"/>
     <mergeCell ref="G51:H52"/>
     <mergeCell ref="I51:K52"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
     <mergeCell ref="M51:N51"/>
     <mergeCell ref="P51:Q51"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="P52:Q52"/>
     <mergeCell ref="G53:H53"/>
-    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="W62:AB62"/>
+    <mergeCell ref="AC62:AF62"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="W63:AB63"/>
+    <mergeCell ref="AC63:AF63"/>
+    <mergeCell ref="Z51:AB52"/>
+    <mergeCell ref="AD51:AE51"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -10548,10 +11622,8 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:Q53"/>
     <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="K76:L76"/>
     <mergeCell ref="M76:P76"/>
@@ -10591,13 +11663,11 @@
     <mergeCell ref="E97:F99"/>
     <mergeCell ref="G97:H98"/>
     <mergeCell ref="I97:K98"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="W62:AB62"/>
-    <mergeCell ref="AC62:AF62"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="W63:AB63"/>
-    <mergeCell ref="AC63:AF63"/>
-    <mergeCell ref="S58:W58"/>
+    <mergeCell ref="V70:Y70"/>
+    <mergeCell ref="Z70:AF70"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="W64:AB64"/>
+    <mergeCell ref="AC64:AF64"/>
     <mergeCell ref="S59:T59"/>
     <mergeCell ref="S60:U60"/>
     <mergeCell ref="T61:V61"/>
@@ -10607,11 +11677,8 @@
     <mergeCell ref="V68:AF68"/>
     <mergeCell ref="V69:Y69"/>
     <mergeCell ref="Z69:AF69"/>
-    <mergeCell ref="V70:Y70"/>
-    <mergeCell ref="Z70:AF70"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="W64:AB64"/>
-    <mergeCell ref="AC64:AF64"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="S70:U70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" location="'Xử lý (10).1'!A1" display="Xem chi tiết " xr:uid="{F8C47B94-2CD8-4C05-9705-EC88E22F58CF}"/>
@@ -10654,89 +11721,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="84"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="199">
+      <c r="P1" s="149">
         <v>45270</v>
       </c>
-      <c r="Q1" s="64"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="7" spans="1:17">
@@ -10745,12 +11812,12 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" t="s">
@@ -10770,414 +11837,370 @@
       <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="181" t="s">
+      <c r="C10" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181" t="s">
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181" t="s">
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="181"/>
-      <c r="L10" s="180" t="s">
+      <c r="K10" s="169"/>
+      <c r="L10" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="181" t="s">
+      <c r="M10" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="B11" s="139">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="141" t="s">
+      <c r="D11" s="80"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="148"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="186"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M11" s="82"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="B12" s="139">
+      <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="182"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="141" t="s">
+      <c r="D12" s="80"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="148"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="62"/>
       <c r="L12" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M12" s="186"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M12" s="82"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="B13" s="139">
+      <c r="B13" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="182"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="141" t="s">
+      <c r="D13" s="80"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="148"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="186"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M13" s="82"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="B14" s="139">
+      <c r="B14" s="9">
         <v>4</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="141" t="s">
+      <c r="D14" s="80"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="148"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M14" s="186"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M14" s="82"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="B15" s="139">
+      <c r="B15" s="9">
         <v>5</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="141" t="s">
+      <c r="D15" s="80"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="148"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" s="186"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M15" s="82"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="62"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="B16" s="139">
+      <c r="B16" s="9">
         <v>6</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="141" t="s">
+      <c r="D16" s="80"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="148"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M16" s="186"/>
-      <c r="N16" s="184"/>
-      <c r="O16" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M16" s="82"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="62"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="139">
+      <c r="B17" s="9">
         <v>7</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="141" t="s">
+      <c r="D17" s="80"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="148"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" s="186"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M17" s="82"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="62"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="139">
+      <c r="B18" s="9">
         <v>8</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="141" t="s">
+      <c r="D18" s="80"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="148"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M18" s="186"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M18" s="82"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="62"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="139">
+      <c r="B19" s="9">
         <v>9</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="182"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="141" t="s">
+      <c r="D19" s="80"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="148"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M19" s="186"/>
-      <c r="N19" s="184"/>
-      <c r="O19" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M19" s="82"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="62"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="139">
+      <c r="B20" s="9">
         <v>10</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="182"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="141" t="s">
+      <c r="D20" s="80"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="148"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M20" s="186"/>
-      <c r="N20" s="184"/>
-      <c r="O20" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M20" s="82"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="62"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="139">
+      <c r="B21" s="9">
         <v>11</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="182"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="141" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="148"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21" s="186"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M21" s="82"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="62"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="139">
+      <c r="B22" s="9">
         <v>12</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="141" t="s">
+      <c r="D22" s="80"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="148"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M22" s="186"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="148"/>
+        <v>146</v>
+      </c>
+      <c r="M22" s="82"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="62"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="140">
+      <c r="B23" s="11">
         <v>13</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="143" t="s">
+      <c r="D23" s="81"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="177"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="M23" s="187"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="177"/>
+        <v>146</v>
+      </c>
+      <c r="M23" s="83"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="63"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="197"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188"/>
-      <c r="N24" s="188"/>
-      <c r="O24" s="188"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="25"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="132" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="198"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="188"/>
-      <c r="O25" s="188"/>
+      <c r="B25" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="188"/>
-      <c r="O26" s="188"/>
+      <c r="B26" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="132" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="188"/>
-      <c r="N27" s="188"/>
-      <c r="O27" s="188"/>
+      <c r="B27" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="2"/>
@@ -11186,271 +12209,270 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="180" t="s">
+      <c r="B30" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="181" t="s">
+      <c r="C30" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181" t="s">
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181" t="s">
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="181"/>
-      <c r="L30" s="180" t="s">
+      <c r="K30" s="169"/>
+      <c r="L30" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="M30" s="181" t="s">
+      <c r="M30" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="169"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="141" t="s">
+      <c r="C31" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="195"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="98" t="s">
+      <c r="D31" s="80"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="98" t="s">
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="K31" s="99"/>
+      <c r="K31" s="129"/>
       <c r="L31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M31" s="57"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="59"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="89"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="9">
         <v>2</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="195"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="98" t="s">
+      <c r="D32" s="80"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="98" t="s">
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="K32" s="99"/>
+      <c r="K32" s="129"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="59"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="89"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="9">
         <v>3</v>
       </c>
-      <c r="C33" s="141" t="s">
+      <c r="C33" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="K33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="54"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="9">
         <v>4</v>
       </c>
-      <c r="C34" s="141" t="s">
+      <c r="C34" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="K34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="K34" s="54"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="45"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="9">
         <v>5</v>
       </c>
-      <c r="C35" s="141" t="s">
+      <c r="C35" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="K35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="54"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="45"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="44"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="9">
         <v>6</v>
       </c>
-      <c r="C36" s="141" t="s">
+      <c r="C36" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="54" t="s">
+      <c r="D36" s="55"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="K36" s="55"/>
+      <c r="K36" s="54"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="45"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="44"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="9">
         <v>7</v>
       </c>
-      <c r="C37" s="141" t="s">
+      <c r="C37" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="54" t="s">
+      <c r="D37" s="55"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="K37" s="55"/>
+      <c r="K37" s="54"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="45"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="44"/>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="9">
         <v>8</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="54" t="s">
+      <c r="D38" s="55"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="54" t="s">
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="K38" s="55"/>
+      <c r="K38" s="54"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="45"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="44"/>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="11">
         <v>9</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="49" t="s">
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="51"/>
+      <c r="K39" s="50"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="48"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="47"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="129"/>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="172"/>
-      <c r="L40" s="188"/>
-      <c r="M40" s="129"/>
-      <c r="N40" s="129"/>
-      <c r="O40" s="129"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="4" t="s">
@@ -11461,132 +12483,133 @@
       <c r="B43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="118" t="s">
+      <c r="C43" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118" t="s">
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118" t="s">
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="K43" s="118"/>
+      <c r="K43" s="168"/>
       <c r="L43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M43" s="118" t="s">
+      <c r="M43" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
+      <c r="N43" s="168"/>
+      <c r="O43" s="168"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="7">
         <v>1</v>
       </c>
-      <c r="C44" s="189" t="s">
+      <c r="C44" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="190"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="131" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="131"/>
       <c r="L44" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="131"/>
+      <c r="O44" s="131"/>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="9">
         <v>2</v>
       </c>
-      <c r="C45" s="188" t="s">
+      <c r="C45" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="195"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
       <c r="L45" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
+      <c r="M45" s="127"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="127"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="9">
         <v>3</v>
       </c>
-      <c r="C46" s="188" t="s">
+      <c r="C46" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="195"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
       <c r="L46" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="M46" s="97"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="97"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="127"/>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="11">
         <v>4</v>
       </c>
-      <c r="C47" s="192" t="s">
+      <c r="C47" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="193"/>
-      <c r="E47" s="194"/>
-      <c r="F47" s="117" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
-      <c r="K47" s="117"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="145" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="145"/>
       <c r="L47" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="M47" s="117"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="117"/>
+      <c r="M47" s="145"/>
+      <c r="N47" s="145"/>
+      <c r="O47" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -11594,11 +12617,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="J46:K46"/>
@@ -11627,6 +12645,10 @@
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="M31:O31"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
@@ -11637,126 +12659,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CB065D-DB58-4FFC-80E4-E981144F9F60}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C6"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="84"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="199">
+      <c r="P1" s="149">
         <v>45270</v>
       </c>
-      <c r="Q1" s="64"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="5" spans="1:17">
-      <c r="B5" s="27" t="s">
-        <v>180</v>
+      <c r="C5" s="27" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="C6" s="133" t="s">
+      <c r="D6" s="28" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="C7" t="s">
-        <v>182</v>
+      <c r="D7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="C8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="F23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" t="s">
-        <v>184</v>
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="G23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -11768,122 +12790,148 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:F3"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9D8AC9-8B25-4ABE-BA1D-5C444210F79E}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="84"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="199">
+      <c r="P1" s="149">
         <v>45270</v>
       </c>
-      <c r="Q1" s="64"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="5" spans="1:17">
       <c r="B5" s="27" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="C8" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="G25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="F32" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -11895,113 +12943,150 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:F3"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82513D57-C082-40F7-B896-E37497F8FFB6}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="84"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="199">
+      <c r="P1" s="149">
         <v>45270</v>
       </c>
-      <c r="Q1" s="64"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
+    <row r="5" spans="1:17">
+      <c r="B5" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="C6" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="F17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="F27" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="P1:Q1"/>
@@ -12011,113 +13096,150 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:F3"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F2BC6E-23A5-4A45-A9CE-3CFE8108DE26}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="84"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="199">
+      <c r="P1" s="149">
         <v>45270</v>
       </c>
-      <c r="Q1" s="64"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
+    <row r="6" spans="1:17">
+      <c r="C6" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="F27" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="P1:Q1"/>
@@ -12127,113 +13249,155 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:F3"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F28D50-F593-49F9-85B5-66FEDDEFDC06}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="84"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="199">
+      <c r="P1" s="149">
         <v>45270</v>
       </c>
-      <c r="Q1" s="64"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
+    <row r="5" spans="1:17">
+      <c r="C5" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="D6" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="E21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="P1:Q1"/>
@@ -12243,113 +13407,155 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:F3"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138DBA9-1117-47A5-872E-1DCD1F86DF9B}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="84"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="199">
+      <c r="P1" s="149">
         <v>45270</v>
       </c>
-      <c r="Q1" s="64"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1"/>
+    <row r="6" spans="1:17">
+      <c r="B6" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="C7" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="D24" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="P1:Q1"/>
@@ -12359,13 +13565,14 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:F3"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FileBaoCao/PhacThao_ThemSanPham.xlsx
+++ b/FileBaoCao/PhacThao_ThemSanPham.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCHOOL\NAM5-HK1\PTTKDBCL-KTLTHDT\Electronic_Components_Website\FileBaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E260E9-3692-443D-AFFF-2F42F5DB7CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107A71F0-1D4E-4295-89BE-897CC94A8914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{1322EDAB-4D4E-45D7-90B1-7A244F65E19A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1322EDAB-4D4E-45D7-90B1-7A244F65E19A}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Xử lý 10.4'!$A$1:$Q$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Xử lý 10.5'!$A$1:$Q$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Xử lý 10.6'!$A$1:$Q$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Xử lý 10.7'!$A$1:$Q$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Xử lý 10.8'!$A$1:$Q$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="238">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Tên hê thống</t>
   </si>
   <si>
-    <t>Tìm kiếm việc và người giúp việc</t>
-  </si>
-  <si>
     <t>Người tạo</t>
   </si>
   <si>
@@ -80,13 +78,7 @@
     <t>Màn hình (ID)</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Màn hình (tên)</t>
-  </si>
-  <si>
-    <t>Màn hình đăng nhập</t>
   </si>
   <si>
     <t>6. Sơ đồ</t>
@@ -768,6 +760,9 @@
   </si>
   <si>
     <t>b. Update dữ liệu lên database</t>
+  </si>
+  <si>
+    <t>Website bán linh kiện điện tử</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1416,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1619,6 +1614,173 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1636,192 +1798,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1829,59 +1892,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1892,73 +1940,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -5187,7 +5171,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -5783,191 +5767,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A29B08-ADB8-429A-A960-927664422512}">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T94" sqref="T94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" customWidth="1"/>
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
     <col min="16" max="16" width="13.109375" customWidth="1"/>
+    <col min="28" max="28" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="94" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="93" t="s">
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="N1" s="121"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="93" t="s">
+      <c r="Q1" s="111"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="111"/>
+      <c r="X1" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="111"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="94"/>
-      <c r="X1" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" s="93" t="s">
+      <c r="M2" s="115"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="94"/>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="3" t="s">
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="3" t="s">
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="111"/>
+    </row>
+    <row r="3" spans="1:34" ht="15" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="3" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="94"/>
-    </row>
-    <row r="3" spans="1:34" ht="15" thickBot="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="95" t="s">
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
     </row>
     <row r="4" spans="1:34" ht="15" thickTop="1"/>
     <row r="5" spans="1:34">
       <c r="S5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="21">
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5975,456 +5961,456 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:34" ht="21">
-      <c r="H14" s="125" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
+      <c r="H14" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
     </row>
     <row r="17" spans="7:33" ht="21">
-      <c r="I17" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
+      <c r="I17" s="129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
     </row>
     <row r="22" spans="7:33">
       <c r="G22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="7:33">
       <c r="G23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="7:33">
       <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K24" t="s">
+      <c r="U24" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="S24" s="52" t="s">
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="T24" s="52" t="s">
+      <c r="AB24" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="U24" s="134" t="s">
-        <v>27</v>
-      </c>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="136"/>
-      <c r="AA24" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB24" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC24" s="132"/>
-      <c r="AD24" s="132"/>
-      <c r="AE24" s="132"/>
-      <c r="AF24" s="132"/>
-      <c r="AG24" s="132"/>
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="123"/>
+      <c r="AE24" s="123"/>
+      <c r="AF24" s="123"/>
+      <c r="AG24" s="123"/>
     </row>
     <row r="25" spans="7:33">
       <c r="G25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S25" s="7">
         <v>1</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V25" s="8"/>
-      <c r="W25" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
+      <c r="W25" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
       <c r="AA25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB25" s="133"/>
-      <c r="AC25" s="133"/>
-      <c r="AD25" s="133"/>
-      <c r="AE25" s="133"/>
-      <c r="AF25" s="133"/>
-      <c r="AG25" s="133"/>
+        <v>30</v>
+      </c>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="124"/>
     </row>
     <row r="26" spans="7:33">
       <c r="G26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S26" s="9">
         <v>2</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U26" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V26" s="35"/>
       <c r="W26" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="137"/>
-      <c r="AF26" s="137"/>
-      <c r="AG26" s="137"/>
+        <v>30</v>
+      </c>
+      <c r="AB26" s="101"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="101"/>
+      <c r="AE26" s="101"/>
+      <c r="AF26" s="101"/>
+      <c r="AG26" s="101"/>
     </row>
     <row r="27" spans="7:33">
       <c r="G27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S27" s="9">
         <v>3</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" s="128" t="s">
-        <v>93</v>
-      </c>
-      <c r="V27" s="129"/>
+        <v>29</v>
+      </c>
+      <c r="U27" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="V27" s="132"/>
       <c r="W27" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="137"/>
-      <c r="AF27" s="137"/>
-      <c r="AG27" s="137"/>
+        <v>30</v>
+      </c>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="101"/>
     </row>
     <row r="28" spans="7:33">
       <c r="S28" s="9">
         <v>4</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U28" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="V28" s="127"/>
-      <c r="W28" s="128" t="s">
-        <v>94</v>
-      </c>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="130"/>
-      <c r="Z28" s="129"/>
+        <v>29</v>
+      </c>
+      <c r="U28" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="V28" s="130"/>
+      <c r="W28" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="X28" s="133"/>
+      <c r="Y28" s="133"/>
+      <c r="Z28" s="132"/>
       <c r="AA28" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="137"/>
-      <c r="AG28" s="137"/>
+        <v>85</v>
+      </c>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="101"/>
+      <c r="AF28" s="101"/>
+      <c r="AG28" s="101"/>
     </row>
     <row r="29" spans="7:33">
       <c r="S29" s="9">
         <v>5</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U29" s="127" t="s">
-        <v>71</v>
-      </c>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
+        <v>29</v>
+      </c>
+      <c r="U29" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="130"/>
       <c r="AA29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="137"/>
+        <v>85</v>
+      </c>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="101"/>
     </row>
     <row r="30" spans="7:33">
       <c r="S30" s="9">
         <v>6</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U30" s="127" t="s">
-        <v>72</v>
-      </c>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
+        <v>29</v>
+      </c>
+      <c r="U30" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="130"/>
       <c r="AA30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="88"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="89"/>
+        <v>85</v>
+      </c>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="146"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="146"/>
+      <c r="AF30" s="146"/>
+      <c r="AG30" s="147"/>
     </row>
     <row r="31" spans="7:33">
       <c r="S31" s="11">
         <v>7</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U31" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="V31" s="36"/>
       <c r="W31" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="91"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="92"/>
+        <v>85</v>
+      </c>
+      <c r="AB31" s="148"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="150"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="104"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="94" t="s">
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="114" t="s">
+      <c r="F33" s="111"/>
+      <c r="G33" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="115"/>
-      <c r="I33" s="93" t="s">
+      <c r="H33" s="114"/>
+      <c r="I33" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="101" t="s">
+      <c r="N33" s="121"/>
+      <c r="O33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="102"/>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="93" t="s">
+      <c r="Q33" s="111"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="105"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="94"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="107"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="115"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="93"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="115"/>
+      <c r="Q34" s="111"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" thickBot="1">
+      <c r="A35" s="108"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="94"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1">
-      <c r="A35" s="110"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="95" t="s">
+      <c r="H35" s="117"/>
+      <c r="I35" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="119"/>
+      <c r="K35" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="96"/>
-      <c r="I35" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="98"/>
-      <c r="K35" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="96"/>
-      <c r="M35" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="98"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
     </row>
     <row r="36" spans="1:17" ht="15" thickTop="1"/>
     <row r="38" spans="1:17">
       <c r="B38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="B40" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="134"/>
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
+      <c r="O40" s="151"/>
+      <c r="P40" s="151"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="B40" s="122" t="s">
+      <c r="N41" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122" t="s">
+      <c r="O41" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="B42" s="137">
+        <v>1</v>
+      </c>
+      <c r="C42" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="137"/>
+      <c r="E42" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="122"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="103"/>
-      <c r="P40" s="103"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="B42" s="116">
-        <v>1</v>
-      </c>
-      <c r="C42" s="116" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="116"/>
-      <c r="E42" s="118" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="120"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="141"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
+      <c r="O42" s="143"/>
+      <c r="P42" s="143"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
-      <c r="O43" s="100"/>
-      <c r="P43" s="100"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="144"/>
+      <c r="N43" s="144"/>
+      <c r="O43" s="144"/>
+      <c r="P43" s="144"/>
     </row>
     <row r="44" spans="1:17">
       <c r="B44" s="14"/>
@@ -6799,104 +6785,104 @@
       <c r="P71" s="20"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="104"/>
-      <c r="B74" s="105"/>
-      <c r="C74" s="106"/>
-      <c r="D74" s="94" t="s">
+      <c r="A74" s="102"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="94" t="s">
+      <c r="E74" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F74" s="94"/>
-      <c r="G74" s="114" t="s">
+      <c r="F74" s="111"/>
+      <c r="G74" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="115"/>
-      <c r="I74" s="93" t="s">
+      <c r="H74" s="114"/>
+      <c r="I74" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="J74" s="111"/>
+      <c r="K74" s="111"/>
+      <c r="L74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="94"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M74" s="101" t="s">
+      <c r="N74" s="121"/>
+      <c r="O74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N74" s="102"/>
-      <c r="O74" s="1" t="s">
+      <c r="P74" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="P74" s="93" t="s">
+      <c r="Q74" s="111"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="105"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
+      <c r="G75" s="113"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="115"/>
+      <c r="J75" s="111"/>
+      <c r="K75" s="111"/>
+      <c r="L75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q74" s="94"/>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="107"/>
-      <c r="B75" s="108"/>
-      <c r="C75" s="109"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="114"/>
-      <c r="H75" s="115"/>
-      <c r="I75" s="93"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="3" t="s">
+      <c r="M75" s="115"/>
+      <c r="N75" s="111"/>
+      <c r="O75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M75" s="93"/>
-      <c r="N75" s="94"/>
-      <c r="O75" s="3" t="s">
+      <c r="P75" s="115"/>
+      <c r="Q75" s="111"/>
+    </row>
+    <row r="76" spans="1:17" ht="15" thickBot="1">
+      <c r="A76" s="108"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
+      <c r="G76" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P75" s="93"/>
-      <c r="Q75" s="94"/>
-    </row>
-    <row r="76" spans="1:17" ht="15" thickBot="1">
-      <c r="A76" s="110"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="113"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="95" t="s">
+      <c r="H76" s="117"/>
+      <c r="I76" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J76" s="119"/>
+      <c r="K76" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="96"/>
-      <c r="I76" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="98"/>
-      <c r="K76" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="96"/>
-      <c r="M76" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="N76" s="98"/>
-      <c r="O76" s="98"/>
-      <c r="P76" s="98"/>
-      <c r="Q76" s="98"/>
+      <c r="L76" s="117"/>
+      <c r="M76" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N76" s="119"/>
+      <c r="O76" s="119"/>
+      <c r="P76" s="119"/>
+      <c r="Q76" s="119"/>
     </row>
     <row r="77" spans="1:17" ht="15" thickTop="1"/>
     <row r="78" spans="1:17">
       <c r="B78" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="B79" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="B80" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="2:2">
@@ -6904,46 +6890,115 @@
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="AB30:AG30"/>
+    <mergeCell ref="AB31:AG31"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:Q76"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="A74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:F76"/>
+    <mergeCell ref="G74:H75"/>
+    <mergeCell ref="I74:K75"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:J43"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:J41"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:F35"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:K34"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="U24:Z24"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="Z1:AB2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="X1:Y2"/>
     <mergeCell ref="AB26:AG26"/>
     <mergeCell ref="AB27:AG27"/>
     <mergeCell ref="AB28:AG28"/>
@@ -6960,75 +7015,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="U24:Z24"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="Z1:AB2"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:F35"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:K34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:J41"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:J43"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="A74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:F76"/>
-    <mergeCell ref="G74:H75"/>
-    <mergeCell ref="I74:K75"/>
-    <mergeCell ref="AB30:AG30"/>
-    <mergeCell ref="AB31:AG31"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:Q76"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="M34:N34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
@@ -7047,167 +7033,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432231C-70A8-47A4-9396-36BE7DDFACDA}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="94" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="N1" s="121"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="149">
+      <c r="P1" s="152">
         <v>45270</v>
       </c>
-      <c r="Q1" s="94"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="115"/>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="6" spans="1:17">
       <c r="B6" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="C9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="C11" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="143" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="175" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="175" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="176"/>
-      <c r="N11" s="176"/>
-      <c r="O11" s="176"/>
-      <c r="P11" s="177"/>
+        <v>22</v>
+      </c>
+      <c r="D11" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="195" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="195" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="196"/>
+      <c r="N11" s="196"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="197"/>
     </row>
     <row r="12" spans="1:17">
       <c r="C12" s="86">
         <v>1</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="171"/>
-      <c r="F12" s="172"/>
+        <v>96</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="173" t="s">
-        <v>208</v>
-      </c>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="174"/>
+        <v>204</v>
+      </c>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
       <c r="P12" s="62"/>
     </row>
     <row r="13" spans="1:17">
@@ -7215,23 +7202,23 @@
         <v>2</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="171"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="170" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="173" t="s">
-        <v>209</v>
-      </c>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="174"/>
+        <v>97</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
       <c r="P13" s="62"/>
     </row>
     <row r="14" spans="1:17">
@@ -7239,43 +7226,43 @@
         <v>3</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="171"/>
-      <c r="F14" s="172"/>
+        <v>98</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="173" t="s">
-        <v>211</v>
-      </c>
-      <c r="M14" s="174"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="174"/>
+        <v>203</v>
+      </c>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
       <c r="P14" s="62"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="C15" s="178">
+      <c r="C15" s="86">
         <v>4</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="62"/>
       <c r="G15" s="82" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="80"/>
       <c r="J15" s="80"/>
       <c r="K15" s="62"/>
-      <c r="L15" s="173" t="s">
-        <v>212</v>
+      <c r="L15" s="90" t="s">
+        <v>209</v>
       </c>
       <c r="M15" s="80"/>
       <c r="N15" s="80"/>
@@ -7283,23 +7270,23 @@
       <c r="P15" s="62"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="C16" s="178">
+      <c r="C16" s="86">
         <v>5</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E16" s="80"/>
       <c r="F16" s="62"/>
       <c r="G16" s="82" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
       <c r="J16" s="80"/>
       <c r="K16" s="62"/>
-      <c r="L16" s="173" t="s">
-        <v>210</v>
+      <c r="L16" s="90" t="s">
+        <v>207</v>
       </c>
       <c r="M16" s="80"/>
       <c r="N16" s="80"/>
@@ -7307,23 +7294,23 @@
       <c r="P16" s="62"/>
     </row>
     <row r="17" spans="3:16">
-      <c r="C17" s="178">
+      <c r="C17" s="86">
         <v>6</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E17" s="80"/>
       <c r="F17" s="62"/>
-      <c r="G17" s="170" t="s">
-        <v>205</v>
+      <c r="G17" s="87" t="s">
+        <v>202</v>
       </c>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="62"/>
-      <c r="L17" s="173" t="s">
-        <v>213</v>
+      <c r="L17" s="90" t="s">
+        <v>210</v>
       </c>
       <c r="M17" s="80"/>
       <c r="N17" s="80"/>
@@ -7331,23 +7318,23 @@
       <c r="P17" s="62"/>
     </row>
     <row r="18" spans="3:16">
-      <c r="C18" s="178">
+      <c r="C18" s="86">
         <v>7</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="80"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="170" t="s">
-        <v>205</v>
+      <c r="G18" s="87" t="s">
+        <v>202</v>
       </c>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="62"/>
-      <c r="L18" s="173" t="s">
-        <v>214</v>
+      <c r="L18" s="90" t="s">
+        <v>211</v>
       </c>
       <c r="M18" s="80"/>
       <c r="N18" s="80"/>
@@ -7355,23 +7342,23 @@
       <c r="P18" s="62"/>
     </row>
     <row r="19" spans="3:16">
-      <c r="C19" s="178">
+      <c r="C19" s="86">
         <v>8</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E19" s="80"/>
       <c r="F19" s="62"/>
       <c r="G19" s="82" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H19" s="80"/>
       <c r="I19" s="80"/>
       <c r="J19" s="80"/>
       <c r="K19" s="62"/>
-      <c r="L19" s="173" t="s">
-        <v>215</v>
+      <c r="L19" s="90" t="s">
+        <v>212</v>
       </c>
       <c r="M19" s="80"/>
       <c r="N19" s="80"/>
@@ -7379,23 +7366,23 @@
       <c r="P19" s="62"/>
     </row>
     <row r="20" spans="3:16">
-      <c r="C20" s="179">
+      <c r="C20" s="92">
         <v>9</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E20" s="81"/>
       <c r="F20" s="63"/>
       <c r="G20" s="83" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H20" s="81"/>
       <c r="I20" s="81"/>
       <c r="J20" s="81"/>
       <c r="K20" s="63"/>
-      <c r="L20" s="189" t="s">
-        <v>216</v>
+      <c r="L20" s="99" t="s">
+        <v>213</v>
       </c>
       <c r="M20" s="81"/>
       <c r="N20" s="81"/>
@@ -7404,88 +7391,88 @@
     </row>
     <row r="22" spans="3:16">
       <c r="C22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="3:16">
       <c r="C23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="3:16">
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="198" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="198"/>
+      <c r="N24" s="198"/>
+      <c r="O24" s="198"/>
+      <c r="P24" s="198"/>
+    </row>
+    <row r="25" spans="3:16">
+      <c r="C25" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="191"/>
-      <c r="K24" s="191"/>
-      <c r="L24" s="191"/>
-      <c r="M24" s="191"/>
-      <c r="N24" s="191"/>
-      <c r="O24" s="191"/>
-      <c r="P24" s="191"/>
-    </row>
-    <row r="25" spans="3:16">
-      <c r="C25" s="192" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="194"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="202" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="203"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="202" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" s="203"/>
-      <c r="L25" s="203"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="203"/>
-      <c r="O25" s="203"/>
-      <c r="P25" s="204"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="62"/>
     </row>
     <row r="26" spans="3:16">
-      <c r="C26" s="196"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="202" t="s">
-        <v>230</v>
-      </c>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="202" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="203"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="203"/>
-      <c r="O26" s="203"/>
-      <c r="P26" s="204"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="62"/>
     </row>
     <row r="27" spans="3:16">
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="198"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="190"/>
       <c r="F27" s="82" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G27" s="80"/>
       <c r="H27" s="80"/>
       <c r="I27" s="62"/>
-      <c r="J27" s="202" t="s">
-        <v>69</v>
+      <c r="J27" s="82" t="s">
+        <v>66</v>
       </c>
       <c r="K27" s="80"/>
       <c r="L27" s="80"/>
@@ -7495,17 +7482,17 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="3:16">
-      <c r="C28" s="196"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="198"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="190"/>
       <c r="F28" s="82" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G28" s="80"/>
       <c r="H28" s="80"/>
       <c r="I28" s="62"/>
-      <c r="J28" s="202" t="s">
-        <v>69</v>
+      <c r="J28" s="82" t="s">
+        <v>66</v>
       </c>
       <c r="K28" s="80"/>
       <c r="L28" s="80"/>
@@ -7515,17 +7502,17 @@
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="3:16">
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="198"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="190"/>
       <c r="F29" s="82" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G29" s="80"/>
       <c r="H29" s="80"/>
       <c r="I29" s="62"/>
-      <c r="J29" s="202" t="s">
-        <v>69</v>
+      <c r="J29" s="82" t="s">
+        <v>66</v>
       </c>
       <c r="K29" s="80"/>
       <c r="L29" s="80"/>
@@ -7535,17 +7522,17 @@
       <c r="P29" s="62"/>
     </row>
     <row r="30" spans="3:16">
-      <c r="C30" s="196"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="198"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="190"/>
       <c r="F30" s="82" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G30" s="80"/>
       <c r="H30" s="80"/>
       <c r="I30" s="62"/>
-      <c r="J30" s="202" t="s">
-        <v>69</v>
+      <c r="J30" s="82" t="s">
+        <v>66</v>
       </c>
       <c r="K30" s="80"/>
       <c r="L30" s="80"/>
@@ -7555,17 +7542,17 @@
       <c r="P30" s="62"/>
     </row>
     <row r="31" spans="3:16">
-      <c r="C31" s="196"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="198"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="190"/>
       <c r="F31" s="82" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G31" s="80"/>
       <c r="H31" s="80"/>
       <c r="I31" s="62"/>
-      <c r="J31" s="202" t="s">
-        <v>69</v>
+      <c r="J31" s="82" t="s">
+        <v>66</v>
       </c>
       <c r="K31" s="80"/>
       <c r="L31" s="80"/>
@@ -7575,17 +7562,17 @@
       <c r="P31" s="62"/>
     </row>
     <row r="32" spans="3:16">
-      <c r="C32" s="196"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="198"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="190"/>
       <c r="F32" s="82" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="80"/>
       <c r="I32" s="62"/>
-      <c r="J32" s="202" t="s">
-        <v>69</v>
+      <c r="J32" s="82" t="s">
+        <v>66</v>
       </c>
       <c r="K32" s="80"/>
       <c r="L32" s="80"/>
@@ -7595,17 +7582,17 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="3:16">
-      <c r="C33" s="196"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="198"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="190"/>
       <c r="F33" s="82" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="80"/>
       <c r="I33" s="62"/>
-      <c r="J33" s="202" t="s">
-        <v>69</v>
+      <c r="J33" s="82" t="s">
+        <v>66</v>
       </c>
       <c r="K33" s="80"/>
       <c r="L33" s="80"/>
@@ -7615,17 +7602,17 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="3:16">
-      <c r="C34" s="199"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="201"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="193"/>
       <c r="F34" s="83" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
       <c r="I34" s="63"/>
-      <c r="J34" s="190" t="s">
-        <v>69</v>
+      <c r="J34" s="83" t="s">
+        <v>66</v>
       </c>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
@@ -7635,96 +7622,104 @@
       <c r="P34" s="63"/>
     </row>
     <row r="37" spans="3:16">
-      <c r="C37" s="193" t="s">
-        <v>239</v>
+      <c r="C37" s="100" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="3:16">
-      <c r="C38" s="193"/>
+      <c r="C38" s="100"/>
     </row>
     <row r="40" spans="3:16">
-      <c r="C40" s="182" t="s">
+      <c r="C40" s="93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16">
+      <c r="C41" s="93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16">
+      <c r="C43" s="183" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="41" spans="3:16">
-      <c r="C41" s="183" t="s">
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="C44" s="194" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="43" spans="3:16">
-      <c r="C43" s="169" t="s">
+      <c r="D44" s="194"/>
+      <c r="E44" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="95"/>
+    </row>
+    <row r="45" spans="3:16">
+      <c r="C45" s="184" t="s">
         <v>221</v>
       </c>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169" t="s">
-        <v>222</v>
-      </c>
-      <c r="F43" s="169"/>
-      <c r="G43" s="169"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="169"/>
-      <c r="J43" s="169"/>
-      <c r="K43" s="169"/>
-      <c r="L43" s="169"/>
-      <c r="M43" s="169" t="s">
-        <v>66</v>
-      </c>
-      <c r="N43" s="169"/>
-      <c r="O43" s="169"/>
-      <c r="P43" s="169"/>
-    </row>
-    <row r="44" spans="3:16">
-      <c r="C44" s="180" t="s">
+      <c r="D45" s="184"/>
+      <c r="E45" s="173" t="s">
         <v>223</v>
       </c>
-      <c r="D44" s="180"/>
-      <c r="E44" s="127" t="s">
+      <c r="F45" s="173"/>
+      <c r="G45" s="173"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="173"/>
+      <c r="K45" s="173"/>
+      <c r="L45" s="173"/>
+      <c r="M45" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="127"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="188" t="s">
-        <v>227</v>
-      </c>
-      <c r="N44" s="184"/>
-      <c r="O44" s="184"/>
-      <c r="P44" s="185"/>
-    </row>
-    <row r="45" spans="3:16">
-      <c r="C45" s="181" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="181"/>
-      <c r="E45" s="145" t="s">
-        <v>226</v>
-      </c>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="145"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="188" t="s">
-        <v>228</v>
-      </c>
-      <c r="N45" s="186"/>
-      <c r="O45" s="186"/>
-      <c r="P45" s="187"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:L45"/>
-    <mergeCell ref="C25:E34"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="M43:P43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:L44"/>
@@ -7733,19 +7728,11 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:P24"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:L45"/>
+    <mergeCell ref="C25:E34"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:L43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
@@ -7756,8 +7743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3E047E-ACF9-47F2-9BD3-B296B0586256}">
   <dimension ref="A1:AX138"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A50" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:C83"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A92" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99:Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7769,252 +7756,253 @@
     <col min="9" max="9" width="10.21875" customWidth="1"/>
     <col min="10" max="10" width="13.109375" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="31" max="31" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="94" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="N1" s="121"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="149">
+      <c r="P1" s="152">
         <v>45270</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="94" t="s">
+      <c r="Q1" s="111"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="94" t="s">
+      <c r="V1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="94"/>
-      <c r="X1" s="114" t="s">
+      <c r="W1" s="111"/>
+      <c r="X1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
       <c r="AC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="101" t="s">
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" s="149">
+      <c r="AG1" s="152">
         <v>45270</v>
       </c>
-      <c r="AH1" s="94"/>
+      <c r="AH1" s="111"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="115"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="111"/>
+    </row>
+    <row r="3" spans="1:34" ht="15" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="3" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="94"/>
-    </row>
-    <row r="3" spans="1:34" ht="15" thickBot="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="95" t="s">
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
     </row>
     <row r="4" spans="1:34" ht="15" thickTop="1"/>
     <row r="5" spans="1:34">
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="T6" s="147" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="147"/>
+      <c r="T6" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="160"/>
     </row>
     <row r="7" spans="1:34">
       <c r="T7" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:34">
       <c r="T9" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U9" s="28"/>
     </row>
     <row r="10" spans="1:34">
       <c r="T10" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="T12" s="28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="T13" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="T15" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="T16" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="20:33">
       <c r="T18" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="20:33">
       <c r="T19" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="20:33">
       <c r="T21" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="20:33">
       <c r="T22" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="20:33">
       <c r="T24" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="20:33">
       <c r="T25" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
@@ -8032,12 +8020,12 @@
     </row>
     <row r="27" spans="20:33">
       <c r="T27" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="20:33">
       <c r="T28" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="2:50">
@@ -8551,72 +8539,72 @@
       <c r="AX50" s="26"/>
     </row>
     <row r="51" spans="1:50" ht="13.2" customHeight="1">
-      <c r="A51" s="104"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="94" t="s">
+      <c r="A51" s="102"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="94" t="s">
+      <c r="E51" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="94"/>
-      <c r="G51" s="114" t="s">
+      <c r="F51" s="111"/>
+      <c r="G51" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="115"/>
-      <c r="I51" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
       <c r="L51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="101" t="s">
+      <c r="N51" s="121"/>
+      <c r="O51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="102"/>
-      <c r="O51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P51" s="149">
+      <c r="P51" s="152">
         <v>45270</v>
       </c>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="104"/>
-      <c r="S51" s="105"/>
-      <c r="T51" s="106"/>
-      <c r="U51" s="94" t="s">
+      <c r="Q51" s="111"/>
+      <c r="R51" s="102"/>
+      <c r="S51" s="103"/>
+      <c r="T51" s="104"/>
+      <c r="U51" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="V51" s="94" t="s">
+      <c r="V51" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="W51" s="94"/>
-      <c r="X51" s="114" t="s">
+      <c r="W51" s="111"/>
+      <c r="X51" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="Y51" s="115"/>
-      <c r="Z51" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA51" s="94"/>
-      <c r="AB51" s="94"/>
+      <c r="Y51" s="114"/>
+      <c r="Z51" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA51" s="111"/>
+      <c r="AB51" s="111"/>
       <c r="AC51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD51" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AD51" s="101" t="s">
+      <c r="AE51" s="121"/>
+      <c r="AF51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE51" s="102"/>
-      <c r="AF51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG51" s="149">
+      <c r="AG51" s="152">
         <v>45270</v>
       </c>
-      <c r="AH51" s="94"/>
+      <c r="AH51" s="111"/>
       <c r="AI51" s="28"/>
       <c r="AJ51" s="28"/>
       <c r="AK51" s="28"/>
@@ -8635,48 +8623,48 @@
       <c r="AX51" s="26"/>
     </row>
     <row r="52" spans="1:50" ht="13.2" customHeight="1">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
       <c r="L52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" s="115"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="93"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="107"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="109"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="114"/>
-      <c r="Y52" s="115"/>
-      <c r="Z52" s="93"/>
-      <c r="AA52" s="94"/>
-      <c r="AB52" s="94"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="105"/>
+      <c r="S52" s="106"/>
+      <c r="T52" s="107"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="111"/>
+      <c r="W52" s="111"/>
+      <c r="X52" s="113"/>
+      <c r="Y52" s="114"/>
+      <c r="Z52" s="115"/>
+      <c r="AA52" s="111"/>
+      <c r="AB52" s="111"/>
       <c r="AC52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD52" s="115"/>
+      <c r="AE52" s="111"/>
+      <c r="AF52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD52" s="93"/>
-      <c r="AE52" s="94"/>
-      <c r="AF52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG52" s="93"/>
-      <c r="AH52" s="94"/>
+      <c r="AG52" s="115"/>
+      <c r="AH52" s="111"/>
       <c r="AI52" s="28"/>
       <c r="AJ52" s="28"/>
       <c r="AK52" s="28"/>
@@ -8695,56 +8683,56 @@
       <c r="AX52" s="26"/>
     </row>
     <row r="53" spans="1:50" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A53" s="110"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="95" t="s">
+      <c r="A53" s="108"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="117"/>
+      <c r="I53" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J53" s="119"/>
+      <c r="K53" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="96"/>
-      <c r="I53" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J53" s="98"/>
-      <c r="K53" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="96"/>
-      <c r="M53" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N53" s="98"/>
-      <c r="O53" s="98"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="98"/>
-      <c r="R53" s="110"/>
-      <c r="S53" s="111"/>
-      <c r="T53" s="112"/>
-      <c r="U53" s="113"/>
-      <c r="V53" s="113"/>
-      <c r="W53" s="113"/>
-      <c r="X53" s="95" t="s">
+      <c r="L53" s="117"/>
+      <c r="M53" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N53" s="119"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="108"/>
+      <c r="S53" s="109"/>
+      <c r="T53" s="110"/>
+      <c r="U53" s="112"/>
+      <c r="V53" s="112"/>
+      <c r="W53" s="112"/>
+      <c r="X53" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y53" s="117"/>
+      <c r="Z53" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA53" s="119"/>
+      <c r="AB53" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="Y53" s="96"/>
-      <c r="Z53" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA53" s="98"/>
-      <c r="AB53" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC53" s="96"/>
-      <c r="AD53" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE53" s="98"/>
-      <c r="AF53" s="98"/>
-      <c r="AG53" s="98"/>
-      <c r="AH53" s="98"/>
+      <c r="AC53" s="117"/>
+      <c r="AD53" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE53" s="119"/>
+      <c r="AF53" s="119"/>
+      <c r="AG53" s="119"/>
+      <c r="AH53" s="119"/>
       <c r="AI53" s="28"/>
       <c r="AJ53" s="28"/>
       <c r="AK53" s="28"/>
@@ -8868,7 +8856,7 @@
     </row>
     <row r="56" spans="1:50" ht="13.2" customHeight="1">
       <c r="B56" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -8919,7 +8907,7 @@
     </row>
     <row r="57" spans="1:50">
       <c r="B57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -8936,7 +8924,7 @@
       <c r="Q57" s="28"/>
       <c r="R57" s="2"/>
       <c r="S57" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
@@ -8958,39 +8946,39 @@
     </row>
     <row r="58" spans="1:50">
       <c r="B58" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="162" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" s="164"/>
-      <c r="E58" s="162" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="164"/>
-      <c r="G58" s="162" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="163"/>
-      <c r="I58" s="163"/>
-      <c r="J58" s="163"/>
-      <c r="K58" s="164"/>
-      <c r="L58" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="M58" s="166"/>
-      <c r="N58" s="166"/>
-      <c r="O58" s="166"/>
-      <c r="P58" s="167"/>
+        <v>22</v>
+      </c>
+      <c r="C58" s="153" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="155"/>
+      <c r="E58" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="155"/>
+      <c r="G58" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" s="154"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="156" t="s">
+        <v>95</v>
+      </c>
+      <c r="M58" s="157"/>
+      <c r="N58" s="157"/>
+      <c r="O58" s="157"/>
+      <c r="P58" s="158"/>
       <c r="Q58" s="28"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="141" t="s">
-        <v>78</v>
-      </c>
-      <c r="T58" s="141"/>
-      <c r="U58" s="141"/>
-      <c r="V58" s="141"/>
-      <c r="W58" s="141"/>
+      <c r="S58" s="159" t="s">
+        <v>75</v>
+      </c>
+      <c r="T58" s="159"/>
+      <c r="U58" s="159"/>
+      <c r="V58" s="159"/>
+      <c r="W58" s="159"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
@@ -9014,22 +9002,22 @@
         <v>1</v>
       </c>
       <c r="C59" s="68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D59" s="69"/>
       <c r="E59" s="70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F59" s="71"/>
       <c r="G59" s="68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H59" s="72"/>
       <c r="I59" s="72"/>
       <c r="J59" s="72"/>
       <c r="K59" s="69"/>
       <c r="L59" s="73" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M59" s="74"/>
       <c r="N59" s="74"/>
@@ -9037,10 +9025,10 @@
       <c r="P59" s="75"/>
       <c r="Q59" s="28"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="141" t="s">
-        <v>63</v>
-      </c>
-      <c r="T59" s="141"/>
+      <c r="S59" s="159" t="s">
+        <v>60</v>
+      </c>
+      <c r="T59" s="159"/>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
@@ -9064,22 +9052,22 @@
         <v>2</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D60" s="62"/>
       <c r="E60" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F60" s="44"/>
       <c r="G60" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H60" s="55"/>
       <c r="I60" s="55"/>
       <c r="J60" s="55"/>
       <c r="K60" s="64"/>
       <c r="L60" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M60" s="66"/>
       <c r="N60" s="66"/>
@@ -9087,11 +9075,11 @@
       <c r="P60" s="64"/>
       <c r="Q60" s="28"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="142" t="s">
-        <v>64</v>
-      </c>
-      <c r="T60" s="108"/>
-      <c r="U60" s="108"/>
+      <c r="S60" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="T60" s="106"/>
+      <c r="U60" s="106"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
@@ -9115,22 +9103,22 @@
         <v>3</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D61" s="62"/>
       <c r="E61" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F61" s="44"/>
       <c r="G61" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H61" s="55"/>
       <c r="I61" s="55"/>
       <c r="J61" s="55"/>
       <c r="K61" s="64"/>
       <c r="L61" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M61" s="66"/>
       <c r="N61" s="66"/>
@@ -9139,27 +9127,27 @@
       <c r="Q61" s="28"/>
       <c r="R61" s="2"/>
       <c r="S61" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="T61" s="143" t="s">
-        <v>44</v>
-      </c>
-      <c r="U61" s="143"/>
-      <c r="V61" s="143"/>
-      <c r="W61" s="143" t="s">
-        <v>65</v>
-      </c>
-      <c r="X61" s="143"/>
-      <c r="Y61" s="143"/>
-      <c r="Z61" s="143"/>
-      <c r="AA61" s="143"/>
-      <c r="AB61" s="143"/>
-      <c r="AC61" s="143" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD61" s="143"/>
-      <c r="AE61" s="143"/>
-      <c r="AF61" s="143"/>
+        <v>22</v>
+      </c>
+      <c r="T61" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="U61" s="178"/>
+      <c r="V61" s="178"/>
+      <c r="W61" s="178" t="s">
+        <v>62</v>
+      </c>
+      <c r="X61" s="178"/>
+      <c r="Y61" s="178"/>
+      <c r="Z61" s="178"/>
+      <c r="AA61" s="178"/>
+      <c r="AB61" s="178"/>
+      <c r="AC61" s="178" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD61" s="178"/>
+      <c r="AE61" s="178"/>
+      <c r="AF61" s="178"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
@@ -9183,22 +9171,22 @@
         <v>4</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D62" s="62"/>
       <c r="E62" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F62" s="44"/>
       <c r="G62" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H62" s="55"/>
       <c r="I62" s="55"/>
       <c r="J62" s="55"/>
       <c r="K62" s="64"/>
       <c r="L62" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
@@ -9207,19 +9195,19 @@
       <c r="Q62" s="28"/>
       <c r="R62" s="2"/>
       <c r="S62" s="39"/>
-      <c r="T62" s="160"/>
-      <c r="U62" s="160"/>
-      <c r="V62" s="160"/>
-      <c r="W62" s="160"/>
-      <c r="X62" s="160"/>
-      <c r="Y62" s="160"/>
-      <c r="Z62" s="160"/>
-      <c r="AA62" s="160"/>
-      <c r="AB62" s="160"/>
-      <c r="AC62" s="161"/>
-      <c r="AD62" s="161"/>
-      <c r="AE62" s="161"/>
-      <c r="AF62" s="161"/>
+      <c r="T62" s="166"/>
+      <c r="U62" s="166"/>
+      <c r="V62" s="166"/>
+      <c r="W62" s="166"/>
+      <c r="X62" s="166"/>
+      <c r="Y62" s="166"/>
+      <c r="Z62" s="166"/>
+      <c r="AA62" s="166"/>
+      <c r="AB62" s="166"/>
+      <c r="AC62" s="167"/>
+      <c r="AD62" s="167"/>
+      <c r="AE62" s="167"/>
+      <c r="AF62" s="167"/>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
@@ -9243,22 +9231,22 @@
         <v>5</v>
       </c>
       <c r="C63" s="53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D63" s="62"/>
       <c r="E63" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F63" s="44"/>
       <c r="G63" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H63" s="55"/>
       <c r="I63" s="55"/>
       <c r="J63" s="55"/>
       <c r="K63" s="64"/>
       <c r="L63" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M63" s="66"/>
       <c r="N63" s="66"/>
@@ -9267,19 +9255,19 @@
       <c r="Q63" s="28"/>
       <c r="R63" s="2"/>
       <c r="S63" s="39"/>
-      <c r="T63" s="160"/>
-      <c r="U63" s="160"/>
-      <c r="V63" s="160"/>
-      <c r="W63" s="160"/>
-      <c r="X63" s="160"/>
-      <c r="Y63" s="160"/>
-      <c r="Z63" s="160"/>
-      <c r="AA63" s="160"/>
-      <c r="AB63" s="160"/>
-      <c r="AC63" s="161"/>
-      <c r="AD63" s="161"/>
-      <c r="AE63" s="161"/>
-      <c r="AF63" s="161"/>
+      <c r="T63" s="166"/>
+      <c r="U63" s="166"/>
+      <c r="V63" s="166"/>
+      <c r="W63" s="166"/>
+      <c r="X63" s="166"/>
+      <c r="Y63" s="166"/>
+      <c r="Z63" s="166"/>
+      <c r="AA63" s="166"/>
+      <c r="AB63" s="166"/>
+      <c r="AC63" s="167"/>
+      <c r="AD63" s="167"/>
+      <c r="AE63" s="167"/>
+      <c r="AF63" s="167"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
@@ -9303,22 +9291,22 @@
         <v>6</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D64" s="62"/>
       <c r="E64" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F64" s="44"/>
       <c r="G64" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H64" s="55"/>
       <c r="I64" s="55"/>
       <c r="J64" s="55"/>
       <c r="K64" s="64"/>
       <c r="L64" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
@@ -9327,19 +9315,19 @@
       <c r="Q64" s="28"/>
       <c r="R64" s="2"/>
       <c r="S64" s="40"/>
-      <c r="T64" s="139"/>
-      <c r="U64" s="139"/>
-      <c r="V64" s="139"/>
-      <c r="W64" s="139"/>
-      <c r="X64" s="139"/>
-      <c r="Y64" s="139"/>
-      <c r="Z64" s="139"/>
-      <c r="AA64" s="139"/>
-      <c r="AB64" s="139"/>
-      <c r="AC64" s="140"/>
-      <c r="AD64" s="140"/>
-      <c r="AE64" s="140"/>
-      <c r="AF64" s="140"/>
+      <c r="T64" s="175"/>
+      <c r="U64" s="175"/>
+      <c r="V64" s="175"/>
+      <c r="W64" s="175"/>
+      <c r="X64" s="175"/>
+      <c r="Y64" s="175"/>
+      <c r="Z64" s="175"/>
+      <c r="AA64" s="175"/>
+      <c r="AB64" s="175"/>
+      <c r="AC64" s="176"/>
+      <c r="AD64" s="176"/>
+      <c r="AE64" s="176"/>
+      <c r="AF64" s="176"/>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
@@ -9363,22 +9351,22 @@
         <v>7</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D65" s="62"/>
       <c r="E65" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F65" s="44"/>
       <c r="G65" s="53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H65" s="55"/>
       <c r="I65" s="55"/>
       <c r="J65" s="55"/>
       <c r="K65" s="64"/>
       <c r="L65" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M65" s="66"/>
       <c r="N65" s="66"/>
@@ -9423,22 +9411,22 @@
         <v>8</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D66" s="62"/>
       <c r="E66" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F66" s="44"/>
       <c r="G66" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
       <c r="J66" s="55"/>
       <c r="K66" s="64"/>
       <c r="L66" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M66" s="66"/>
       <c r="N66" s="66"/>
@@ -9469,22 +9457,22 @@
         <v>9</v>
       </c>
       <c r="C67" s="53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D67" s="62"/>
       <c r="E67" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F67" s="44"/>
       <c r="G67" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H67" s="55"/>
       <c r="I67" s="55"/>
       <c r="J67" s="55"/>
       <c r="K67" s="64"/>
       <c r="L67" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>
@@ -9493,7 +9481,7 @@
       <c r="Q67" s="28"/>
       <c r="R67" s="2"/>
       <c r="S67" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T67" s="4"/>
       <c r="AG67" s="2"/>
@@ -9519,22 +9507,22 @@
         <v>10</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D68" s="62"/>
       <c r="E68" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F68" s="44"/>
       <c r="G68" s="53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
       <c r="J68" s="55"/>
       <c r="K68" s="64"/>
       <c r="L68" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M68" s="66"/>
       <c r="N68" s="66"/>
@@ -9542,24 +9530,24 @@
       <c r="P68" s="64"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="144" t="s">
-        <v>67</v>
-      </c>
-      <c r="T68" s="144"/>
-      <c r="U68" s="144"/>
-      <c r="V68" s="144" t="s">
-        <v>68</v>
-      </c>
-      <c r="W68" s="144"/>
-      <c r="X68" s="144"/>
-      <c r="Y68" s="144"/>
-      <c r="Z68" s="144"/>
-      <c r="AA68" s="144"/>
-      <c r="AB68" s="144"/>
-      <c r="AC68" s="144"/>
-      <c r="AD68" s="144"/>
-      <c r="AE68" s="144"/>
-      <c r="AF68" s="144"/>
+      <c r="S68" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="T68" s="179"/>
+      <c r="U68" s="179"/>
+      <c r="V68" s="179" t="s">
+        <v>65</v>
+      </c>
+      <c r="W68" s="179"/>
+      <c r="X68" s="179"/>
+      <c r="Y68" s="179"/>
+      <c r="Z68" s="179"/>
+      <c r="AA68" s="179"/>
+      <c r="AB68" s="179"/>
+      <c r="AC68" s="179"/>
+      <c r="AD68" s="179"/>
+      <c r="AE68" s="179"/>
+      <c r="AF68" s="179"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
@@ -9583,22 +9571,22 @@
         <v>11</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D69" s="62"/>
       <c r="E69" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F69" s="44"/>
       <c r="G69" s="53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H69" s="55"/>
       <c r="I69" s="55"/>
       <c r="J69" s="55"/>
       <c r="K69" s="64"/>
       <c r="L69" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M69" s="66"/>
       <c r="N69" s="66"/>
@@ -9606,26 +9594,26 @@
       <c r="P69" s="64"/>
       <c r="Q69" s="28"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="155" t="s">
-        <v>70</v>
-      </c>
-      <c r="T69" s="155"/>
-      <c r="U69" s="155"/>
-      <c r="V69" s="131" t="s">
-        <v>80</v>
-      </c>
-      <c r="W69" s="131"/>
-      <c r="X69" s="131"/>
-      <c r="Y69" s="131"/>
-      <c r="Z69" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA69" s="131"/>
-      <c r="AB69" s="131"/>
-      <c r="AC69" s="131"/>
-      <c r="AD69" s="131"/>
-      <c r="AE69" s="131"/>
-      <c r="AF69" s="131"/>
+      <c r="S69" s="180" t="s">
+        <v>67</v>
+      </c>
+      <c r="T69" s="180"/>
+      <c r="U69" s="180"/>
+      <c r="V69" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="W69" s="122"/>
+      <c r="X69" s="122"/>
+      <c r="Y69" s="122"/>
+      <c r="Z69" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA69" s="122"/>
+      <c r="AB69" s="122"/>
+      <c r="AC69" s="122"/>
+      <c r="AD69" s="122"/>
+      <c r="AE69" s="122"/>
+      <c r="AF69" s="122"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
@@ -9649,22 +9637,22 @@
         <v>12</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D70" s="62"/>
       <c r="E70" s="58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F70" s="44"/>
       <c r="G70" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
       <c r="J70" s="55"/>
       <c r="K70" s="64"/>
       <c r="L70" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M70" s="66"/>
       <c r="N70" s="66"/>
@@ -9672,26 +9660,26 @@
       <c r="P70" s="64"/>
       <c r="Q70" s="28"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="156" t="s">
-        <v>84</v>
-      </c>
-      <c r="T70" s="156"/>
-      <c r="U70" s="156"/>
-      <c r="V70" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="W70" s="127"/>
-      <c r="X70" s="127"/>
-      <c r="Y70" s="127"/>
-      <c r="Z70" s="138" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA70" s="127"/>
-      <c r="AB70" s="127"/>
-      <c r="AC70" s="127"/>
-      <c r="AD70" s="127"/>
-      <c r="AE70" s="127"/>
-      <c r="AF70" s="127"/>
+      <c r="S70" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="T70" s="181"/>
+      <c r="U70" s="181"/>
+      <c r="V70" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="W70" s="130"/>
+      <c r="X70" s="130"/>
+      <c r="Y70" s="130"/>
+      <c r="Z70" s="165" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA70" s="130"/>
+      <c r="AB70" s="130"/>
+      <c r="AC70" s="130"/>
+      <c r="AD70" s="130"/>
+      <c r="AE70" s="130"/>
+      <c r="AF70" s="130"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
@@ -9715,22 +9703,22 @@
         <v>13</v>
       </c>
       <c r="C71" s="48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D71" s="63"/>
       <c r="E71" s="60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F71" s="47"/>
       <c r="G71" s="48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H71" s="49"/>
       <c r="I71" s="49"/>
       <c r="J71" s="49"/>
       <c r="K71" s="65"/>
       <c r="L71" s="59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M71" s="67"/>
       <c r="N71" s="67"/>
@@ -9738,26 +9726,26 @@
       <c r="P71" s="65"/>
       <c r="Q71" s="28"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="146" t="s">
-        <v>85</v>
-      </c>
-      <c r="T71" s="146"/>
-      <c r="U71" s="146"/>
-      <c r="V71" s="157" t="s">
-        <v>81</v>
-      </c>
-      <c r="W71" s="158"/>
-      <c r="X71" s="158"/>
-      <c r="Y71" s="159"/>
-      <c r="Z71" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA71" s="127"/>
-      <c r="AB71" s="127"/>
-      <c r="AC71" s="127"/>
-      <c r="AD71" s="127"/>
-      <c r="AE71" s="127"/>
-      <c r="AF71" s="127"/>
+      <c r="S71" s="161" t="s">
+        <v>82</v>
+      </c>
+      <c r="T71" s="161"/>
+      <c r="U71" s="161"/>
+      <c r="V71" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="W71" s="163"/>
+      <c r="X71" s="163"/>
+      <c r="Y71" s="164"/>
+      <c r="Z71" s="165" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA71" s="130"/>
+      <c r="AB71" s="130"/>
+      <c r="AC71" s="130"/>
+      <c r="AD71" s="130"/>
+      <c r="AE71" s="130"/>
+      <c r="AF71" s="130"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
@@ -9814,10 +9802,10 @@
       <c r="AW72" s="2"/>
     </row>
     <row r="73" spans="2:49">
-      <c r="B73" s="141" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="141"/>
+      <c r="B73" s="159" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="159"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -9854,38 +9842,38 @@
     </row>
     <row r="74" spans="2:49">
       <c r="B74" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="168" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="168"/>
+      <c r="E74" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74" s="168"/>
+      <c r="G74" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I74" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="151" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="151"/>
-      <c r="E74" s="151" t="s">
+      <c r="J74" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F74" s="151"/>
-      <c r="G74" s="34" t="s">
+      <c r="K74" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="H74" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I74" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="K74" s="151" t="s">
-        <v>49</v>
-      </c>
-      <c r="L74" s="151"/>
-      <c r="M74" s="151" t="s">
-        <v>29</v>
-      </c>
-      <c r="N74" s="151"/>
-      <c r="O74" s="151"/>
-      <c r="P74" s="151"/>
+      <c r="L74" s="168"/>
+      <c r="M74" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="168"/>
+      <c r="O74" s="168"/>
+      <c r="P74" s="168"/>
       <c r="Q74" s="28"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
@@ -9913,29 +9901,29 @@
         <v>1</v>
       </c>
       <c r="C75" s="77" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D75" s="78"/>
-      <c r="E75" s="152" t="s">
-        <v>120</v>
-      </c>
-      <c r="F75" s="153"/>
+      <c r="E75" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="170"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K75" s="152"/>
-      <c r="L75" s="153"/>
-      <c r="M75" s="152"/>
-      <c r="N75" s="154"/>
-      <c r="O75" s="154"/>
-      <c r="P75" s="153"/>
+        <v>118</v>
+      </c>
+      <c r="K75" s="169"/>
+      <c r="L75" s="170"/>
+      <c r="M75" s="169"/>
+      <c r="N75" s="171"/>
+      <c r="O75" s="171"/>
+      <c r="P75" s="170"/>
       <c r="Q75" s="28"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
@@ -9963,29 +9951,29 @@
         <v>2</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D76" s="62"/>
-      <c r="E76" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="F76" s="129"/>
+      <c r="E76" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="132"/>
       <c r="G76" s="35"/>
       <c r="H76" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J76" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="K76" s="128"/>
-      <c r="L76" s="129"/>
-      <c r="M76" s="128"/>
-      <c r="N76" s="130"/>
-      <c r="O76" s="130"/>
-      <c r="P76" s="129"/>
+        <v>107</v>
+      </c>
+      <c r="K76" s="131"/>
+      <c r="L76" s="132"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="133"/>
+      <c r="O76" s="133"/>
+      <c r="P76" s="132"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="AF76" s="2"/>
@@ -10012,22 +10000,22 @@
         <v>3</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D77" s="62"/>
       <c r="E77" s="53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F77" s="54"/>
       <c r="G77" s="35"/>
       <c r="H77" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J77" s="35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K77" s="53"/>
       <c r="L77" s="54"/>
@@ -10061,22 +10049,22 @@
         <v>4</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D78" s="62"/>
       <c r="E78" s="53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F78" s="54"/>
       <c r="G78" s="35"/>
       <c r="H78" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J78" s="35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K78" s="53"/>
       <c r="L78" s="54"/>
@@ -10110,22 +10098,22 @@
         <v>5</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D79" s="62"/>
       <c r="E79" s="53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F79" s="54"/>
       <c r="G79" s="35"/>
       <c r="H79" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J79" s="35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K79" s="53"/>
       <c r="L79" s="54"/>
@@ -10159,22 +10147,22 @@
         <v>6</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D80" s="62"/>
       <c r="E80" s="53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F80" s="54"/>
       <c r="G80" s="35"/>
       <c r="H80" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J80" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K80" s="53"/>
       <c r="L80" s="54"/>
@@ -10216,22 +10204,22 @@
         <v>7</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D81" s="62"/>
       <c r="E81" s="53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F81" s="54"/>
       <c r="G81" s="35"/>
       <c r="H81" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J81" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K81" s="53"/>
       <c r="L81" s="54"/>
@@ -10273,22 +10261,22 @@
         <v>8</v>
       </c>
       <c r="C82" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D82" s="54"/>
       <c r="E82" s="53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" s="54"/>
       <c r="G82" s="35"/>
       <c r="H82" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K82" s="53"/>
       <c r="L82" s="62"/>
@@ -10326,22 +10314,22 @@
         <v>9</v>
       </c>
       <c r="C83" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D83" s="50"/>
       <c r="E83" s="48" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F83" s="50"/>
       <c r="G83" s="36"/>
       <c r="H83" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J83" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K83" s="48"/>
       <c r="L83" s="63"/>
@@ -10415,10 +10403,10 @@
       <c r="AR84" s="2"/>
     </row>
     <row r="85" spans="2:49">
-      <c r="B85" s="150" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="150"/>
+      <c r="B85" s="172" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="172"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -10454,28 +10442,28 @@
     </row>
     <row r="86" spans="2:49">
       <c r="B86" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="151" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="151"/>
-      <c r="E86" s="151"/>
-      <c r="F86" s="151" t="s">
-        <v>48</v>
-      </c>
-      <c r="G86" s="151"/>
-      <c r="H86" s="151"/>
-      <c r="I86" s="151" t="s">
-        <v>29</v>
-      </c>
-      <c r="J86" s="151"/>
-      <c r="K86" s="151"/>
-      <c r="L86" s="151"/>
-      <c r="M86" s="151"/>
-      <c r="N86" s="151"/>
-      <c r="O86" s="151"/>
-      <c r="P86" s="151"/>
+        <v>22</v>
+      </c>
+      <c r="C86" s="168" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="168"/>
+      <c r="E86" s="168"/>
+      <c r="F86" s="168" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" s="168"/>
+      <c r="H86" s="168"/>
+      <c r="I86" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="168"/>
+      <c r="K86" s="168"/>
+      <c r="L86" s="168"/>
+      <c r="M86" s="168"/>
+      <c r="N86" s="168"/>
+      <c r="O86" s="168"/>
+      <c r="P86" s="168"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -10510,23 +10498,23 @@
         <v>1</v>
       </c>
       <c r="C87" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D87" s="85"/>
       <c r="E87" s="78"/>
-      <c r="F87" s="131" t="s">
-        <v>53</v>
-      </c>
-      <c r="G87" s="131"/>
-      <c r="H87" s="131"/>
-      <c r="I87" s="133"/>
-      <c r="J87" s="133"/>
-      <c r="K87" s="133"/>
-      <c r="L87" s="133"/>
-      <c r="M87" s="133"/>
-      <c r="N87" s="133"/>
-      <c r="O87" s="133"/>
-      <c r="P87" s="133"/>
+      <c r="F87" s="122" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" s="122"/>
+      <c r="H87" s="122"/>
+      <c r="I87" s="124"/>
+      <c r="J87" s="124"/>
+      <c r="K87" s="124"/>
+      <c r="L87" s="124"/>
+      <c r="M87" s="124"/>
+      <c r="N87" s="124"/>
+      <c r="O87" s="124"/>
+      <c r="P87" s="124"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -10561,21 +10549,21 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
-      </c>
-      <c r="F88" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="G88" s="127"/>
-      <c r="H88" s="127"/>
-      <c r="I88" s="137"/>
-      <c r="J88" s="137"/>
-      <c r="K88" s="137"/>
-      <c r="L88" s="137"/>
-      <c r="M88" s="137"/>
-      <c r="N88" s="137"/>
-      <c r="O88" s="137"/>
-      <c r="P88" s="137"/>
+        <v>124</v>
+      </c>
+      <c r="F88" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="G88" s="130"/>
+      <c r="H88" s="130"/>
+      <c r="I88" s="101"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="101"/>
+      <c r="N88" s="101"/>
+      <c r="O88" s="101"/>
+      <c r="P88" s="101"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -10610,21 +10598,21 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="G89" s="127"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="137"/>
-      <c r="J89" s="137"/>
-      <c r="K89" s="137"/>
-      <c r="L89" s="137"/>
-      <c r="M89" s="137"/>
-      <c r="N89" s="137"/>
-      <c r="O89" s="137"/>
-      <c r="P89" s="137"/>
+        <v>122</v>
+      </c>
+      <c r="F89" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" s="130"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="101"/>
+      <c r="J89" s="101"/>
+      <c r="K89" s="101"/>
+      <c r="L89" s="101"/>
+      <c r="M89" s="101"/>
+      <c r="N89" s="101"/>
+      <c r="O89" s="101"/>
+      <c r="P89" s="101"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -10659,23 +10647,23 @@
         <v>4</v>
       </c>
       <c r="C90" s="83" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D90" s="81"/>
       <c r="E90" s="63"/>
-      <c r="F90" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="G90" s="145"/>
-      <c r="H90" s="145"/>
-      <c r="I90" s="146"/>
-      <c r="J90" s="146"/>
-      <c r="K90" s="146"/>
-      <c r="L90" s="146"/>
-      <c r="M90" s="146"/>
-      <c r="N90" s="146"/>
-      <c r="O90" s="146"/>
-      <c r="P90" s="146"/>
+      <c r="F90" s="173" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" s="173"/>
+      <c r="H90" s="173"/>
+      <c r="I90" s="161"/>
+      <c r="J90" s="161"/>
+      <c r="K90" s="161"/>
+      <c r="L90" s="161"/>
+      <c r="M90" s="161"/>
+      <c r="N90" s="161"/>
+      <c r="O90" s="161"/>
+      <c r="P90" s="161"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -10856,210 +10844,131 @@
       <c r="AH95" s="2"/>
     </row>
     <row r="97" spans="1:48">
-      <c r="A97" s="104"/>
-      <c r="B97" s="105"/>
-      <c r="C97" s="106"/>
-      <c r="D97" s="94" t="s">
+      <c r="A97" s="102"/>
+      <c r="B97" s="103"/>
+      <c r="C97" s="104"/>
+      <c r="D97" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="94" t="s">
+      <c r="E97" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F97" s="94"/>
-      <c r="G97" s="114" t="s">
+      <c r="F97" s="111"/>
+      <c r="G97" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H97" s="115"/>
-      <c r="I97" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J97" s="94"/>
-      <c r="K97" s="94"/>
+      <c r="H97" s="114"/>
+      <c r="I97" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J97" s="111"/>
+      <c r="K97" s="111"/>
       <c r="L97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M97" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M97" s="101" t="s">
+      <c r="N97" s="121"/>
+      <c r="O97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N97" s="102"/>
-      <c r="O97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P97" s="149">
+      <c r="P97" s="152">
         <v>45270</v>
       </c>
-      <c r="Q97" s="94"/>
-      <c r="R97" s="104"/>
-      <c r="S97" s="105"/>
-      <c r="T97" s="106"/>
-      <c r="U97" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="V97" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="W97" s="94"/>
-      <c r="X97" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y97" s="115"/>
-      <c r="Z97" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA97" s="94"/>
-      <c r="AB97" s="94"/>
-      <c r="AC97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD97" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE97" s="102"/>
-      <c r="AF97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG97" s="149">
-        <v>45270</v>
-      </c>
-      <c r="AH97" s="94"/>
-      <c r="AI97" s="28"/>
-      <c r="AJ97" s="28"/>
-      <c r="AK97" s="28"/>
-      <c r="AL97" s="28"/>
-      <c r="AM97" s="28"/>
-      <c r="AN97" s="26"/>
-      <c r="AO97" s="26"/>
-      <c r="AP97" s="26"/>
-      <c r="AQ97" s="26"/>
-      <c r="AR97" s="26"/>
-      <c r="AS97" s="26"/>
-      <c r="AT97" s="26"/>
-      <c r="AU97" s="26"/>
-      <c r="AV97" s="26"/>
+      <c r="Q97" s="111"/>
+      <c r="R97" s="28"/>
+      <c r="S97" s="28"/>
+      <c r="T97" s="28"/>
+      <c r="U97" s="28"/>
+      <c r="V97" s="28"/>
+      <c r="W97" s="26"/>
+      <c r="X97" s="26"/>
+      <c r="Y97" s="26"/>
+      <c r="Z97" s="26"/>
+      <c r="AA97" s="26"/>
+      <c r="AB97" s="26"/>
+      <c r="AC97" s="26"/>
+      <c r="AD97" s="26"/>
+      <c r="AE97" s="26"/>
     </row>
     <row r="98" spans="1:48">
-      <c r="A98" s="107"/>
-      <c r="B98" s="108"/>
-      <c r="C98" s="109"/>
-      <c r="D98" s="94"/>
-      <c r="E98" s="94"/>
-      <c r="F98" s="94"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="115"/>
-      <c r="I98" s="93"/>
-      <c r="J98" s="94"/>
-      <c r="K98" s="94"/>
+      <c r="A98" s="105"/>
+      <c r="B98" s="106"/>
+      <c r="C98" s="107"/>
+      <c r="D98" s="111"/>
+      <c r="E98" s="111"/>
+      <c r="F98" s="111"/>
+      <c r="G98" s="113"/>
+      <c r="H98" s="114"/>
+      <c r="I98" s="115"/>
+      <c r="J98" s="111"/>
+      <c r="K98" s="111"/>
       <c r="L98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M98" s="115"/>
+      <c r="N98" s="111"/>
+      <c r="O98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M98" s="93"/>
-      <c r="N98" s="94"/>
-      <c r="O98" s="3" t="s">
+      <c r="P98" s="115"/>
+      <c r="Q98" s="111"/>
+      <c r="R98" s="28"/>
+      <c r="S98" s="28"/>
+      <c r="T98" s="28"/>
+      <c r="U98" s="28"/>
+      <c r="V98" s="28"/>
+      <c r="W98" s="26"/>
+      <c r="X98" s="26"/>
+      <c r="Y98" s="26"/>
+      <c r="Z98" s="26"/>
+      <c r="AA98" s="26"/>
+      <c r="AB98" s="26"/>
+      <c r="AC98" s="26"/>
+      <c r="AD98" s="26"/>
+      <c r="AE98" s="26"/>
+    </row>
+    <row r="99" spans="1:48" ht="15" thickBot="1">
+      <c r="A99" s="108"/>
+      <c r="B99" s="109"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P98" s="93"/>
-      <c r="Q98" s="94"/>
-      <c r="R98" s="107"/>
-      <c r="S98" s="108"/>
-      <c r="T98" s="109"/>
-      <c r="U98" s="94"/>
-      <c r="V98" s="94"/>
-      <c r="W98" s="94"/>
-      <c r="X98" s="114"/>
-      <c r="Y98" s="115"/>
-      <c r="Z98" s="93"/>
-      <c r="AA98" s="94"/>
-      <c r="AB98" s="94"/>
-      <c r="AC98" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD98" s="93"/>
-      <c r="AE98" s="94"/>
-      <c r="AF98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG98" s="93"/>
-      <c r="AH98" s="94"/>
-      <c r="AI98" s="28"/>
-      <c r="AJ98" s="28"/>
-      <c r="AK98" s="28"/>
-      <c r="AL98" s="28"/>
-      <c r="AM98" s="28"/>
-      <c r="AN98" s="26"/>
-      <c r="AO98" s="26"/>
-      <c r="AP98" s="26"/>
-      <c r="AQ98" s="26"/>
-      <c r="AR98" s="26"/>
-      <c r="AS98" s="26"/>
-      <c r="AT98" s="26"/>
-      <c r="AU98" s="26"/>
-      <c r="AV98" s="26"/>
-    </row>
-    <row r="99" spans="1:48" ht="15" thickBot="1">
-      <c r="A99" s="110"/>
-      <c r="B99" s="111"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="113"/>
-      <c r="F99" s="113"/>
-      <c r="G99" s="95" t="s">
+      <c r="H99" s="117"/>
+      <c r="I99" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J99" s="119"/>
+      <c r="K99" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="96"/>
-      <c r="I99" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J99" s="98"/>
-      <c r="K99" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L99" s="96"/>
-      <c r="M99" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N99" s="98"/>
-      <c r="O99" s="98"/>
-      <c r="P99" s="98"/>
-      <c r="Q99" s="98"/>
-      <c r="R99" s="110"/>
-      <c r="S99" s="111"/>
-      <c r="T99" s="112"/>
-      <c r="U99" s="113"/>
-      <c r="V99" s="113"/>
-      <c r="W99" s="113"/>
-      <c r="X99" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y99" s="96"/>
-      <c r="Z99" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA99" s="98"/>
-      <c r="AB99" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC99" s="96"/>
-      <c r="AD99" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE99" s="98"/>
-      <c r="AF99" s="98"/>
-      <c r="AG99" s="98"/>
-      <c r="AH99" s="98"/>
-      <c r="AI99" s="28"/>
-      <c r="AJ99" s="28"/>
-      <c r="AK99" s="28"/>
-      <c r="AL99" s="28"/>
-      <c r="AM99" s="28"/>
-      <c r="AN99" s="26"/>
-      <c r="AO99" s="26"/>
-      <c r="AP99" s="26"/>
-      <c r="AQ99" s="26"/>
-      <c r="AR99" s="26"/>
-      <c r="AS99" s="26"/>
-      <c r="AT99" s="26"/>
-      <c r="AU99" s="26"/>
-      <c r="AV99" s="26"/>
+      <c r="L99" s="117"/>
+      <c r="M99" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N99" s="119"/>
+      <c r="O99" s="119"/>
+      <c r="P99" s="119"/>
+      <c r="Q99" s="119"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28"/>
+      <c r="T99" s="28"/>
+      <c r="U99" s="28"/>
+      <c r="V99" s="28"/>
+      <c r="W99" s="26"/>
+      <c r="X99" s="26"/>
+      <c r="Y99" s="26"/>
+      <c r="Z99" s="26"/>
+      <c r="AA99" s="26"/>
+      <c r="AB99" s="26"/>
+      <c r="AC99" s="26"/>
+      <c r="AD99" s="26"/>
+      <c r="AE99" s="26"/>
     </row>
     <row r="100" spans="1:48" ht="15" thickTop="1">
       <c r="C100" s="27"/>
@@ -11111,7 +11020,7 @@
     </row>
     <row r="102" spans="1:48">
       <c r="B102" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C102" s="28"/>
       <c r="D102" s="26"/>
@@ -11124,10 +11033,10 @@
     </row>
     <row r="103" spans="1:48">
       <c r="B103" s="27"/>
-      <c r="C103" s="147" t="s">
-        <v>55</v>
-      </c>
-      <c r="D103" s="147"/>
+      <c r="C103" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="160"/>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
       <c r="G103" s="26"/>
@@ -11138,13 +11047,13 @@
     <row r="104" spans="1:48">
       <c r="B104" s="27"/>
       <c r="C104" s="28"/>
-      <c r="D104" s="148" t="s">
-        <v>129</v>
-      </c>
-      <c r="E104" s="148"/>
-      <c r="F104" s="148"/>
-      <c r="G104" s="148"/>
-      <c r="H104" s="148"/>
+      <c r="D104" s="174" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="174"/>
+      <c r="F104" s="174"/>
+      <c r="G104" s="174"/>
+      <c r="H104" s="174"/>
       <c r="I104" s="26"/>
       <c r="J104" s="26"/>
     </row>
@@ -11161,10 +11070,10 @@
     </row>
     <row r="106" spans="1:48">
       <c r="B106" s="27"/>
-      <c r="C106" s="147" t="s">
-        <v>130</v>
-      </c>
-      <c r="D106" s="147"/>
+      <c r="C106" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="160"/>
       <c r="E106" s="26"/>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -11176,7 +11085,7 @@
       <c r="B107" s="27"/>
       <c r="C107" s="28"/>
       <c r="D107" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E107" s="26"/>
       <c r="F107" s="26"/>
@@ -11189,7 +11098,7 @@
       <c r="B108" s="27"/>
       <c r="C108" s="28"/>
       <c r="D108" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E108" s="26"/>
       <c r="F108" s="26"/>
@@ -11212,7 +11121,7 @@
     <row r="110" spans="1:48">
       <c r="B110" s="27"/>
       <c r="C110" s="28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D110" s="37"/>
       <c r="E110" s="26"/>
@@ -11226,7 +11135,7 @@
       <c r="B111" s="27"/>
       <c r="C111" s="28"/>
       <c r="D111" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E111" s="37"/>
       <c r="F111" s="26"/>
@@ -11239,7 +11148,7 @@
       <c r="B112" s="27"/>
       <c r="C112" s="28"/>
       <c r="D112" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E112" s="37"/>
       <c r="F112" s="37"/>
@@ -11261,7 +11170,7 @@
     <row r="114" spans="2:10">
       <c r="B114" s="27"/>
       <c r="C114" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D114" s="37"/>
       <c r="E114" s="37"/>
@@ -11275,7 +11184,7 @@
       <c r="B115" s="27"/>
       <c r="C115" s="28"/>
       <c r="D115" s="37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E115" s="37"/>
       <c r="F115" s="37"/>
@@ -11288,7 +11197,7 @@
       <c r="B116" s="27"/>
       <c r="C116" s="28"/>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E116" s="37"/>
       <c r="F116" s="37"/>
@@ -11311,7 +11220,7 @@
     <row r="118" spans="2:10" ht="15.6" customHeight="1">
       <c r="B118" s="27"/>
       <c r="C118" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D118" s="37"/>
       <c r="E118" s="37"/>
@@ -11325,7 +11234,7 @@
       <c r="B119" s="27"/>
       <c r="C119" s="28"/>
       <c r="D119" s="37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E119" s="37"/>
       <c r="F119" s="37"/>
@@ -11338,7 +11247,7 @@
       <c r="B120" s="27"/>
       <c r="C120" s="28"/>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E120" s="37"/>
       <c r="F120" s="37"/>
@@ -11361,7 +11270,7 @@
     <row r="122" spans="2:10">
       <c r="B122" s="27"/>
       <c r="C122" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D122" s="37"/>
       <c r="E122" s="37"/>
@@ -11375,7 +11284,7 @@
       <c r="B123" s="27"/>
       <c r="C123" s="28"/>
       <c r="D123" s="37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E123" s="37"/>
       <c r="F123" s="37"/>
@@ -11388,7 +11297,7 @@
       <c r="B124" s="27"/>
       <c r="C124" s="28"/>
       <c r="D124" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E124" s="37"/>
       <c r="F124" s="37"/>
@@ -11401,7 +11310,7 @@
       <c r="B125" s="27"/>
       <c r="C125" s="28"/>
       <c r="D125" s="37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E125" s="37"/>
       <c r="F125" s="37"/>
@@ -11424,7 +11333,7 @@
     <row r="127" spans="2:10">
       <c r="B127" s="27"/>
       <c r="C127" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -11438,7 +11347,7 @@
       <c r="B128" s="27"/>
       <c r="C128" s="28"/>
       <c r="D128" s="37" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E128" s="37"/>
       <c r="F128" s="37"/>
@@ -11451,7 +11360,7 @@
       <c r="B129" s="27"/>
       <c r="C129" s="28"/>
       <c r="D129" s="37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E129" s="37"/>
       <c r="F129" s="37"/>
@@ -11464,7 +11373,7 @@
       <c r="B130" s="27"/>
       <c r="C130" s="28"/>
       <c r="D130" s="37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E130" s="37"/>
       <c r="F130" s="37"/>
@@ -11487,7 +11396,7 @@
     <row r="132" spans="2:10">
       <c r="B132" s="27"/>
       <c r="C132" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="37"/>
@@ -11500,7 +11409,7 @@
     <row r="133" spans="2:10">
       <c r="B133" s="27"/>
       <c r="D133" s="37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E133" s="37"/>
       <c r="F133" s="37"/>
@@ -11513,7 +11422,7 @@
       <c r="B134" s="27"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E134" s="26"/>
       <c r="F134" s="26"/>
@@ -11525,7 +11434,7 @@
     <row r="135" spans="2:10">
       <c r="B135" s="27"/>
       <c r="D135" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E135" s="28"/>
       <c r="F135" s="26"/>
@@ -11543,46 +11452,79 @@
       <c r="J138" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="V51:W53"/>
-    <mergeCell ref="X51:Y52"/>
-    <mergeCell ref="AD97:AE97"/>
-    <mergeCell ref="AG97:AH97"/>
-    <mergeCell ref="AD98:AE98"/>
-    <mergeCell ref="AG98:AH98"/>
-    <mergeCell ref="X99:Y99"/>
-    <mergeCell ref="Z99:AA99"/>
-    <mergeCell ref="AB99:AC99"/>
-    <mergeCell ref="AD99:AH99"/>
-    <mergeCell ref="R97:T99"/>
-    <mergeCell ref="U97:U99"/>
-    <mergeCell ref="V97:W99"/>
-    <mergeCell ref="X97:Y98"/>
-    <mergeCell ref="Z97:AB98"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="R51:T53"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="S58:W58"/>
-    <mergeCell ref="T6:U6"/>
+  <mergeCells count="122">
+    <mergeCell ref="V70:Y70"/>
+    <mergeCell ref="Z70:AF70"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="W64:AB64"/>
+    <mergeCell ref="AC64:AF64"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:AB61"/>
+    <mergeCell ref="AC61:AF61"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:AF68"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AF69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="I90:P90"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:Q99"/>
+    <mergeCell ref="A97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:F99"/>
+    <mergeCell ref="G97:H98"/>
+    <mergeCell ref="I97:K98"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="I87:P87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I88:P88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="I86:P86"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:P89"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AB2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="S71:U71"/>
     <mergeCell ref="V71:Y71"/>
     <mergeCell ref="Z71:AF71"/>
@@ -11607,78 +11549,32 @@
     <mergeCell ref="AC63:AF63"/>
     <mergeCell ref="Z51:AB52"/>
     <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AB2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="I87:P87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="I88:P88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="I86:P86"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="I89:P89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="I90:P90"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:Q99"/>
-    <mergeCell ref="A97:C99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:F99"/>
-    <mergeCell ref="G97:H98"/>
-    <mergeCell ref="I97:K98"/>
-    <mergeCell ref="V70:Y70"/>
-    <mergeCell ref="Z70:AF70"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="W64:AB64"/>
-    <mergeCell ref="AC64:AF64"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:AB61"/>
-    <mergeCell ref="AC61:AF61"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:AF68"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AF69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="R51:T53"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="S58:W58"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="V51:W53"/>
+    <mergeCell ref="X51:Y52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" location="'Xử lý (10).1'!A1" display="Xem chi tiết " xr:uid="{F8C47B94-2CD8-4C05-9705-EC88E22F58CF}"/>
@@ -11708,7 +11604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9091FF9B-FBE0-4DC9-A9D5-2604410D04D1}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -11717,111 +11613,111 @@
     <col min="9" max="9" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.77734375" customWidth="1"/>
     <col min="12" max="12" width="12.21875" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="94" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="N1" s="121"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="149">
+      <c r="P1" s="152">
         <v>45270</v>
       </c>
-      <c r="Q1" s="94"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="115"/>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="7" spans="1:17">
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="B8" s="142" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
+      <c r="B8" s="177" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -11838,43 +11734,43 @@
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="169" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="169"/>
+        <v>22</v>
+      </c>
+      <c r="C10" s="183" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="183"/>
       <c r="L10" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="169" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="169"/>
-      <c r="O10" s="169"/>
+        <v>57</v>
+      </c>
+      <c r="M10" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="9">
         <v>1</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="80"/>
       <c r="E11" s="62"/>
       <c r="F11" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="80"/>
@@ -11882,7 +11778,7 @@
       <c r="J11" s="82"/>
       <c r="K11" s="62"/>
       <c r="L11" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M11" s="82"/>
       <c r="N11" s="80"/>
@@ -11893,12 +11789,12 @@
         <v>2</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="80"/>
       <c r="E12" s="62"/>
       <c r="F12" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G12" s="80"/>
       <c r="H12" s="80"/>
@@ -11906,7 +11802,7 @@
       <c r="J12" s="82"/>
       <c r="K12" s="62"/>
       <c r="L12" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M12" s="82"/>
       <c r="N12" s="80"/>
@@ -11917,12 +11813,12 @@
         <v>3</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="62"/>
       <c r="F13" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G13" s="80"/>
       <c r="H13" s="80"/>
@@ -11930,7 +11826,7 @@
       <c r="J13" s="82"/>
       <c r="K13" s="62"/>
       <c r="L13" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M13" s="82"/>
       <c r="N13" s="80"/>
@@ -11941,12 +11837,12 @@
         <v>4</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="80"/>
       <c r="E14" s="62"/>
       <c r="F14" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="80"/>
@@ -11954,7 +11850,7 @@
       <c r="J14" s="82"/>
       <c r="K14" s="62"/>
       <c r="L14" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M14" s="82"/>
       <c r="N14" s="80"/>
@@ -11965,12 +11861,12 @@
         <v>5</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D15" s="80"/>
       <c r="E15" s="62"/>
       <c r="F15" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
@@ -11978,7 +11874,7 @@
       <c r="J15" s="82"/>
       <c r="K15" s="62"/>
       <c r="L15" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M15" s="82"/>
       <c r="N15" s="80"/>
@@ -11989,12 +11885,12 @@
         <v>6</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D16" s="80"/>
       <c r="E16" s="62"/>
       <c r="F16" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
@@ -12002,7 +11898,7 @@
       <c r="J16" s="82"/>
       <c r="K16" s="62"/>
       <c r="L16" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M16" s="82"/>
       <c r="N16" s="80"/>
@@ -12013,12 +11909,12 @@
         <v>7</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D17" s="80"/>
       <c r="E17" s="62"/>
       <c r="F17" s="53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G17" s="80"/>
       <c r="H17" s="80"/>
@@ -12026,7 +11922,7 @@
       <c r="J17" s="82"/>
       <c r="K17" s="62"/>
       <c r="L17" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M17" s="82"/>
       <c r="N17" s="80"/>
@@ -12037,12 +11933,12 @@
         <v>8</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" s="80"/>
       <c r="E18" s="62"/>
       <c r="F18" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G18" s="80"/>
       <c r="H18" s="80"/>
@@ -12050,7 +11946,7 @@
       <c r="J18" s="82"/>
       <c r="K18" s="62"/>
       <c r="L18" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M18" s="82"/>
       <c r="N18" s="80"/>
@@ -12061,12 +11957,12 @@
         <v>9</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D19" s="80"/>
       <c r="E19" s="62"/>
       <c r="F19" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G19" s="80"/>
       <c r="H19" s="80"/>
@@ -12074,7 +11970,7 @@
       <c r="J19" s="82"/>
       <c r="K19" s="62"/>
       <c r="L19" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M19" s="82"/>
       <c r="N19" s="80"/>
@@ -12085,12 +11981,12 @@
         <v>10</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="62"/>
       <c r="F20" s="53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G20" s="80"/>
       <c r="H20" s="80"/>
@@ -12098,7 +11994,7 @@
       <c r="J20" s="82"/>
       <c r="K20" s="62"/>
       <c r="L20" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M20" s="82"/>
       <c r="N20" s="80"/>
@@ -12109,12 +12005,12 @@
         <v>11</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="62"/>
       <c r="F21" s="53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G21" s="80"/>
       <c r="H21" s="80"/>
@@ -12122,7 +12018,7 @@
       <c r="J21" s="82"/>
       <c r="K21" s="62"/>
       <c r="L21" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" s="82"/>
       <c r="N21" s="80"/>
@@ -12133,12 +12029,12 @@
         <v>12</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="62"/>
       <c r="F22" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G22" s="80"/>
       <c r="H22" s="80"/>
@@ -12146,7 +12042,7 @@
       <c r="J22" s="82"/>
       <c r="K22" s="62"/>
       <c r="L22" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M22" s="82"/>
       <c r="N22" s="80"/>
@@ -12157,12 +12053,12 @@
         <v>13</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="63"/>
       <c r="F23" s="48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G23" s="81"/>
       <c r="H23" s="81"/>
@@ -12170,7 +12066,7 @@
       <c r="J23" s="83"/>
       <c r="K23" s="63"/>
       <c r="L23" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M23" s="83"/>
       <c r="N23" s="81"/>
@@ -12183,21 +12079,21 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="25"/>
       <c r="F25" s="25"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C26" s="25"/>
       <c r="F26" s="25"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C27" s="25"/>
       <c r="F27" s="25"/>
@@ -12210,104 +12106,104 @@
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="169" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="169" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="169"/>
+        <v>22</v>
+      </c>
+      <c r="C30" s="183" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="183"/>
       <c r="L30" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="169" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="169"/>
-      <c r="O30" s="169"/>
+        <v>57</v>
+      </c>
+      <c r="M30" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="9">
         <v>1</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="80"/>
       <c r="E31" s="62"/>
-      <c r="F31" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="129"/>
+      <c r="F31" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="132"/>
       <c r="L31" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M31" s="87"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="89"/>
+        <v>59</v>
+      </c>
+      <c r="M31" s="145"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="147"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="9">
         <v>2</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D32" s="80"/>
       <c r="E32" s="62"/>
-      <c r="F32" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="K32" s="129"/>
+      <c r="F32" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="132"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="89"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="147"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="9">
         <v>3</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="55"/>
       <c r="E33" s="54"/>
       <c r="F33" s="53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G33" s="55"/>
       <c r="H33" s="55"/>
       <c r="I33" s="54"/>
       <c r="J33" s="53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K33" s="54"/>
       <c r="L33" s="10"/>
@@ -12320,18 +12216,18 @@
         <v>4</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="54"/>
       <c r="F34" s="53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G34" s="55"/>
       <c r="H34" s="55"/>
       <c r="I34" s="54"/>
       <c r="J34" s="53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K34" s="54"/>
       <c r="L34" s="10"/>
@@ -12344,18 +12240,18 @@
         <v>5</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="54"/>
       <c r="F35" s="53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G35" s="55"/>
       <c r="H35" s="55"/>
       <c r="I35" s="54"/>
       <c r="J35" s="53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K35" s="54"/>
       <c r="L35" s="10"/>
@@ -12368,18 +12264,18 @@
         <v>6</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="54"/>
       <c r="F36" s="53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="I36" s="54"/>
       <c r="J36" s="53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K36" s="54"/>
       <c r="L36" s="10"/>
@@ -12392,18 +12288,18 @@
         <v>7</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="54"/>
       <c r="F37" s="53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="54"/>
       <c r="J37" s="53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K37" s="54"/>
       <c r="L37" s="10"/>
@@ -12416,18 +12312,18 @@
         <v>8</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="54"/>
       <c r="F38" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G38" s="55"/>
       <c r="H38" s="55"/>
       <c r="I38" s="54"/>
       <c r="J38" s="53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K38" s="54"/>
       <c r="L38" s="10"/>
@@ -12440,18 +12336,18 @@
         <v>9</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="50"/>
       <c r="F39" s="48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="49"/>
       <c r="I39" s="50"/>
       <c r="J39" s="48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K39" s="50"/>
       <c r="L39" s="12"/>
@@ -12476,160 +12372,147 @@
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="168" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="168"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="168" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="168"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="168"/>
-      <c r="J43" s="168" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" s="168"/>
+        <v>22</v>
+      </c>
+      <c r="C43" s="182" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="182"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="182" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="182"/>
       <c r="L43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M43" s="168" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="168"/>
-      <c r="O43" s="168"/>
+        <v>57</v>
+      </c>
+      <c r="M43" s="182" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="182"/>
+      <c r="O43" s="182"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="7">
         <v>1</v>
       </c>
       <c r="C44" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D44" s="85"/>
       <c r="E44" s="78"/>
-      <c r="F44" s="131" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="131"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="131"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="131"/>
+      <c r="F44" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
       <c r="L44" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M44" s="131"/>
-      <c r="N44" s="131"/>
-      <c r="O44" s="131"/>
+        <v>59</v>
+      </c>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="9">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D45" s="80"/>
       <c r="E45" s="62"/>
-      <c r="F45" s="127" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
+      <c r="F45" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="130"/>
       <c r="L45" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="M45" s="127"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="127"/>
+        <v>59</v>
+      </c>
+      <c r="M45" s="130"/>
+      <c r="N45" s="130"/>
+      <c r="O45" s="130"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="9">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D46" s="80"/>
       <c r="E46" s="62"/>
-      <c r="F46" s="127" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="127"/>
+      <c r="F46" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
       <c r="L46" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="M46" s="127"/>
-      <c r="N46" s="127"/>
-      <c r="O46" s="127"/>
+        <v>59</v>
+      </c>
+      <c r="M46" s="130"/>
+      <c r="N46" s="130"/>
+      <c r="O46" s="130"/>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="11">
         <v>4</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D47" s="81"/>
       <c r="E47" s="63"/>
-      <c r="F47" s="145" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="145"/>
+      <c r="F47" s="173" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="173"/>
+      <c r="H47" s="173"/>
+      <c r="I47" s="173"/>
+      <c r="J47" s="173"/>
+      <c r="K47" s="173"/>
       <c r="L47" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="M47" s="145"/>
-      <c r="N47" s="145"/>
-      <c r="O47" s="145"/>
+        <v>59</v>
+      </c>
+      <c r="M47" s="173"/>
+      <c r="N47" s="173"/>
+      <c r="O47" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:O30"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="M32:O32"/>
@@ -12637,152 +12520,18 @@
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="M43:O43"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="M10:O10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CB065D-DB58-4FFC-80E4-E981144F9F60}">
-  <dimension ref="A1:Q25"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="149">
-        <v>45270</v>
-      </c>
-      <c r="Q1" s="94"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1"/>
-    <row r="5" spans="1:17">
-      <c r="C5" s="27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="D6" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="D7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="D8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7">
-      <c r="G23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7">
-      <c r="D25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:O47"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -12798,7 +12547,158 @@
     <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CB065D-DB58-4FFC-80E4-E981144F9F60}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="111"/>
+      <c r="G1" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="121"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="152">
+        <v>45270</v>
+      </c>
+      <c r="Q1" s="111"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1"/>
+    <row r="5" spans="1:17">
+      <c r="C5" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="D6" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="G23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -12812,130 +12712,139 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="94" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="N1" s="121"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="149">
+      <c r="P1" s="152">
         <v>45270</v>
       </c>
-      <c r="Q1" s="94"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="115"/>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="5" spans="1:17">
       <c r="B5" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="G25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="F32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -12944,14 +12853,9 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -12965,130 +12869,139 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="94" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="N1" s="121"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="149">
+      <c r="P1" s="152">
         <v>45270</v>
       </c>
-      <c r="Q1" s="94"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="115"/>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="5" spans="1:17">
       <c r="B5" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="F17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="F27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13097,14 +13010,9 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13118,130 +13026,139 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="94" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="N1" s="121"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="149">
+      <c r="P1" s="152">
         <v>45270</v>
       </c>
-      <c r="Q1" s="94"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="115"/>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="6" spans="1:17">
       <c r="C6" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="D7" s="28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="D8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="D9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="F19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="F27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13250,14 +13167,9 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13271,135 +13183,144 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="94" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="N1" s="121"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="149">
+      <c r="P1" s="152">
         <v>45270</v>
       </c>
-      <c r="Q1" s="94"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="115"/>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="5" spans="1:17">
       <c r="C5" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="D6" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="D7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="D8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="4:5">
       <c r="E21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="4:5">
       <c r="D22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="4:5">
       <c r="E23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13408,14 +13329,9 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13424,140 +13340,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138DBA9-1117-47A5-872E-1DCD1F86DF9B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="94" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="N1" s="121"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="149">
+      <c r="P1" s="152">
         <v>45270</v>
       </c>
-      <c r="Q1" s="94"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="115"/>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="6" spans="1:17">
       <c r="B6" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="C9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="D22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="D24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13566,13 +13491,9 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FileBaoCao/PhacThao_ThemSanPham.xlsx
+++ b/FileBaoCao/PhacThao_ThemSanPham.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCHOOL\NAM5-HK1\PTTKDBCL-KTLTHDT\Electronic_Components_Website\FileBaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107A71F0-1D4E-4295-89BE-897CC94A8914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CFD52-65B8-4AB0-9DD0-83498B8156ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1322EDAB-4D4E-45D7-90B1-7A244F65E19A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{1322EDAB-4D4E-45D7-90B1-7A244F65E19A}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="235">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -230,12 +230,6 @@
     <t>Có thể</t>
   </si>
   <si>
-    <t xml:space="preserve">     2. Xử lý check</t>
-  </si>
-  <si>
-    <t>a) Check hạng mục</t>
-  </si>
-  <si>
     <t>Nội dung check</t>
   </si>
   <si>
@@ -270,36 +264,6 @@
   </si>
   <si>
     <t>-Người sử dụng tìm và lựa chọn sản phẩm phù hợp với nhu cầu của họ</t>
-  </si>
-  <si>
-    <t>(2) Xử lý sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1. Nhấn nút tìm kiếm thì thực hiện xử lý </t>
-  </si>
-  <si>
-    <t>3. Xử lý tìm kiếm sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Product.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PriceList.price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ImageProduct.URL</t>
-  </si>
-  <si>
-    <t>= Product.id = ImageProduct.idProduct</t>
-  </si>
-  <si>
-    <t>List[ImageProduct]</t>
-  </si>
-  <si>
-    <t>List[PriceList]</t>
-  </si>
-  <si>
-    <t>= Product.id = PriceList.idProduct</t>
   </si>
   <si>
     <t>Table quản lý nhà cung cấp</t>
@@ -763,13 +727,40 @@
   </si>
   <si>
     <t>Website bán linh kiện điện tử</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm không được để trống !</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn loại danh mục sản phẩm !</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn nhà cung cấp sản phẩm !</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn thuế sản phẩm !</t>
+  </si>
+  <si>
+    <t>Phần mô tả không được để trống !</t>
+  </si>
+  <si>
+    <t>Tính năng không được để trống !</t>
+  </si>
+  <si>
+    <t>Vui lòng thêm giá sản phẩm !</t>
+  </si>
+  <si>
+    <t>Vui lòng thêm thông số kỹ thuật cho sản phẩm !</t>
+  </si>
+  <si>
+    <t>Vui lòng thêm ảnh cho sản phẩm !</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,6 +845,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1416,7 +1413,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1495,15 +1492,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1648,254 +1636,236 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,20 +1898,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5767,7 +5725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A29B08-ADB8-429A-A960-927664422512}">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T94" sqref="T94"/>
     </sheetView>
   </sheetViews>
@@ -5782,168 +5740,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="111" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="115" t="s">
+      <c r="P1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="111" t="s">
+      <c r="Q1" s="105"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="111" t="s">
+      <c r="V1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="111"/>
-      <c r="X1" s="113" t="s">
+      <c r="W1" s="105"/>
+      <c r="X1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
       <c r="AC1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="120" t="s">
+      <c r="AD1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="121"/>
+      <c r="AE1" s="113"/>
       <c r="AF1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="115" t="s">
+      <c r="AG1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="111"/>
+      <c r="AH1" s="105"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
       <c r="AC2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="111"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="105"/>
       <c r="AF2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="111"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="105"/>
     </row>
     <row r="3" spans="1:34" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="116" t="s">
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="116" t="s">
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
     </row>
     <row r="4" spans="1:34" ht="15" thickTop="1"/>
     <row r="5" spans="1:34">
@@ -5961,20 +5919,20 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:34" ht="21">
-      <c r="H14" s="128" t="s">
+      <c r="H14" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
     </row>
     <row r="17" spans="7:33" ht="21">
-      <c r="I17" s="129" t="s">
+      <c r="I17" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
     </row>
     <row r="22" spans="7:33">
       <c r="G22" t="s">
@@ -6002,31 +5960,31 @@
       <c r="K24" t="s">
         <v>21</v>
       </c>
-      <c r="S24" s="52" t="s">
+      <c r="S24" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="T24" s="52" t="s">
+      <c r="T24" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="125" t="s">
+      <c r="U24" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="52" t="s">
+      <c r="V24" s="146"/>
+      <c r="W24" s="146"/>
+      <c r="X24" s="146"/>
+      <c r="Y24" s="146"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AB24" s="123" t="s">
+      <c r="AB24" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="AC24" s="123"/>
-      <c r="AD24" s="123"/>
-      <c r="AE24" s="123"/>
-      <c r="AF24" s="123"/>
-      <c r="AG24" s="123"/>
+      <c r="AC24" s="143"/>
+      <c r="AD24" s="143"/>
+      <c r="AE24" s="143"/>
+      <c r="AF24" s="143"/>
+      <c r="AG24" s="143"/>
     </row>
     <row r="25" spans="7:33">
       <c r="G25" t="s">
@@ -6042,24 +6000,24 @@
         <v>29</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="V25" s="8"/>
-      <c r="W25" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
+      <c r="W25" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="142"/>
+      <c r="Z25" s="142"/>
       <c r="AA25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
+      <c r="AB25" s="144"/>
+      <c r="AC25" s="144"/>
+      <c r="AD25" s="144"/>
+      <c r="AE25" s="144"/>
+      <c r="AF25" s="144"/>
+      <c r="AG25" s="144"/>
     </row>
     <row r="26" spans="7:33">
       <c r="G26" t="s">
@@ -6072,11 +6030,11 @@
         <v>29</v>
       </c>
       <c r="U26" s="35" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="V26" s="35"/>
       <c r="W26" s="10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
@@ -6084,12 +6042,12 @@
       <c r="AA26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="101"/>
-      <c r="AD26" s="101"/>
-      <c r="AE26" s="101"/>
-      <c r="AF26" s="101"/>
-      <c r="AG26" s="101"/>
+      <c r="AB26" s="148"/>
+      <c r="AC26" s="148"/>
+      <c r="AD26" s="148"/>
+      <c r="AE26" s="148"/>
+      <c r="AF26" s="148"/>
+      <c r="AG26" s="148"/>
     </row>
     <row r="27" spans="7:33">
       <c r="G27" t="s">
@@ -6101,12 +6059,12 @@
       <c r="T27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="U27" s="131" t="s">
-        <v>90</v>
-      </c>
-      <c r="V27" s="132"/>
+      <c r="U27" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" s="140"/>
       <c r="W27" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
@@ -6114,12 +6072,12 @@
       <c r="AA27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="101"/>
-      <c r="AE27" s="101"/>
-      <c r="AF27" s="101"/>
-      <c r="AG27" s="101"/>
+      <c r="AB27" s="148"/>
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="148"/>
+      <c r="AF27" s="148"/>
+      <c r="AG27" s="148"/>
     </row>
     <row r="28" spans="7:33">
       <c r="S28" s="9">
@@ -6128,25 +6086,25 @@
       <c r="T28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="U28" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="V28" s="130"/>
-      <c r="W28" s="131" t="s">
-        <v>91</v>
-      </c>
-      <c r="X28" s="133"/>
-      <c r="Y28" s="133"/>
-      <c r="Z28" s="132"/>
+      <c r="U28" s="138" t="s">
+        <v>65</v>
+      </c>
+      <c r="V28" s="138"/>
+      <c r="W28" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="X28" s="141"/>
+      <c r="Y28" s="141"/>
+      <c r="Z28" s="140"/>
       <c r="AA28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="101"/>
-      <c r="AD28" s="101"/>
-      <c r="AE28" s="101"/>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="101"/>
+        <v>73</v>
+      </c>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="148"/>
+      <c r="AG28" s="148"/>
     </row>
     <row r="29" spans="7:33">
       <c r="S29" s="9">
@@ -6155,25 +6113,25 @@
       <c r="T29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="U29" s="130" t="s">
+      <c r="U29" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="V29" s="138"/>
+      <c r="W29" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="130"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="138"/>
       <c r="AA29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="101"/>
-      <c r="AG29" s="101"/>
+        <v>73</v>
+      </c>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="148"/>
     </row>
     <row r="30" spans="7:33">
       <c r="S30" s="9">
@@ -6182,25 +6140,25 @@
       <c r="T30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="U30" s="130" t="s">
+      <c r="U30" s="138" t="s">
+        <v>67</v>
+      </c>
+      <c r="V30" s="138"/>
+      <c r="W30" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
+      <c r="X30" s="138"/>
+      <c r="Y30" s="138"/>
+      <c r="Z30" s="138"/>
       <c r="AA30" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB30" s="145"/>
-      <c r="AC30" s="146"/>
-      <c r="AD30" s="146"/>
-      <c r="AE30" s="146"/>
-      <c r="AF30" s="146"/>
-      <c r="AG30" s="147"/>
+        <v>73</v>
+      </c>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="99"/>
+      <c r="AD30" s="99"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="99"/>
+      <c r="AG30" s="100"/>
     </row>
     <row r="31" spans="7:33">
       <c r="S31" s="11">
@@ -6210,109 +6168,109 @@
         <v>29</v>
       </c>
       <c r="U31" s="36" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="V31" s="36"/>
       <c r="W31" s="12" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="149"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="149"/>
-      <c r="AG31" s="150"/>
+        <v>73</v>
+      </c>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="102"/>
+      <c r="AG31" s="103"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="102"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="111" t="s">
+      <c r="A33" s="115"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="111" t="s">
+      <c r="E33" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="111"/>
-      <c r="G33" s="113" t="s">
+      <c r="F33" s="105"/>
+      <c r="G33" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="114"/>
-      <c r="I33" s="115" t="s">
-        <v>237</v>
-      </c>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
       <c r="L33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="120" t="s">
+      <c r="M33" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="121"/>
+      <c r="N33" s="113"/>
       <c r="O33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="115" t="s">
+      <c r="P33" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="Q33" s="111"/>
+      <c r="Q33" s="105"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="105"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
       <c r="L34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="115"/>
-      <c r="N34" s="111"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="105"/>
       <c r="O34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="111"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="105"/>
     </row>
     <row r="35" spans="1:17" ht="15" thickBot="1">
-      <c r="A35" s="108"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="116" t="s">
+      <c r="A35" s="121"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="117"/>
-      <c r="I35" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J35" s="119"/>
-      <c r="K35" s="116" t="s">
+      <c r="H35" s="107"/>
+      <c r="I35" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" s="109"/>
+      <c r="K35" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="117"/>
-      <c r="M35" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
     </row>
     <row r="36" spans="1:17" ht="15" thickTop="1"/>
     <row r="38" spans="1:17">
@@ -6321,42 +6279,42 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134" t="s">
+      <c r="D40" s="133"/>
+      <c r="E40" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134" t="s">
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="134"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
-      <c r="O40" s="151"/>
-      <c r="P40" s="151"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="135"/>
+      <c r="N40" s="135"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="114"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
       <c r="M41" s="13" t="s">
         <v>35</v>
       </c>
@@ -6371,46 +6329,46 @@
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="B42" s="137">
+      <c r="B42" s="127">
         <v>1</v>
       </c>
-      <c r="C42" s="137" t="s">
+      <c r="C42" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="137"/>
-      <c r="E42" s="139" t="s">
+      <c r="D42" s="127"/>
+      <c r="E42" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="141" t="s">
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
+      <c r="K42" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="141"/>
-      <c r="M42" s="143"/>
-      <c r="N42" s="143"/>
-      <c r="O42" s="143"/>
-      <c r="P42" s="143"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="110"/>
+      <c r="P42" s="110"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="144"/>
-      <c r="O43" s="144"/>
-      <c r="P43" s="144"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
     </row>
     <row r="44" spans="1:17">
       <c r="B44" s="14"/>
@@ -6785,89 +6743,89 @@
       <c r="P71" s="20"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="102"/>
-      <c r="B74" s="103"/>
-      <c r="C74" s="104"/>
-      <c r="D74" s="111" t="s">
+      <c r="A74" s="115"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="117"/>
+      <c r="D74" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="111" t="s">
+      <c r="E74" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F74" s="111"/>
-      <c r="G74" s="113" t="s">
+      <c r="F74" s="105"/>
+      <c r="G74" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="114"/>
-      <c r="I74" s="115" t="s">
-        <v>237</v>
-      </c>
-      <c r="J74" s="111"/>
-      <c r="K74" s="111"/>
+      <c r="H74" s="126"/>
+      <c r="I74" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
       <c r="L74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M74" s="120" t="s">
+      <c r="M74" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N74" s="121"/>
+      <c r="N74" s="113"/>
       <c r="O74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P74" s="115" t="s">
+      <c r="P74" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="Q74" s="111"/>
+      <c r="Q74" s="105"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="105"/>
-      <c r="B75" s="106"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="111"/>
-      <c r="F75" s="111"/>
-      <c r="G75" s="113"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="115"/>
-      <c r="J75" s="111"/>
-      <c r="K75" s="111"/>
+      <c r="A75" s="118"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="126"/>
+      <c r="I75" s="104"/>
+      <c r="J75" s="105"/>
+      <c r="K75" s="105"/>
       <c r="L75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M75" s="115"/>
-      <c r="N75" s="111"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="105"/>
       <c r="O75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P75" s="115"/>
-      <c r="Q75" s="111"/>
+      <c r="P75" s="104"/>
+      <c r="Q75" s="105"/>
     </row>
     <row r="76" spans="1:17" ht="15" thickBot="1">
-      <c r="A76" s="108"/>
-      <c r="B76" s="109"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="112"/>
-      <c r="E76" s="112"/>
-      <c r="F76" s="112"/>
-      <c r="G76" s="116" t="s">
+      <c r="A76" s="121"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="124"/>
+      <c r="G76" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H76" s="117"/>
-      <c r="I76" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J76" s="119"/>
-      <c r="K76" s="116" t="s">
+      <c r="H76" s="107"/>
+      <c r="I76" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J76" s="109"/>
+      <c r="K76" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L76" s="117"/>
-      <c r="M76" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N76" s="119"/>
-      <c r="O76" s="119"/>
-      <c r="P76" s="119"/>
-      <c r="Q76" s="119"/>
+      <c r="L76" s="107"/>
+      <c r="M76" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N76" s="109"/>
+      <c r="O76" s="109"/>
+      <c r="P76" s="109"/>
+      <c r="Q76" s="109"/>
     </row>
     <row r="77" spans="1:17" ht="15" thickTop="1"/>
     <row r="78" spans="1:17">
@@ -6877,12 +6835,12 @@
     </row>
     <row r="79" spans="1:17">
       <c r="B79" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="B80" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="2:2">
@@ -6930,6 +6888,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AB27:AG27"/>
+    <mergeCell ref="AB28:AG28"/>
+    <mergeCell ref="AB29:AG29"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="U24:Z24"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="Z1:AB2"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:F35"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:K34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:J41"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:J43"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="A74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:F76"/>
+    <mergeCell ref="G74:H75"/>
+    <mergeCell ref="I74:K75"/>
     <mergeCell ref="AB30:AG30"/>
     <mergeCell ref="AB31:AG31"/>
     <mergeCell ref="P75:Q75"/>
@@ -6946,75 +6973,6 @@
     <mergeCell ref="O40:P40"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="M34:N34"/>
-    <mergeCell ref="A74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:F76"/>
-    <mergeCell ref="G74:H75"/>
-    <mergeCell ref="I74:K75"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:J43"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:J41"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:F35"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:K34"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="U24:Z24"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="Z1:AB2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AB27:AG27"/>
-    <mergeCell ref="AB28:AG28"/>
-    <mergeCell ref="AB29:AG29"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
@@ -7033,8 +6991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432231C-70A8-47A4-9396-36BE7DDFACDA}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7044,674 +7002,709 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="111" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="152">
+      <c r="P1" s="156">
         <v>45270</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="111"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="6" spans="1:17">
       <c r="B6" s="27" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="C9" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="C11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="178" t="s">
+      <c r="D11" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="195" t="s">
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="171" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="171" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="172"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="173"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="C12" s="83">
+        <v>1</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="185" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="C13" s="83">
+        <v>2</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="185" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="C14" s="83">
+        <v>3</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="185" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="C15" s="83">
+        <v>4</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="77"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" s="83">
+        <v>5</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="77"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="185" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="83">
+        <v>6</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18" s="83">
+        <v>7</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="77"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="185" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" s="83">
+        <v>8</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="77"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20" s="89">
+        <v>9</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="195" t="s">
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
-      <c r="O11" s="196"/>
-      <c r="P11" s="197"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="C12" s="86">
-        <v>1</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="82" t="s">
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="174"/>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="C25" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="177"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="59"/>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="59"/>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="59"/>
+    </row>
+    <row r="28" spans="3:17">
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="59"/>
+    </row>
+    <row r="29" spans="3:17">
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="59"/>
+    </row>
+    <row r="30" spans="3:17">
+      <c r="C30" s="179"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="59"/>
+    </row>
+    <row r="31" spans="3:17">
+      <c r="C31" s="179"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="59"/>
+    </row>
+    <row r="32" spans="3:17">
+      <c r="C32" s="179"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="59"/>
+    </row>
+    <row r="33" spans="3:16">
+      <c r="C33" s="179"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="59"/>
+    </row>
+    <row r="34" spans="3:16">
+      <c r="C34" s="182"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="60"/>
+    </row>
+    <row r="37" spans="3:16">
+      <c r="C37" s="97" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16">
+      <c r="C38" s="97"/>
+    </row>
+    <row r="40" spans="3:16">
+      <c r="C40" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90" t="s">
+    </row>
+    <row r="41" spans="3:16">
+      <c r="C41" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="62"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="C13" s="86">
-        <v>2</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90" t="s">
+    </row>
+    <row r="43" spans="3:16">
+      <c r="C43" s="168" t="s">
         <v>206</v>
       </c>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="62"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="C14" s="86">
-        <v>3</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90" t="s">
+      <c r="D43" s="168"/>
+      <c r="E43" s="168" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="168" t="s">
+        <v>61</v>
+      </c>
+      <c r="N43" s="168"/>
+      <c r="O43" s="168"/>
+      <c r="P43" s="168"/>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="C44" s="170" t="s">
         <v>208</v>
       </c>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="62"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="C15" s="86">
-        <v>4</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="90" t="s">
+      <c r="D44" s="170"/>
+      <c r="E44" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="N44" s="91"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="92"/>
+    </row>
+    <row r="45" spans="3:16">
+      <c r="C45" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="62"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="C16" s="86">
-        <v>5</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="62"/>
-    </row>
-    <row r="17" spans="3:16">
-      <c r="C17" s="86">
-        <v>6</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="90" t="s">
-        <v>210</v>
-      </c>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="62"/>
-    </row>
-    <row r="18" spans="3:16">
-      <c r="C18" s="86">
-        <v>7</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="90" t="s">
+      <c r="D45" s="175"/>
+      <c r="E45" s="152" t="s">
         <v>211</v>
       </c>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="62"/>
-    </row>
-    <row r="19" spans="3:16">
-      <c r="C19" s="86">
-        <v>8</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="90" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="62"/>
-    </row>
-    <row r="20" spans="3:16">
-      <c r="C20" s="92">
-        <v>9</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="99" t="s">
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="63"/>
-    </row>
-    <row r="22" spans="3:16">
-      <c r="C22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16">
-      <c r="C23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16">
-      <c r="C24" s="198" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="198"/>
-      <c r="P24" s="198"/>
-    </row>
-    <row r="25" spans="3:16">
-      <c r="C25" s="185" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="186"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="62"/>
-    </row>
-    <row r="26" spans="3:16">
-      <c r="C26" s="188"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="82" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="62"/>
-    </row>
-    <row r="27" spans="3:16">
-      <c r="C27" s="188"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="82" t="s">
-        <v>228</v>
-      </c>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="62"/>
-    </row>
-    <row r="28" spans="3:16">
-      <c r="C28" s="188"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="82" t="s">
-        <v>229</v>
-      </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="62"/>
-    </row>
-    <row r="29" spans="3:16">
-      <c r="C29" s="188"/>
-      <c r="D29" s="189"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="62"/>
-    </row>
-    <row r="30" spans="3:16">
-      <c r="C30" s="188"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="82" t="s">
-        <v>231</v>
-      </c>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="62"/>
-    </row>
-    <row r="31" spans="3:16">
-      <c r="C31" s="188"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="82" t="s">
-        <v>235</v>
-      </c>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="62"/>
-    </row>
-    <row r="32" spans="3:16">
-      <c r="C32" s="188"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="62"/>
-    </row>
-    <row r="33" spans="3:16">
-      <c r="C33" s="188"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="62"/>
-    </row>
-    <row r="34" spans="3:16">
-      <c r="C34" s="191"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="63"/>
-    </row>
-    <row r="37" spans="3:16">
-      <c r="C37" s="100" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16">
-      <c r="C38" s="100"/>
-    </row>
-    <row r="40" spans="3:16">
-      <c r="C40" s="93" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="3:16">
-      <c r="C41" s="93" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="3:16">
-      <c r="C43" s="183" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="183"/>
-      <c r="E43" s="183" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" s="183"/>
-      <c r="G43" s="183"/>
-      <c r="H43" s="183"/>
-      <c r="I43" s="183"/>
-      <c r="J43" s="183"/>
-      <c r="K43" s="183"/>
-      <c r="L43" s="183"/>
-      <c r="M43" s="183" t="s">
-        <v>63</v>
-      </c>
-      <c r="N43" s="183"/>
-      <c r="O43" s="183"/>
-      <c r="P43" s="183"/>
-    </row>
-    <row r="44" spans="3:16">
-      <c r="C44" s="194" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44" s="194"/>
-      <c r="E44" s="130" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="98" t="s">
-        <v>224</v>
-      </c>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="95"/>
-    </row>
-    <row r="45" spans="3:16">
-      <c r="C45" s="184" t="s">
-        <v>221</v>
-      </c>
-      <c r="D45" s="184"/>
-      <c r="E45" s="173" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" s="173"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="173"/>
-      <c r="L45" s="173"/>
-      <c r="M45" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="97"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:L45"/>
+    <mergeCell ref="C25:E34"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:L44"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:P24"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -7720,19 +7713,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:L44"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:P24"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:L45"/>
-    <mergeCell ref="C25:E34"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
@@ -7743,8 +7728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3E047E-ACF9-47F2-9BD3-B296B0586256}">
   <dimension ref="A1:AX138"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A92" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99:Q99"/>
+    <sheetView view="pageBreakPreview" topLeftCell="K50" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7760,168 +7745,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="111" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="152">
+      <c r="P1" s="156">
         <v>45270</v>
       </c>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="111" t="s">
+      <c r="Q1" s="105"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="111" t="s">
+      <c r="V1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="111"/>
-      <c r="X1" s="113" t="s">
+      <c r="W1" s="105"/>
+      <c r="X1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
       <c r="AC1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="120" t="s">
+      <c r="AD1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="121"/>
+      <c r="AE1" s="113"/>
       <c r="AF1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="152">
+      <c r="AG1" s="156">
         <v>45270</v>
       </c>
-      <c r="AH1" s="111"/>
+      <c r="AH1" s="105"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
       <c r="AC2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="111"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="105"/>
       <c r="AF2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="111"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="105"/>
     </row>
     <row r="3" spans="1:34" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="116" t="s">
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="116" t="s">
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
     </row>
     <row r="4" spans="1:34" ht="15" thickTop="1"/>
     <row r="5" spans="1:34">
@@ -7934,75 +7919,75 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="T6" s="160" t="s">
+      <c r="T6" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="160"/>
+      <c r="U6" s="154"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="T7" s="61" t="s">
-        <v>142</v>
+      <c r="T7" s="58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:34">
       <c r="T9" s="28" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="U9" s="28"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="T10" s="61" t="s">
-        <v>142</v>
+      <c r="T10" s="58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="T12" s="28" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="T13" s="61" t="s">
-        <v>142</v>
+      <c r="T13" s="58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="T15" s="28" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="T16" s="61" t="s">
-        <v>142</v>
+      <c r="T16" s="58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="20:33">
       <c r="T18" s="28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="20:33">
-      <c r="T19" s="61" t="s">
-        <v>142</v>
+      <c r="T19" s="58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="20:33">
       <c r="T21" s="28" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="20:33">
-      <c r="T22" s="61" t="s">
-        <v>142</v>
+      <c r="T22" s="58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="20:33">
       <c r="T24" s="28" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="20:33">
-      <c r="T25" s="61" t="s">
-        <v>142</v>
+      <c r="T25" s="58" t="s">
+        <v>130</v>
       </c>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
@@ -8020,12 +8005,12 @@
     </row>
     <row r="27" spans="20:33">
       <c r="T27" s="28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="20:33">
-      <c r="T28" s="61" t="s">
-        <v>142</v>
+      <c r="T28" s="58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:50">
@@ -8539,72 +8524,72 @@
       <c r="AX50" s="26"/>
     </row>
     <row r="51" spans="1:50" ht="13.2" customHeight="1">
-      <c r="A51" s="102"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="111" t="s">
+      <c r="A51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="111" t="s">
+      <c r="E51" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="111"/>
-      <c r="G51" s="113" t="s">
+      <c r="F51" s="105"/>
+      <c r="G51" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="114"/>
-      <c r="I51" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
       <c r="L51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M51" s="120" t="s">
+      <c r="M51" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N51" s="121"/>
+      <c r="N51" s="113"/>
       <c r="O51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P51" s="152">
+      <c r="P51" s="156">
         <v>45270</v>
       </c>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="102"/>
-      <c r="S51" s="103"/>
-      <c r="T51" s="104"/>
-      <c r="U51" s="111" t="s">
+      <c r="Q51" s="105"/>
+      <c r="R51" s="115"/>
+      <c r="S51" s="116"/>
+      <c r="T51" s="117"/>
+      <c r="U51" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="V51" s="111" t="s">
+      <c r="V51" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="W51" s="111"/>
-      <c r="X51" s="113" t="s">
+      <c r="W51" s="105"/>
+      <c r="X51" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="Y51" s="114"/>
-      <c r="Z51" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA51" s="111"/>
-      <c r="AB51" s="111"/>
+      <c r="Y51" s="126"/>
+      <c r="Z51" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA51" s="105"/>
+      <c r="AB51" s="105"/>
       <c r="AC51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="120" t="s">
+      <c r="AD51" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="AE51" s="121"/>
+      <c r="AE51" s="113"/>
       <c r="AF51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AG51" s="152">
+      <c r="AG51" s="156">
         <v>45270</v>
       </c>
-      <c r="AH51" s="111"/>
+      <c r="AH51" s="105"/>
       <c r="AI51" s="28"/>
       <c r="AJ51" s="28"/>
       <c r="AK51" s="28"/>
@@ -8623,48 +8608,48 @@
       <c r="AX51" s="26"/>
     </row>
     <row r="52" spans="1:50" ht="13.2" customHeight="1">
-      <c r="A52" s="105"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="111"/>
+      <c r="A52" s="118"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
       <c r="L52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M52" s="115"/>
-      <c r="N52" s="111"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="105"/>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="115"/>
-      <c r="Q52" s="111"/>
-      <c r="R52" s="105"/>
-      <c r="S52" s="106"/>
-      <c r="T52" s="107"/>
-      <c r="U52" s="111"/>
-      <c r="V52" s="111"/>
-      <c r="W52" s="111"/>
-      <c r="X52" s="113"/>
-      <c r="Y52" s="114"/>
-      <c r="Z52" s="115"/>
-      <c r="AA52" s="111"/>
-      <c r="AB52" s="111"/>
+      <c r="P52" s="104"/>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="119"/>
+      <c r="T52" s="120"/>
+      <c r="U52" s="105"/>
+      <c r="V52" s="105"/>
+      <c r="W52" s="105"/>
+      <c r="X52" s="125"/>
+      <c r="Y52" s="126"/>
+      <c r="Z52" s="104"/>
+      <c r="AA52" s="105"/>
+      <c r="AB52" s="105"/>
       <c r="AC52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AD52" s="115"/>
-      <c r="AE52" s="111"/>
+      <c r="AD52" s="104"/>
+      <c r="AE52" s="105"/>
       <c r="AF52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AG52" s="115"/>
-      <c r="AH52" s="111"/>
+      <c r="AG52" s="104"/>
+      <c r="AH52" s="105"/>
       <c r="AI52" s="28"/>
       <c r="AJ52" s="28"/>
       <c r="AK52" s="28"/>
@@ -8683,56 +8668,56 @@
       <c r="AX52" s="26"/>
     </row>
     <row r="53" spans="1:50" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A53" s="108"/>
-      <c r="B53" s="109"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="116" t="s">
+      <c r="A53" s="121"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="117"/>
-      <c r="I53" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J53" s="119"/>
-      <c r="K53" s="116" t="s">
+      <c r="H53" s="107"/>
+      <c r="I53" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J53" s="109"/>
+      <c r="K53" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L53" s="117"/>
-      <c r="M53" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="108"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="110"/>
-      <c r="U53" s="112"/>
-      <c r="V53" s="112"/>
-      <c r="W53" s="112"/>
-      <c r="X53" s="116" t="s">
+      <c r="L53" s="107"/>
+      <c r="M53" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N53" s="109"/>
+      <c r="O53" s="109"/>
+      <c r="P53" s="109"/>
+      <c r="Q53" s="109"/>
+      <c r="R53" s="121"/>
+      <c r="S53" s="122"/>
+      <c r="T53" s="123"/>
+      <c r="U53" s="124"/>
+      <c r="V53" s="124"/>
+      <c r="W53" s="124"/>
+      <c r="X53" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="Y53" s="117"/>
-      <c r="Z53" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA53" s="119"/>
-      <c r="AB53" s="116" t="s">
+      <c r="Y53" s="107"/>
+      <c r="Z53" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA53" s="109"/>
+      <c r="AB53" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="AC53" s="117"/>
-      <c r="AD53" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE53" s="119"/>
-      <c r="AF53" s="119"/>
-      <c r="AG53" s="119"/>
-      <c r="AH53" s="119"/>
+      <c r="AC53" s="107"/>
+      <c r="AD53" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE53" s="109"/>
+      <c r="AF53" s="109"/>
+      <c r="AG53" s="109"/>
+      <c r="AH53" s="109"/>
       <c r="AI53" s="28"/>
       <c r="AJ53" s="28"/>
       <c r="AK53" s="28"/>
@@ -8907,7 +8892,7 @@
     </row>
     <row r="57" spans="1:50">
       <c r="B57" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -8923,9 +8908,7 @@
       <c r="P57" s="28"/>
       <c r="Q57" s="28"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="S57" s="4"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
@@ -8945,828 +8928,652 @@
       <c r="AW57" s="2"/>
     </row>
     <row r="58" spans="1:50">
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="153" t="s">
+      <c r="C58" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="155"/>
-      <c r="E58" s="153" t="s">
+      <c r="D58" s="164"/>
+      <c r="E58" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="155"/>
-      <c r="G58" s="153" t="s">
+      <c r="F58" s="164"/>
+      <c r="G58" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="M58" s="157"/>
-      <c r="N58" s="157"/>
-      <c r="O58" s="157"/>
-      <c r="P58" s="158"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="164"/>
+      <c r="L58" s="165" t="s">
+        <v>83</v>
+      </c>
+      <c r="M58" s="166"/>
+      <c r="N58" s="166"/>
+      <c r="O58" s="166"/>
+      <c r="P58" s="167"/>
       <c r="Q58" s="28"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="159" t="s">
-        <v>75</v>
-      </c>
-      <c r="T58" s="159"/>
-      <c r="U58" s="159"/>
-      <c r="V58" s="159"/>
-      <c r="W58" s="159"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
-      <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
-      <c r="AM58" s="2"/>
-      <c r="AN58" s="2"/>
-      <c r="AO58" s="2"/>
-      <c r="AP58" s="2"/>
-      <c r="AQ58" s="2"/>
-      <c r="AR58" s="2"/>
-      <c r="AS58" s="2"/>
-      <c r="AT58" s="2"/>
-      <c r="AU58" s="2"/>
-      <c r="AV58" s="2"/>
-      <c r="AW58" s="2"/>
     </row>
     <row r="59" spans="1:50">
-      <c r="B59" s="56">
+      <c r="B59" s="53">
         <v>1</v>
       </c>
-      <c r="C59" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="75"/>
+      <c r="C59" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="66"/>
+      <c r="E59" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="68"/>
+      <c r="G59" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="72"/>
       <c r="Q59" s="28"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="159" t="s">
-        <v>60</v>
-      </c>
-      <c r="T59" s="159"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
-      <c r="AJ59" s="2"/>
-      <c r="AK59" s="2"/>
-      <c r="AL59" s="2"/>
-      <c r="AM59" s="2"/>
-      <c r="AN59" s="2"/>
-      <c r="AO59" s="2"/>
-      <c r="AP59" s="2"/>
-      <c r="AQ59" s="2"/>
-      <c r="AR59" s="2"/>
-      <c r="AS59" s="2"/>
-      <c r="AT59" s="2"/>
-      <c r="AU59" s="2"/>
-      <c r="AV59" s="2"/>
-      <c r="AW59" s="2"/>
     </row>
     <row r="60" spans="1:50">
       <c r="B60" s="9">
         <v>2</v>
       </c>
-      <c r="C60" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="62"/>
-      <c r="E60" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60" s="44"/>
-      <c r="G60" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="64"/>
+      <c r="C60" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="59"/>
+      <c r="E60" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="41"/>
+      <c r="G60" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M60" s="63"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="61"/>
       <c r="Q60" s="28"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="T60" s="106"/>
-      <c r="U60" s="106"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
-      <c r="AM60" s="2"/>
-      <c r="AN60" s="2"/>
-      <c r="AO60" s="2"/>
-      <c r="AP60" s="2"/>
-      <c r="AQ60" s="2"/>
-      <c r="AR60" s="2"/>
-      <c r="AS60" s="2"/>
-      <c r="AT60" s="2"/>
-      <c r="AU60" s="2"/>
-      <c r="AV60" s="2"/>
-      <c r="AW60" s="2"/>
     </row>
     <row r="61" spans="1:50">
       <c r="B61" s="9">
         <v>3</v>
       </c>
-      <c r="C61" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="44"/>
-      <c r="G61" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="64"/>
+      <c r="C61" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="59"/>
+      <c r="E61" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="41"/>
+      <c r="G61" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="61"/>
       <c r="Q61" s="28"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="T61" s="178" t="s">
-        <v>41</v>
-      </c>
-      <c r="U61" s="178"/>
-      <c r="V61" s="178"/>
-      <c r="W61" s="178" t="s">
-        <v>62</v>
-      </c>
-      <c r="X61" s="178"/>
-      <c r="Y61" s="178"/>
-      <c r="Z61" s="178"/>
-      <c r="AA61" s="178"/>
-      <c r="AB61" s="178"/>
-      <c r="AC61" s="178" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD61" s="178"/>
-      <c r="AE61" s="178"/>
-      <c r="AF61" s="178"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
-      <c r="AJ61" s="2"/>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="2"/>
-      <c r="AM61" s="2"/>
-      <c r="AN61" s="2"/>
-      <c r="AO61" s="2"/>
-      <c r="AP61" s="2"/>
-      <c r="AQ61" s="2"/>
-      <c r="AR61" s="2"/>
-      <c r="AS61" s="2"/>
-      <c r="AT61" s="2"/>
-      <c r="AU61" s="2"/>
-      <c r="AV61" s="2"/>
-      <c r="AW61" s="2"/>
     </row>
     <row r="62" spans="1:50">
       <c r="B62" s="9">
         <v>4</v>
       </c>
-      <c r="C62" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="62"/>
-      <c r="E62" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="44"/>
-      <c r="G62" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M62" s="66"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="64"/>
+      <c r="C62" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="59"/>
+      <c r="E62" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="41"/>
+      <c r="G62" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="61"/>
       <c r="Q62" s="28"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="166"/>
-      <c r="U62" s="166"/>
-      <c r="V62" s="166"/>
-      <c r="W62" s="166"/>
-      <c r="X62" s="166"/>
-      <c r="Y62" s="166"/>
-      <c r="Z62" s="166"/>
-      <c r="AA62" s="166"/>
-      <c r="AB62" s="166"/>
-      <c r="AC62" s="167"/>
-      <c r="AD62" s="167"/>
-      <c r="AE62" s="167"/>
-      <c r="AF62" s="167"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
-      <c r="AJ62" s="2"/>
-      <c r="AK62" s="2"/>
-      <c r="AL62" s="2"/>
-      <c r="AM62" s="2"/>
-      <c r="AN62" s="2"/>
-      <c r="AO62" s="2"/>
-      <c r="AP62" s="2"/>
-      <c r="AQ62" s="2"/>
-      <c r="AR62" s="2"/>
-      <c r="AS62" s="2"/>
-      <c r="AT62" s="2"/>
-      <c r="AU62" s="2"/>
-      <c r="AV62" s="2"/>
-      <c r="AW62" s="2"/>
     </row>
     <row r="63" spans="1:50">
       <c r="B63" s="9">
         <v>5</v>
       </c>
-      <c r="C63" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="62"/>
-      <c r="E63" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F63" s="44"/>
-      <c r="G63" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M63" s="66"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="64"/>
+      <c r="C63" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="59"/>
+      <c r="E63" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="41"/>
+      <c r="G63" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="61"/>
       <c r="Q63" s="28"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="166"/>
-      <c r="U63" s="166"/>
-      <c r="V63" s="166"/>
-      <c r="W63" s="166"/>
-      <c r="X63" s="166"/>
-      <c r="Y63" s="166"/>
-      <c r="Z63" s="166"/>
-      <c r="AA63" s="166"/>
-      <c r="AB63" s="166"/>
-      <c r="AC63" s="167"/>
-      <c r="AD63" s="167"/>
-      <c r="AE63" s="167"/>
-      <c r="AF63" s="167"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
-      <c r="AJ63" s="2"/>
-      <c r="AK63" s="2"/>
-      <c r="AL63" s="2"/>
-      <c r="AM63" s="2"/>
-      <c r="AN63" s="2"/>
-      <c r="AO63" s="2"/>
-      <c r="AP63" s="2"/>
-      <c r="AQ63" s="2"/>
-      <c r="AR63" s="2"/>
-      <c r="AS63" s="2"/>
-      <c r="AT63" s="2"/>
-      <c r="AU63" s="2"/>
-      <c r="AV63" s="2"/>
-      <c r="AW63" s="2"/>
     </row>
     <row r="64" spans="1:50">
       <c r="B64" s="9">
         <v>6</v>
       </c>
-      <c r="C64" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="62"/>
-      <c r="E64" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" s="44"/>
-      <c r="G64" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="64"/>
+      <c r="C64" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="59"/>
+      <c r="E64" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="41"/>
+      <c r="G64" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="61"/>
       <c r="Q64" s="28"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="175"/>
-      <c r="U64" s="175"/>
-      <c r="V64" s="175"/>
-      <c r="W64" s="175"/>
-      <c r="X64" s="175"/>
-      <c r="Y64" s="175"/>
-      <c r="Z64" s="175"/>
-      <c r="AA64" s="175"/>
-      <c r="AB64" s="175"/>
-      <c r="AC64" s="176"/>
-      <c r="AD64" s="176"/>
-      <c r="AE64" s="176"/>
-      <c r="AF64" s="176"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
-      <c r="AJ64" s="2"/>
-      <c r="AK64" s="2"/>
-      <c r="AL64" s="2"/>
-      <c r="AM64" s="2"/>
-      <c r="AN64" s="2"/>
-      <c r="AO64" s="2"/>
-      <c r="AP64" s="2"/>
-      <c r="AQ64" s="2"/>
-      <c r="AR64" s="2"/>
-      <c r="AS64" s="2"/>
-      <c r="AT64" s="2"/>
-      <c r="AU64" s="2"/>
-      <c r="AV64" s="2"/>
-      <c r="AW64" s="2"/>
     </row>
     <row r="65" spans="2:49">
       <c r="B65" s="9">
         <v>7</v>
       </c>
-      <c r="C65" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="44"/>
-      <c r="G65" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="64"/>
+      <c r="C65" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="59"/>
+      <c r="E65" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="41"/>
+      <c r="G65" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="61"/>
       <c r="Q65" s="28"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="32"/>
-      <c r="Z65" s="32"/>
-      <c r="AA65" s="32"/>
-      <c r="AB65" s="32"/>
-      <c r="AC65" s="41"/>
-      <c r="AD65" s="41"/>
-      <c r="AE65" s="41"/>
-      <c r="AF65" s="41"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
-      <c r="AJ65" s="2"/>
-      <c r="AK65" s="2"/>
-      <c r="AL65" s="2"/>
-      <c r="AM65" s="2"/>
-      <c r="AN65" s="2"/>
-      <c r="AO65" s="2"/>
-      <c r="AP65" s="2"/>
-      <c r="AQ65" s="2"/>
-      <c r="AR65" s="2"/>
-      <c r="AS65" s="2"/>
-      <c r="AT65" s="2"/>
-      <c r="AU65" s="2"/>
-      <c r="AV65" s="2"/>
-      <c r="AW65" s="2"/>
     </row>
     <row r="66" spans="2:49">
       <c r="B66" s="9">
         <v>8</v>
       </c>
-      <c r="C66" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="62"/>
-      <c r="E66" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="44"/>
-      <c r="G66" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="64"/>
+      <c r="C66" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="59"/>
+      <c r="E66" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="41"/>
+      <c r="G66" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="61"/>
       <c r="Q66" s="28"/>
       <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
-      <c r="AM66" s="2"/>
-      <c r="AN66" s="2"/>
-      <c r="AO66" s="2"/>
-      <c r="AP66" s="2"/>
-      <c r="AQ66" s="2"/>
-      <c r="AR66" s="2"/>
-      <c r="AS66" s="2"/>
-      <c r="AT66" s="2"/>
-      <c r="AU66" s="2"/>
-      <c r="AV66" s="2"/>
-      <c r="AW66" s="2"/>
     </row>
     <row r="67" spans="2:49">
       <c r="B67" s="9">
         <v>9</v>
       </c>
-      <c r="C67" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="62"/>
-      <c r="E67" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="44"/>
-      <c r="G67" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="64"/>
+      <c r="C67" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="59"/>
+      <c r="E67" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="41"/>
+      <c r="G67" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="61"/>
       <c r="Q67" s="28"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T67" s="4"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
-      <c r="AJ67" s="2"/>
-      <c r="AK67" s="2"/>
-      <c r="AL67" s="2"/>
-      <c r="AM67" s="2"/>
-      <c r="AN67" s="2"/>
-      <c r="AO67" s="2"/>
-      <c r="AP67" s="2"/>
-      <c r="AQ67" s="2"/>
-      <c r="AR67" s="2"/>
-      <c r="AS67" s="2"/>
-      <c r="AT67" s="2"/>
-      <c r="AU67" s="2"/>
-      <c r="AV67" s="2"/>
-      <c r="AW67" s="2"/>
     </row>
     <row r="68" spans="2:49">
       <c r="B68" s="9">
         <v>10</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="62"/>
-      <c r="E68" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" s="44"/>
-      <c r="G68" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="64"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="41"/>
+      <c r="G68" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+      <c r="O68" s="63"/>
+      <c r="P68" s="61"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="179" t="s">
-        <v>64</v>
-      </c>
-      <c r="T68" s="179"/>
-      <c r="U68" s="179"/>
-      <c r="V68" s="179" t="s">
-        <v>65</v>
-      </c>
-      <c r="W68" s="179"/>
-      <c r="X68" s="179"/>
-      <c r="Y68" s="179"/>
-      <c r="Z68" s="179"/>
-      <c r="AA68" s="179"/>
-      <c r="AB68" s="179"/>
-      <c r="AC68" s="179"/>
-      <c r="AD68" s="179"/>
-      <c r="AE68" s="179"/>
-      <c r="AF68" s="179"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
-      <c r="AJ68" s="2"/>
-      <c r="AK68" s="2"/>
-      <c r="AL68" s="2"/>
-      <c r="AM68" s="2"/>
-      <c r="AN68" s="2"/>
-      <c r="AO68" s="2"/>
-      <c r="AP68" s="2"/>
-      <c r="AQ68" s="2"/>
-      <c r="AR68" s="2"/>
-      <c r="AS68" s="2"/>
-      <c r="AT68" s="2"/>
-      <c r="AU68" s="2"/>
-      <c r="AV68" s="2"/>
-      <c r="AW68" s="2"/>
     </row>
     <row r="69" spans="2:49">
       <c r="B69" s="9">
         <v>11</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="59"/>
+      <c r="E69" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" s="41"/>
+      <c r="G69" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="44"/>
-      <c r="G69" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M69" s="66"/>
-      <c r="N69" s="66"/>
-      <c r="O69" s="66"/>
-      <c r="P69" s="64"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="61"/>
       <c r="Q69" s="28"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="180" t="s">
-        <v>67</v>
-      </c>
-      <c r="T69" s="180"/>
-      <c r="U69" s="180"/>
-      <c r="V69" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="W69" s="122"/>
-      <c r="X69" s="122"/>
-      <c r="Y69" s="122"/>
-      <c r="Z69" s="122" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA69" s="122"/>
-      <c r="AB69" s="122"/>
-      <c r="AC69" s="122"/>
-      <c r="AD69" s="122"/>
-      <c r="AE69" s="122"/>
-      <c r="AF69" s="122"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
-      <c r="AJ69" s="2"/>
-      <c r="AK69" s="2"/>
-      <c r="AL69" s="2"/>
-      <c r="AM69" s="2"/>
-      <c r="AN69" s="2"/>
-      <c r="AO69" s="2"/>
-      <c r="AP69" s="2"/>
-      <c r="AQ69" s="2"/>
-      <c r="AR69" s="2"/>
-      <c r="AS69" s="2"/>
-      <c r="AT69" s="2"/>
-      <c r="AU69" s="2"/>
-      <c r="AV69" s="2"/>
-      <c r="AW69" s="2"/>
     </row>
     <row r="70" spans="2:49">
       <c r="B70" s="9">
         <v>12</v>
       </c>
-      <c r="C70" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D70" s="62"/>
-      <c r="E70" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F70" s="44"/>
-      <c r="G70" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="64"/>
-      <c r="L70" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="M70" s="66"/>
-      <c r="N70" s="66"/>
-      <c r="O70" s="66"/>
-      <c r="P70" s="64"/>
+      <c r="C70" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="59"/>
+      <c r="E70" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="41"/>
+      <c r="G70" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M70" s="63"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="61"/>
       <c r="Q70" s="28"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="181" t="s">
-        <v>81</v>
-      </c>
-      <c r="T70" s="181"/>
-      <c r="U70" s="181"/>
-      <c r="V70" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="W70" s="130"/>
-      <c r="X70" s="130"/>
-      <c r="Y70" s="130"/>
-      <c r="Z70" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA70" s="130"/>
-      <c r="AB70" s="130"/>
-      <c r="AC70" s="130"/>
-      <c r="AD70" s="130"/>
-      <c r="AE70" s="130"/>
-      <c r="AF70" s="130"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
-      <c r="AJ70" s="2"/>
-      <c r="AK70" s="2"/>
-      <c r="AL70" s="2"/>
-      <c r="AM70" s="2"/>
-      <c r="AN70" s="2"/>
-      <c r="AO70" s="2"/>
-      <c r="AP70" s="2"/>
-      <c r="AQ70" s="2"/>
-      <c r="AR70" s="2"/>
-      <c r="AS70" s="2"/>
-      <c r="AT70" s="2"/>
-      <c r="AU70" s="2"/>
-      <c r="AV70" s="2"/>
-      <c r="AW70" s="2"/>
     </row>
     <row r="71" spans="2:49">
       <c r="B71" s="11">
         <v>13</v>
       </c>
-      <c r="C71" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="F71" s="47"/>
-      <c r="G71" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="M71" s="67"/>
-      <c r="N71" s="67"/>
-      <c r="O71" s="67"/>
-      <c r="P71" s="65"/>
+      <c r="C71" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="60"/>
+      <c r="E71" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="44"/>
+      <c r="G71" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="62"/>
       <c r="Q71" s="28"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="161" t="s">
-        <v>82</v>
-      </c>
-      <c r="T71" s="161"/>
-      <c r="U71" s="161"/>
-      <c r="V71" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="W71" s="163"/>
-      <c r="X71" s="163"/>
-      <c r="Y71" s="164"/>
-      <c r="Z71" s="165" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA71" s="130"/>
-      <c r="AB71" s="130"/>
-      <c r="AC71" s="130"/>
-      <c r="AD71" s="130"/>
-      <c r="AE71" s="130"/>
-      <c r="AF71" s="130"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
-      <c r="AJ71" s="2"/>
-      <c r="AK71" s="2"/>
-      <c r="AL71" s="2"/>
-      <c r="AM71" s="2"/>
-      <c r="AN71" s="2"/>
-      <c r="AO71" s="2"/>
-      <c r="AP71" s="2"/>
-      <c r="AQ71" s="2"/>
-      <c r="AR71" s="2"/>
-      <c r="AS71" s="2"/>
-      <c r="AT71" s="2"/>
-      <c r="AU71" s="2"/>
-      <c r="AV71" s="2"/>
-      <c r="AW71" s="2"/>
     </row>
     <row r="72" spans="2:49">
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -9802,10 +9609,10 @@
       <c r="AW72" s="2"/>
     </row>
     <row r="73" spans="2:49">
-      <c r="B73" s="159" t="s">
+      <c r="B73" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="159"/>
+      <c r="C73" s="149"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -9844,14 +9651,14 @@
       <c r="B74" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="168" t="s">
+      <c r="C74" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="168"/>
-      <c r="E74" s="168" t="s">
+      <c r="D74" s="158"/>
+      <c r="E74" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="F74" s="168"/>
+      <c r="F74" s="158"/>
       <c r="G74" s="34" t="s">
         <v>43</v>
       </c>
@@ -9864,16 +9671,16 @@
       <c r="J74" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K74" s="168" t="s">
+      <c r="K74" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="L74" s="168"/>
-      <c r="M74" s="168" t="s">
+      <c r="L74" s="158"/>
+      <c r="M74" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="168"/>
-      <c r="O74" s="168"/>
-      <c r="P74" s="168"/>
+      <c r="N74" s="158"/>
+      <c r="O74" s="158"/>
+      <c r="P74" s="158"/>
       <c r="Q74" s="28"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
@@ -9900,30 +9707,30 @@
       <c r="B75" s="7">
         <v>1</v>
       </c>
-      <c r="C75" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="78"/>
-      <c r="E75" s="169" t="s">
-        <v>117</v>
-      </c>
-      <c r="F75" s="170"/>
+      <c r="C75" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="75"/>
+      <c r="E75" s="159" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" s="160"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>48</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K75" s="169"/>
-      <c r="L75" s="170"/>
-      <c r="M75" s="169"/>
-      <c r="N75" s="171"/>
-      <c r="O75" s="171"/>
-      <c r="P75" s="170"/>
+        <v>106</v>
+      </c>
+      <c r="K75" s="159"/>
+      <c r="L75" s="160"/>
+      <c r="M75" s="159"/>
+      <c r="N75" s="161"/>
+      <c r="O75" s="161"/>
+      <c r="P75" s="160"/>
       <c r="Q75" s="28"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
@@ -9950,30 +9757,30 @@
       <c r="B76" s="9">
         <v>2</v>
       </c>
-      <c r="C76" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="62"/>
-      <c r="E76" s="131" t="s">
+      <c r="C76" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="59"/>
+      <c r="E76" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="F76" s="132"/>
+      <c r="F76" s="140"/>
       <c r="G76" s="35"/>
       <c r="H76" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>48</v>
       </c>
       <c r="J76" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="K76" s="131"/>
-      <c r="L76" s="132"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="133"/>
-      <c r="O76" s="133"/>
-      <c r="P76" s="132"/>
+        <v>95</v>
+      </c>
+      <c r="K76" s="139"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="139"/>
+      <c r="N76" s="141"/>
+      <c r="O76" s="141"/>
+      <c r="P76" s="140"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="AF76" s="2"/>
@@ -9999,30 +9806,30 @@
       <c r="B77" s="9">
         <v>3</v>
       </c>
-      <c r="C77" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="62"/>
-      <c r="E77" s="53" t="s">
+      <c r="C77" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="59"/>
+      <c r="E77" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F77" s="54"/>
+      <c r="F77" s="51"/>
       <c r="G77" s="35"/>
       <c r="H77" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J77" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="K77" s="53"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="55"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="54"/>
+        <v>107</v>
+      </c>
+      <c r="K77" s="50"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="51"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="AF77" s="2"/>
@@ -10048,30 +9855,30 @@
       <c r="B78" s="9">
         <v>4</v>
       </c>
-      <c r="C78" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="62"/>
-      <c r="E78" s="53" t="s">
+      <c r="C78" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="59"/>
+      <c r="E78" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F78" s="54"/>
+      <c r="F78" s="51"/>
       <c r="G78" s="35"/>
       <c r="H78" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J78" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="K78" s="53"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="55"/>
-      <c r="P78" s="54"/>
+        <v>107</v>
+      </c>
+      <c r="K78" s="50"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="52"/>
+      <c r="P78" s="51"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="AF78" s="2"/>
@@ -10097,30 +9904,30 @@
       <c r="B79" s="9">
         <v>5</v>
       </c>
-      <c r="C79" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" s="62"/>
-      <c r="E79" s="53" t="s">
+      <c r="C79" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="59"/>
+      <c r="E79" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F79" s="54"/>
+      <c r="F79" s="51"/>
       <c r="G79" s="35"/>
       <c r="H79" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J79" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="K79" s="53"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="55"/>
-      <c r="O79" s="55"/>
-      <c r="P79" s="54"/>
+        <v>107</v>
+      </c>
+      <c r="K79" s="50"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="52"/>
+      <c r="O79" s="52"/>
+      <c r="P79" s="51"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="AF79" s="2"/>
@@ -10146,30 +9953,30 @@
       <c r="B80" s="9">
         <v>6</v>
       </c>
-      <c r="C80" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" s="62"/>
-      <c r="E80" s="53" t="s">
+      <c r="C80" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="59"/>
+      <c r="E80" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F80" s="54"/>
+      <c r="F80" s="51"/>
       <c r="G80" s="35"/>
       <c r="H80" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>48</v>
       </c>
       <c r="J80" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="K80" s="53"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="54"/>
+        <v>95</v>
+      </c>
+      <c r="K80" s="50"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="52"/>
+      <c r="P80" s="51"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -10203,30 +10010,30 @@
       <c r="B81" s="9">
         <v>7</v>
       </c>
-      <c r="C81" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="62"/>
-      <c r="E81" s="53" t="s">
+      <c r="C81" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="59"/>
+      <c r="E81" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F81" s="54"/>
+      <c r="F81" s="51"/>
       <c r="G81" s="35"/>
       <c r="H81" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>48</v>
       </c>
       <c r="J81" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="K81" s="53"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="54"/>
+        <v>95</v>
+      </c>
+      <c r="K81" s="50"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="52"/>
+      <c r="O81" s="52"/>
+      <c r="P81" s="51"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -10260,30 +10067,30 @@
       <c r="B82" s="9">
         <v>8</v>
       </c>
-      <c r="C82" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" s="54"/>
-      <c r="E82" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="F82" s="54"/>
+      <c r="C82" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="51"/>
+      <c r="E82" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F82" s="51"/>
       <c r="G82" s="35"/>
       <c r="H82" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>48</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="K82" s="53"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="44"/>
+        <v>143</v>
+      </c>
+      <c r="K82" s="50"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="41"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
@@ -10310,33 +10117,33 @@
       <c r="AR82" s="2"/>
     </row>
     <row r="83" spans="2:49">
-      <c r="B83" s="45">
+      <c r="B83" s="42">
         <v>9</v>
       </c>
-      <c r="C83" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="F83" s="50"/>
+      <c r="C83" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="47"/>
+      <c r="E83" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="F83" s="47"/>
       <c r="G83" s="36"/>
       <c r="H83" s="11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>48</v>
       </c>
       <c r="J83" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="K83" s="48"/>
-      <c r="L83" s="63"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="46"/>
-      <c r="P83" s="47"/>
+        <v>143</v>
+      </c>
+      <c r="K83" s="45"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="43"/>
+      <c r="P83" s="44"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
@@ -10403,10 +10210,10 @@
       <c r="AR84" s="2"/>
     </row>
     <row r="85" spans="2:49">
-      <c r="B85" s="172" t="s">
+      <c r="B85" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="172"/>
+      <c r="C85" s="157"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -10444,26 +10251,26 @@
       <c r="B86" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="168" t="s">
+      <c r="C86" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="168"/>
-      <c r="E86" s="168"/>
-      <c r="F86" s="168" t="s">
+      <c r="D86" s="158"/>
+      <c r="E86" s="158"/>
+      <c r="F86" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="G86" s="168"/>
-      <c r="H86" s="168"/>
-      <c r="I86" s="168" t="s">
+      <c r="G86" s="158"/>
+      <c r="H86" s="158"/>
+      <c r="I86" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="J86" s="168"/>
-      <c r="K86" s="168"/>
-      <c r="L86" s="168"/>
-      <c r="M86" s="168"/>
-      <c r="N86" s="168"/>
-      <c r="O86" s="168"/>
-      <c r="P86" s="168"/>
+      <c r="J86" s="158"/>
+      <c r="K86" s="158"/>
+      <c r="L86" s="158"/>
+      <c r="M86" s="158"/>
+      <c r="N86" s="158"/>
+      <c r="O86" s="158"/>
+      <c r="P86" s="158"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -10497,24 +10304,24 @@
       <c r="B87" s="7">
         <v>1</v>
       </c>
-      <c r="C87" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="122" t="s">
+      <c r="C87" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="82"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="G87" s="122"/>
-      <c r="H87" s="122"/>
-      <c r="I87" s="124"/>
-      <c r="J87" s="124"/>
-      <c r="K87" s="124"/>
-      <c r="L87" s="124"/>
-      <c r="M87" s="124"/>
-      <c r="N87" s="124"/>
-      <c r="O87" s="124"/>
-      <c r="P87" s="124"/>
+      <c r="G87" s="142"/>
+      <c r="H87" s="142"/>
+      <c r="I87" s="144"/>
+      <c r="J87" s="144"/>
+      <c r="K87" s="144"/>
+      <c r="L87" s="144"/>
+      <c r="M87" s="144"/>
+      <c r="N87" s="144"/>
+      <c r="O87" s="144"/>
+      <c r="P87" s="144"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -10549,21 +10356,21 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
-      </c>
-      <c r="F88" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="F88" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="G88" s="130"/>
-      <c r="H88" s="130"/>
-      <c r="I88" s="101"/>
-      <c r="J88" s="101"/>
-      <c r="K88" s="101"/>
-      <c r="L88" s="101"/>
-      <c r="M88" s="101"/>
-      <c r="N88" s="101"/>
-      <c r="O88" s="101"/>
-      <c r="P88" s="101"/>
+      <c r="G88" s="138"/>
+      <c r="H88" s="138"/>
+      <c r="I88" s="148"/>
+      <c r="J88" s="148"/>
+      <c r="K88" s="148"/>
+      <c r="L88" s="148"/>
+      <c r="M88" s="148"/>
+      <c r="N88" s="148"/>
+      <c r="O88" s="148"/>
+      <c r="P88" s="148"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -10598,21 +10405,21 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
-      </c>
-      <c r="F89" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="G89" s="130"/>
-      <c r="H89" s="130"/>
-      <c r="I89" s="101"/>
-      <c r="J89" s="101"/>
-      <c r="K89" s="101"/>
-      <c r="L89" s="101"/>
-      <c r="M89" s="101"/>
-      <c r="N89" s="101"/>
-      <c r="O89" s="101"/>
-      <c r="P89" s="101"/>
+      <c r="G89" s="138"/>
+      <c r="H89" s="138"/>
+      <c r="I89" s="148"/>
+      <c r="J89" s="148"/>
+      <c r="K89" s="148"/>
+      <c r="L89" s="148"/>
+      <c r="M89" s="148"/>
+      <c r="N89" s="148"/>
+      <c r="O89" s="148"/>
+      <c r="P89" s="148"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -10646,24 +10453,24 @@
       <c r="B90" s="11">
         <v>4</v>
       </c>
-      <c r="C90" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="81"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="173" t="s">
+      <c r="C90" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="78"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="G90" s="173"/>
-      <c r="H90" s="173"/>
-      <c r="I90" s="161"/>
-      <c r="J90" s="161"/>
-      <c r="K90" s="161"/>
-      <c r="L90" s="161"/>
-      <c r="M90" s="161"/>
-      <c r="N90" s="161"/>
-      <c r="O90" s="161"/>
-      <c r="P90" s="161"/>
+      <c r="G90" s="152"/>
+      <c r="H90" s="152"/>
+      <c r="I90" s="153"/>
+      <c r="J90" s="153"/>
+      <c r="K90" s="153"/>
+      <c r="L90" s="153"/>
+      <c r="M90" s="153"/>
+      <c r="N90" s="153"/>
+      <c r="O90" s="153"/>
+      <c r="P90" s="153"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -10844,39 +10651,39 @@
       <c r="AH95" s="2"/>
     </row>
     <row r="97" spans="1:48">
-      <c r="A97" s="102"/>
-      <c r="B97" s="103"/>
-      <c r="C97" s="104"/>
-      <c r="D97" s="111" t="s">
+      <c r="A97" s="115"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="117"/>
+      <c r="D97" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="111" t="s">
+      <c r="E97" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F97" s="111"/>
-      <c r="G97" s="113" t="s">
+      <c r="F97" s="105"/>
+      <c r="G97" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H97" s="114"/>
-      <c r="I97" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J97" s="111"/>
-      <c r="K97" s="111"/>
+      <c r="H97" s="126"/>
+      <c r="I97" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J97" s="105"/>
+      <c r="K97" s="105"/>
       <c r="L97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M97" s="120" t="s">
+      <c r="M97" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N97" s="121"/>
+      <c r="N97" s="113"/>
       <c r="O97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P97" s="152">
+      <c r="P97" s="156">
         <v>45270</v>
       </c>
-      <c r="Q97" s="111"/>
+      <c r="Q97" s="105"/>
       <c r="R97" s="28"/>
       <c r="S97" s="28"/>
       <c r="T97" s="28"/>
@@ -10893,27 +10700,27 @@
       <c r="AE97" s="26"/>
     </row>
     <row r="98" spans="1:48">
-      <c r="A98" s="105"/>
-      <c r="B98" s="106"/>
-      <c r="C98" s="107"/>
-      <c r="D98" s="111"/>
-      <c r="E98" s="111"/>
-      <c r="F98" s="111"/>
-      <c r="G98" s="113"/>
-      <c r="H98" s="114"/>
-      <c r="I98" s="115"/>
-      <c r="J98" s="111"/>
-      <c r="K98" s="111"/>
+      <c r="A98" s="118"/>
+      <c r="B98" s="119"/>
+      <c r="C98" s="120"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="126"/>
+      <c r="I98" s="104"/>
+      <c r="J98" s="105"/>
+      <c r="K98" s="105"/>
       <c r="L98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M98" s="115"/>
-      <c r="N98" s="111"/>
+      <c r="M98" s="104"/>
+      <c r="N98" s="105"/>
       <c r="O98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P98" s="115"/>
-      <c r="Q98" s="111"/>
+      <c r="P98" s="104"/>
+      <c r="Q98" s="105"/>
       <c r="R98" s="28"/>
       <c r="S98" s="28"/>
       <c r="T98" s="28"/>
@@ -10930,31 +10737,31 @@
       <c r="AE98" s="26"/>
     </row>
     <row r="99" spans="1:48" ht="15" thickBot="1">
-      <c r="A99" s="108"/>
-      <c r="B99" s="109"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="116" t="s">
+      <c r="A99" s="121"/>
+      <c r="B99" s="122"/>
+      <c r="C99" s="123"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="124"/>
+      <c r="F99" s="124"/>
+      <c r="G99" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H99" s="117"/>
-      <c r="I99" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J99" s="119"/>
-      <c r="K99" s="116" t="s">
+      <c r="H99" s="107"/>
+      <c r="I99" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J99" s="109"/>
+      <c r="K99" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L99" s="117"/>
-      <c r="M99" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N99" s="119"/>
-      <c r="O99" s="119"/>
-      <c r="P99" s="119"/>
-      <c r="Q99" s="119"/>
+      <c r="L99" s="107"/>
+      <c r="M99" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N99" s="109"/>
+      <c r="O99" s="109"/>
+      <c r="P99" s="109"/>
+      <c r="Q99" s="109"/>
       <c r="R99" s="28"/>
       <c r="S99" s="28"/>
       <c r="T99" s="28"/>
@@ -11033,10 +10840,10 @@
     </row>
     <row r="103" spans="1:48">
       <c r="B103" s="27"/>
-      <c r="C103" s="160" t="s">
+      <c r="C103" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="160"/>
+      <c r="D103" s="154"/>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
       <c r="G103" s="26"/>
@@ -11047,13 +10854,13 @@
     <row r="104" spans="1:48">
       <c r="B104" s="27"/>
       <c r="C104" s="28"/>
-      <c r="D104" s="174" t="s">
-        <v>126</v>
-      </c>
-      <c r="E104" s="174"/>
-      <c r="F104" s="174"/>
-      <c r="G104" s="174"/>
-      <c r="H104" s="174"/>
+      <c r="D104" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="E104" s="155"/>
+      <c r="F104" s="155"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="155"/>
       <c r="I104" s="26"/>
       <c r="J104" s="26"/>
     </row>
@@ -11070,10 +10877,10 @@
     </row>
     <row r="106" spans="1:48">
       <c r="B106" s="27"/>
-      <c r="C106" s="160" t="s">
-        <v>127</v>
-      </c>
-      <c r="D106" s="160"/>
+      <c r="C106" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" s="154"/>
       <c r="E106" s="26"/>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -11085,7 +10892,7 @@
       <c r="B107" s="27"/>
       <c r="C107" s="28"/>
       <c r="D107" s="26" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E107" s="26"/>
       <c r="F107" s="26"/>
@@ -11098,7 +10905,7 @@
       <c r="B108" s="27"/>
       <c r="C108" s="28"/>
       <c r="D108" s="26" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E108" s="26"/>
       <c r="F108" s="26"/>
@@ -11121,7 +10928,7 @@
     <row r="110" spans="1:48">
       <c r="B110" s="27"/>
       <c r="C110" s="28" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D110" s="37"/>
       <c r="E110" s="26"/>
@@ -11135,7 +10942,7 @@
       <c r="B111" s="27"/>
       <c r="C111" s="28"/>
       <c r="D111" s="37" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E111" s="37"/>
       <c r="F111" s="26"/>
@@ -11148,7 +10955,7 @@
       <c r="B112" s="27"/>
       <c r="C112" s="28"/>
       <c r="D112" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E112" s="37"/>
       <c r="F112" s="37"/>
@@ -11170,7 +10977,7 @@
     <row r="114" spans="2:10">
       <c r="B114" s="27"/>
       <c r="C114" s="28" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D114" s="37"/>
       <c r="E114" s="37"/>
@@ -11184,7 +10991,7 @@
       <c r="B115" s="27"/>
       <c r="C115" s="28"/>
       <c r="D115" s="37" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E115" s="37"/>
       <c r="F115" s="37"/>
@@ -11197,7 +11004,7 @@
       <c r="B116" s="27"/>
       <c r="C116" s="28"/>
       <c r="D116" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E116" s="37"/>
       <c r="F116" s="37"/>
@@ -11220,7 +11027,7 @@
     <row r="118" spans="2:10" ht="15.6" customHeight="1">
       <c r="B118" s="27"/>
       <c r="C118" s="28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D118" s="37"/>
       <c r="E118" s="37"/>
@@ -11234,7 +11041,7 @@
       <c r="B119" s="27"/>
       <c r="C119" s="28"/>
       <c r="D119" s="37" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E119" s="37"/>
       <c r="F119" s="37"/>
@@ -11247,7 +11054,7 @@
       <c r="B120" s="27"/>
       <c r="C120" s="28"/>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E120" s="37"/>
       <c r="F120" s="37"/>
@@ -11270,7 +11077,7 @@
     <row r="122" spans="2:10">
       <c r="B122" s="27"/>
       <c r="C122" s="28" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D122" s="37"/>
       <c r="E122" s="37"/>
@@ -11284,7 +11091,7 @@
       <c r="B123" s="27"/>
       <c r="C123" s="28"/>
       <c r="D123" s="37" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E123" s="37"/>
       <c r="F123" s="37"/>
@@ -11297,7 +11104,7 @@
       <c r="B124" s="27"/>
       <c r="C124" s="28"/>
       <c r="D124" s="37" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E124" s="37"/>
       <c r="F124" s="37"/>
@@ -11310,7 +11117,7 @@
       <c r="B125" s="27"/>
       <c r="C125" s="28"/>
       <c r="D125" s="37" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E125" s="37"/>
       <c r="F125" s="37"/>
@@ -11333,7 +11140,7 @@
     <row r="127" spans="2:10">
       <c r="B127" s="27"/>
       <c r="C127" s="28" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -11347,7 +11154,7 @@
       <c r="B128" s="27"/>
       <c r="C128" s="28"/>
       <c r="D128" s="37" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E128" s="37"/>
       <c r="F128" s="37"/>
@@ -11360,7 +11167,7 @@
       <c r="B129" s="27"/>
       <c r="C129" s="28"/>
       <c r="D129" s="37" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E129" s="37"/>
       <c r="F129" s="37"/>
@@ -11373,7 +11180,7 @@
       <c r="B130" s="27"/>
       <c r="C130" s="28"/>
       <c r="D130" s="37" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E130" s="37"/>
       <c r="F130" s="37"/>
@@ -11396,7 +11203,7 @@
     <row r="132" spans="2:10">
       <c r="B132" s="27"/>
       <c r="C132" s="28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="37"/>
@@ -11409,7 +11216,7 @@
     <row r="133" spans="2:10">
       <c r="B133" s="27"/>
       <c r="D133" s="37" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E133" s="37"/>
       <c r="F133" s="37"/>
@@ -11422,7 +11229,7 @@
       <c r="B134" s="27"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E134" s="26"/>
       <c r="F134" s="26"/>
@@ -11434,7 +11241,7 @@
     <row r="135" spans="2:10">
       <c r="B135" s="27"/>
       <c r="D135" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E135" s="28"/>
       <c r="F135" s="26"/>
@@ -11452,23 +11259,85 @@
       <c r="J138" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
-    <mergeCell ref="V70:Y70"/>
-    <mergeCell ref="Z70:AF70"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="W64:AB64"/>
-    <mergeCell ref="AC64:AF64"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:AB61"/>
-    <mergeCell ref="AC61:AF61"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:AF68"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AF69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="S70:U70"/>
+  <mergeCells count="96">
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="V51:W53"/>
+    <mergeCell ref="X51:Y52"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="R51:T53"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="A51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:F53"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="I51:K52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="Z51:AB52"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AB2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="I87:P87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I88:P88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="I86:P86"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:P89"/>
     <mergeCell ref="F90:H90"/>
     <mergeCell ref="I90:P90"/>
     <mergeCell ref="C103:D103"/>
@@ -11487,94 +11356,6 @@
     <mergeCell ref="E97:F99"/>
     <mergeCell ref="G97:H98"/>
     <mergeCell ref="I97:K98"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="I87:P87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="I88:P88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="I86:P86"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="I89:P89"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AB2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:Y71"/>
-    <mergeCell ref="Z71:AF71"/>
-    <mergeCell ref="A51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:F53"/>
-    <mergeCell ref="G51:H52"/>
-    <mergeCell ref="I51:K52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="W62:AB62"/>
-    <mergeCell ref="AC62:AF62"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="W63:AB63"/>
-    <mergeCell ref="AC63:AF63"/>
-    <mergeCell ref="Z51:AB52"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="R51:T53"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="S58:W58"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="V51:W53"/>
-    <mergeCell ref="X51:Y52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" location="'Xử lý (10).1'!A1" display="Xem chi tiết " xr:uid="{F8C47B94-2CD8-4C05-9705-EC88E22F58CF}"/>
@@ -11617,89 +11398,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="111" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="152">
+      <c r="P1" s="156">
         <v>45270</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="111"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="7" spans="1:17">
@@ -11708,16 +11489,16 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -11733,344 +11514,344 @@
       <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183" t="s">
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183" t="s">
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="183"/>
-      <c r="L10" s="79" t="s">
+      <c r="K10" s="168"/>
+      <c r="L10" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="183" t="s">
+      <c r="M10" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="62"/>
+      <c r="C11" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M11" s="82"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M11" s="79"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="59"/>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="62"/>
+      <c r="C12" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M12" s="82"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M12" s="79"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="59"/>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="62"/>
+      <c r="C13" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="82"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M13" s="79"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="9">
         <v>4</v>
       </c>
-      <c r="C14" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="62"/>
+      <c r="C14" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" s="82"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M14" s="79"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="9">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="62"/>
+      <c r="C15" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M15" s="82"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M15" s="79"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="59"/>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" s="9">
         <v>6</v>
       </c>
-      <c r="C16" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="62"/>
+      <c r="C16" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="77"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M16" s="82"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M16" s="79"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="59"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="9">
         <v>7</v>
       </c>
-      <c r="C17" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="62"/>
+      <c r="C17" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="77"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M17" s="82"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M17" s="79"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="59"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="9">
         <v>8</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="62"/>
+      <c r="C18" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M18" s="82"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M18" s="79"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="59"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="9">
         <v>9</v>
       </c>
-      <c r="C19" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="62"/>
+      <c r="C19" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="59"/>
       <c r="L19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M19" s="82"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M19" s="79"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="59"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="9">
         <v>10</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="62"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M20" s="82"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M20" s="79"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="59"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="9">
         <v>11</v>
       </c>
-      <c r="C21" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="62"/>
+      <c r="C21" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="77"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M21" s="82"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M21" s="79"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="59"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="9">
         <v>12</v>
       </c>
-      <c r="C22" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="62"/>
+      <c r="C22" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="77"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" s="82"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="M22" s="79"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="59"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="11">
         <v>13</v>
       </c>
-      <c r="C23" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="63"/>
+      <c r="C23" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="M23" s="83"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="63"/>
+        <v>131</v>
+      </c>
+      <c r="M23" s="80"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="60"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="2"/>
@@ -12079,21 +11860,21 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="25" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C25" s="25"/>
       <c r="F25" s="25"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="25" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C26" s="25"/>
       <c r="F26" s="25"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="25" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C27" s="25"/>
       <c r="F27" s="25"/>
@@ -12105,255 +11886,255 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="183" t="s">
+      <c r="C30" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183" t="s">
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183" t="s">
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="183"/>
-      <c r="L30" s="79" t="s">
+      <c r="K30" s="168"/>
+      <c r="L30" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="183" t="s">
+      <c r="M30" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="131" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="131" t="s">
+      <c r="C31" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="132"/>
+      <c r="K31" s="140"/>
       <c r="L31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="145"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="147"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="100"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="9">
         <v>2</v>
       </c>
-      <c r="C32" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="131" t="s">
+      <c r="C32" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="77"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="132"/>
+      <c r="K32" s="140"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="147"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="100"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="9">
         <v>3</v>
       </c>
-      <c r="C33" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" s="54"/>
+      <c r="C33" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" s="51"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="44"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="9">
         <v>4</v>
       </c>
-      <c r="C34" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="K34" s="54"/>
+      <c r="C34" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" s="51"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="44"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="41"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="9">
         <v>5</v>
       </c>
-      <c r="C35" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="K35" s="54"/>
+      <c r="C35" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" s="51"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="44"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="9">
         <v>6</v>
       </c>
-      <c r="C36" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="53" t="s">
+      <c r="C36" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="54"/>
+      <c r="K36" s="51"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="44"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="41"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="9">
         <v>7</v>
       </c>
-      <c r="C37" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="53" t="s">
+      <c r="C37" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="K37" s="54"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="44"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="9">
         <v>8</v>
       </c>
-      <c r="C38" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="53" t="s">
+      <c r="C38" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="K38" s="54"/>
+      <c r="K38" s="51"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="44"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="41"/>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="11">
         <v>9</v>
       </c>
-      <c r="C39" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="48" t="s">
+      <c r="C39" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="50"/>
+      <c r="K39" s="47"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="47"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="44"/>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="2"/>
@@ -12379,159 +12160,133 @@
       <c r="B43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="182" t="s">
+      <c r="C43" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="182"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182" t="s">
+      <c r="D43" s="169"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="182" t="s">
+      <c r="G43" s="169"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="182"/>
+      <c r="K43" s="169"/>
       <c r="L43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M43" s="182" t="s">
+      <c r="M43" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="182"/>
-      <c r="O43" s="182"/>
+      <c r="N43" s="169"/>
+      <c r="O43" s="169"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="7">
         <v>1</v>
       </c>
-      <c r="C44" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="85"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="122" t="s">
-        <v>156</v>
-      </c>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
+      <c r="C44" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="82"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="142"/>
       <c r="L44" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="142"/>
+      <c r="O44" s="142"/>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="9">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="80"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="130"/>
+        <v>112</v>
+      </c>
+      <c r="D45" s="77"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="138"/>
       <c r="L45" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="M45" s="130"/>
-      <c r="N45" s="130"/>
-      <c r="O45" s="130"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="138"/>
+      <c r="O45" s="138"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="9">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="80"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="130" t="s">
-        <v>158</v>
-      </c>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
+        <v>110</v>
+      </c>
+      <c r="D46" s="77"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="138"/>
       <c r="L46" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="M46" s="130"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="130"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="138"/>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="11">
         <v>4</v>
       </c>
-      <c r="C47" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="173" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="173"/>
-      <c r="H47" s="173"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="173"/>
-      <c r="K47" s="173"/>
+      <c r="C47" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="78"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="152"/>
       <c r="L47" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="M47" s="173"/>
-      <c r="N47" s="173"/>
-      <c r="O47" s="173"/>
+      <c r="M47" s="152"/>
+      <c r="N47" s="152"/>
+      <c r="O47" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -12540,11 +12295,37 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
@@ -12566,128 +12347,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="111" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="152">
+      <c r="P1" s="156">
         <v>45270</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="111"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="5" spans="1:17">
       <c r="C5" s="27" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="D6" s="28" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="D7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="D8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="4:7">
       <c r="G23" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="4:7">
       <c r="D25" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -12696,6 +12472,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
@@ -12718,133 +12499,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="111" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="152">
+      <c r="P1" s="156">
         <v>45270</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="111"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="5" spans="1:17">
       <c r="B5" s="27" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="28" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="G25" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="F32" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -12853,6 +12629,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
@@ -12875,133 +12656,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="111" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="152">
+      <c r="P1" s="156">
         <v>45270</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="111"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="5" spans="1:17">
       <c r="B5" s="27" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="28" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="F17" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="F27" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13010,6 +12786,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
@@ -13032,133 +12813,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="111" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="152">
+      <c r="P1" s="156">
         <v>45270</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="111"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="6" spans="1:17">
       <c r="C6" s="27" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="D7" s="28" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="D8" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="D9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="F19" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="F27" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13167,6 +12943,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
@@ -13189,138 +12970,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="111" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="152">
+      <c r="P1" s="156">
         <v>45270</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="111"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="5" spans="1:17">
       <c r="C5" s="27" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="D6" s="28" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="D7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="D8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="4:5">
       <c r="E21" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="4:5">
       <c r="D22" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="4:5">
       <c r="E23" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13329,6 +13105,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
@@ -13351,138 +13132,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="111" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="152">
+      <c r="P1" s="156">
         <v>45270</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="111"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1"/>
     <row r="6" spans="1:17">
       <c r="B6" s="27" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="28" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="C9" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="D22" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="D24" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13491,6 +13267,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
